--- a/results/tables/Big_species_table.xlsx
+++ b/results/tables/Big_species_table.xlsx
@@ -415,22 +415,22 @@
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>DADA2_Species_label</t>
+          <t>DADA2Spec_label</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>DADA2_Species_outcome</t>
+          <t>DADA2Spec_outcome</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>DADA2_Taxonomy_label</t>
+          <t>DADA2Tax_label</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>DADA2_Taxonomy_outcome</t>
+          <t>DADA2Tax_outcome</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
@@ -580,16 +580,6 @@
           <t>Gymnothorax nudivomer</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>Correct species</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>Phyllopteryx taeniolatus</t>
-        </is>
-      </c>
       <c r="P2" t="inlineStr">
         <is>
           <t>Correct species</t>
@@ -2104,16 +2094,6 @@
           <t>Gymnothorax nudivomer</t>
         </is>
       </c>
-      <c r="N14" t="inlineStr">
-        <is>
-          <t>Incorrect species</t>
-        </is>
-      </c>
-      <c r="O14" t="inlineStr">
-        <is>
-          <t>Pentapodus setosus</t>
-        </is>
-      </c>
       <c r="P14" t="inlineStr">
         <is>
           <t>Correct species</t>
@@ -4284,16 +4264,6 @@
           <t>Diceratias pileatus</t>
         </is>
       </c>
-      <c r="N34" t="inlineStr">
-        <is>
-          <t>Incorrect species</t>
-        </is>
-      </c>
-      <c r="O34" t="inlineStr">
-        <is>
-          <t>Scopeloberyx robustus</t>
-        </is>
-      </c>
       <c r="P34" t="inlineStr">
         <is>
           <t>Incorrect species</t>
@@ -4498,16 +4468,6 @@
           <t>Gymnothorax nudivomer</t>
         </is>
       </c>
-      <c r="N36" t="inlineStr">
-        <is>
-          <t>Incorrect species</t>
-        </is>
-      </c>
-      <c r="O36" t="inlineStr">
-        <is>
-          <t>Saurenchelys fierasfer</t>
-        </is>
-      </c>
       <c r="P36" t="inlineStr">
         <is>
           <t>Correct species</t>
@@ -5130,16 +5090,6 @@
           <t>Gymnothorax nudivomer</t>
         </is>
       </c>
-      <c r="N42" t="inlineStr">
-        <is>
-          <t>Correct species</t>
-        </is>
-      </c>
-      <c r="O42" t="inlineStr">
-        <is>
-          <t>Phoca groenlandica</t>
-        </is>
-      </c>
       <c r="P42" t="inlineStr">
         <is>
           <t>Correct species</t>
@@ -5287,16 +5237,6 @@
           <t>Gymnothorax nudivomer</t>
         </is>
       </c>
-      <c r="N43" t="inlineStr">
-        <is>
-          <t>Incorrect species</t>
-        </is>
-      </c>
-      <c r="O43" t="inlineStr">
-        <is>
-          <t>Coelorinchus macrochir</t>
-        </is>
-      </c>
       <c r="P43" t="inlineStr">
         <is>
           <t>Correct species</t>
@@ -5501,16 +5441,6 @@
           <t>Gymnothorax nudivomer</t>
         </is>
       </c>
-      <c r="N45" t="inlineStr">
-        <is>
-          <t>Incorrect species</t>
-        </is>
-      </c>
-      <c r="O45" t="inlineStr">
-        <is>
-          <t>Heterostichus rostratus</t>
-        </is>
-      </c>
       <c r="P45" t="inlineStr">
         <is>
           <t>Correct species</t>
@@ -6651,16 +6581,6 @@
           <t>Gymnothorax nudivomer</t>
         </is>
       </c>
-      <c r="N55" t="inlineStr">
-        <is>
-          <t>Incorrect species</t>
-        </is>
-      </c>
-      <c r="O55" t="inlineStr">
-        <is>
-          <t>Cosmocampus elucens</t>
-        </is>
-      </c>
       <c r="AB55" t="inlineStr">
         <is>
           <t>Incorrect species</t>
@@ -6728,16 +6648,6 @@
           <t>Gymnothorax nudivomer</t>
         </is>
       </c>
-      <c r="N56" t="inlineStr">
-        <is>
-          <t>Correct species</t>
-        </is>
-      </c>
-      <c r="O56" t="inlineStr">
-        <is>
-          <t>Zeus faber</t>
-        </is>
-      </c>
       <c r="P56" t="inlineStr">
         <is>
           <t>Correct species</t>
@@ -7149,16 +7059,6 @@
           <t>Gymnothorax nudivomer</t>
         </is>
       </c>
-      <c r="N59" t="inlineStr">
-        <is>
-          <t>Incorrect species</t>
-        </is>
-      </c>
-      <c r="O59" t="inlineStr">
-        <is>
-          <t>Acromycter nezumi</t>
-        </is>
-      </c>
       <c r="P59" t="inlineStr">
         <is>
           <t>Correct species</t>
@@ -7510,16 +7410,6 @@
           <t>Gymnothorax nudivomer</t>
         </is>
       </c>
-      <c r="N62" t="inlineStr">
-        <is>
-          <t>Incorrect species</t>
-        </is>
-      </c>
-      <c r="O62" t="inlineStr">
-        <is>
-          <t>Chauliodus sloani</t>
-        </is>
-      </c>
       <c r="P62" t="inlineStr">
         <is>
           <t>Correct species</t>
@@ -7891,16 +7781,6 @@
           <t>Gymnothorax nudivomer</t>
         </is>
       </c>
-      <c r="N65" t="inlineStr">
-        <is>
-          <t>Incorrect species</t>
-        </is>
-      </c>
-      <c r="O65" t="inlineStr">
-        <is>
-          <t>Squatina aculeata</t>
-        </is>
-      </c>
       <c r="P65" t="inlineStr">
         <is>
           <t>Correct species</t>
@@ -8998,16 +8878,6 @@
           <t>Gymnothorax nudivomer</t>
         </is>
       </c>
-      <c r="N76" t="inlineStr">
-        <is>
-          <t>Incorrect species</t>
-        </is>
-      </c>
-      <c r="O76" t="inlineStr">
-        <is>
-          <t>Dinematichthys iluocoeteoides</t>
-        </is>
-      </c>
       <c r="P76" t="inlineStr">
         <is>
           <t>Correct species</t>
@@ -9984,16 +9854,6 @@
           <t>Gymnothorax nudivomer</t>
         </is>
       </c>
-      <c r="N84" t="inlineStr">
-        <is>
-          <t>Incorrect species</t>
-        </is>
-      </c>
-      <c r="O84" t="inlineStr">
-        <is>
-          <t>Cynoglossus interruptus</t>
-        </is>
-      </c>
       <c r="P84" t="inlineStr">
         <is>
           <t>Correct species</t>
@@ -10121,16 +9981,6 @@
           <t>Gymnothorax nudivomer</t>
         </is>
       </c>
-      <c r="N85" t="inlineStr">
-        <is>
-          <t>Incorrect species</t>
-        </is>
-      </c>
-      <c r="O85" t="inlineStr">
-        <is>
-          <t>Maccullochella mariensis</t>
-        </is>
-      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -10783,16 +10633,6 @@
           <t>Gymnothorax nudivomer</t>
         </is>
       </c>
-      <c r="N91" t="inlineStr">
-        <is>
-          <t>Incorrect species</t>
-        </is>
-      </c>
-      <c r="O91" t="inlineStr">
-        <is>
-          <t>Epinephelus sexfasciatus</t>
-        </is>
-      </c>
       <c r="P91" t="inlineStr">
         <is>
           <t>Incorrect species</t>
@@ -11231,16 +11071,6 @@
           <t>Gymnothorax nudivomer</t>
         </is>
       </c>
-      <c r="N95" t="inlineStr">
-        <is>
-          <t>Correct species</t>
-        </is>
-      </c>
-      <c r="O95" t="inlineStr">
-        <is>
-          <t>Eleotris klunzingerii</t>
-        </is>
-      </c>
       <c r="P95" t="inlineStr">
         <is>
           <t>Correct species</t>
@@ -11378,16 +11208,6 @@
           <t>Gymnothorax nudivomer</t>
         </is>
       </c>
-      <c r="N96" t="inlineStr">
-        <is>
-          <t>Correct species</t>
-        </is>
-      </c>
-      <c r="O96" t="inlineStr">
-        <is>
-          <t>Globicephala macrorhynchus</t>
-        </is>
-      </c>
       <c r="P96" t="inlineStr">
         <is>
           <t>Correct species</t>
@@ -11682,16 +11502,6 @@
           <t>Gymnothorax nudivomer</t>
         </is>
       </c>
-      <c r="N98" t="inlineStr">
-        <is>
-          <t>Incorrect species</t>
-        </is>
-      </c>
-      <c r="O98" t="inlineStr">
-        <is>
-          <t>Chaetodon trifasciatus</t>
-        </is>
-      </c>
       <c r="P98" t="inlineStr">
         <is>
           <t>Correct species</t>
@@ -11963,16 +11773,6 @@
           <t>Gymnothorax nudivomer</t>
         </is>
       </c>
-      <c r="N101" t="inlineStr">
-        <is>
-          <t>Incorrect species</t>
-        </is>
-      </c>
-      <c r="O101" t="inlineStr">
-        <is>
-          <t>Solegnathus lettiensis</t>
-        </is>
-      </c>
       <c r="P101" t="inlineStr">
         <is>
           <t>Correct species</t>
@@ -12304,16 +12104,6 @@
           <t>Gymnothorax nudivomer</t>
         </is>
       </c>
-      <c r="N104" t="inlineStr">
-        <is>
-          <t>Incorrect species</t>
-        </is>
-      </c>
-      <c r="O104" t="inlineStr">
-        <is>
-          <t>Petroschmidtia toyamensis</t>
-        </is>
-      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -12548,16 +12338,6 @@
           <t>Gymnothorax nudivomer</t>
         </is>
       </c>
-      <c r="N106" t="inlineStr">
-        <is>
-          <t>Correct species</t>
-        </is>
-      </c>
-      <c r="O106" t="inlineStr">
-        <is>
-          <t>Chaetodon wiebeli</t>
-        </is>
-      </c>
       <c r="P106" t="inlineStr">
         <is>
           <t>Correct species</t>
@@ -14163,16 +13943,6 @@
           <t>Gymnothorax nudivomer</t>
         </is>
       </c>
-      <c r="N121" t="inlineStr">
-        <is>
-          <t>Incorrect species</t>
-        </is>
-      </c>
-      <c r="O121" t="inlineStr">
-        <is>
-          <t>Bregmaceros cantori</t>
-        </is>
-      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -15223,16 +14993,6 @@
           <t>Gymnothorax nudivomer</t>
         </is>
       </c>
-      <c r="N131" t="inlineStr">
-        <is>
-          <t>Incorrect species</t>
-        </is>
-      </c>
-      <c r="O131" t="inlineStr">
-        <is>
-          <t>Sicydium punctatum</t>
-        </is>
-      </c>
       <c r="V131" t="inlineStr">
         <is>
           <t>Correct species</t>
@@ -17216,16 +16976,6 @@
           <t>Nansenia ardesiaca</t>
         </is>
       </c>
-      <c r="N150" t="inlineStr">
-        <is>
-          <t>Incorrect species</t>
-        </is>
-      </c>
-      <c r="O150" t="inlineStr">
-        <is>
-          <t>Chilomycterus reticulatus</t>
-        </is>
-      </c>
       <c r="P150" t="inlineStr">
         <is>
           <t>Incorrect species</t>
@@ -17597,16 +17347,6 @@
           <t>Bassozetus zenkevitchi</t>
         </is>
       </c>
-      <c r="N153" t="inlineStr">
-        <is>
-          <t>Incorrect species</t>
-        </is>
-      </c>
-      <c r="O153" t="inlineStr">
-        <is>
-          <t>Cataetyx messieri</t>
-        </is>
-      </c>
       <c r="P153" t="inlineStr">
         <is>
           <t>Incorrect species</t>
@@ -17975,16 +17715,6 @@
           <t>Gymnothorax nudivomer</t>
         </is>
       </c>
-      <c r="N157" t="inlineStr">
-        <is>
-          <t>Incorrect species</t>
-        </is>
-      </c>
-      <c r="O157" t="inlineStr">
-        <is>
-          <t>Cephalopholis fulva</t>
-        </is>
-      </c>
       <c r="X157" t="inlineStr">
         <is>
           <t>Correct species</t>
@@ -18717,16 +18447,6 @@
           <t>Gymnothorax nudivomer</t>
         </is>
       </c>
-      <c r="N163" t="inlineStr">
-        <is>
-          <t>Incorrect species</t>
-        </is>
-      </c>
-      <c r="O163" t="inlineStr">
-        <is>
-          <t>Suezichthys gracilis</t>
-        </is>
-      </c>
       <c r="P163" t="inlineStr">
         <is>
           <t>Correct species</t>
@@ -20589,16 +20309,6 @@
           <t>Gymnothorax nudivomer</t>
         </is>
       </c>
-      <c r="N179" t="inlineStr">
-        <is>
-          <t>Incorrect species</t>
-        </is>
-      </c>
-      <c r="O179" t="inlineStr">
-        <is>
-          <t>Alosa aestivalis</t>
-        </is>
-      </c>
       <c r="AB179" t="inlineStr">
         <is>
           <t>Incorrect species</t>
@@ -22725,16 +22435,6 @@
           <t>Gymnothorax nudivomer</t>
         </is>
       </c>
-      <c r="N197" t="inlineStr">
-        <is>
-          <t>Correct species</t>
-        </is>
-      </c>
-      <c r="O197" t="inlineStr">
-        <is>
-          <t>Oostethus manadensis</t>
-        </is>
-      </c>
       <c r="AB197" t="inlineStr">
         <is>
           <t>Incorrect species</t>
@@ -22989,16 +22689,6 @@
           <t>Gymnothorax nudivomer</t>
         </is>
       </c>
-      <c r="N199" t="inlineStr">
-        <is>
-          <t>Incorrect species</t>
-        </is>
-      </c>
-      <c r="O199" t="inlineStr">
-        <is>
-          <t>Lepidophanes guentheri</t>
-        </is>
-      </c>
       <c r="P199" t="inlineStr">
         <is>
           <t>Correct species</t>
@@ -23487,16 +23177,6 @@
           <t>Aldrovandia oleosa</t>
         </is>
       </c>
-      <c r="N203" t="inlineStr">
-        <is>
-          <t>Incorrect species</t>
-        </is>
-      </c>
-      <c r="O203" t="inlineStr">
-        <is>
-          <t>Halosaurus johnsonianus</t>
-        </is>
-      </c>
       <c r="P203" t="inlineStr">
         <is>
           <t>Correct species</t>
@@ -24382,11 +24062,6 @@
           <t>Argyrosomus japonicus</t>
         </is>
       </c>
-      <c r="O213" t="inlineStr">
-        <is>
-          <t>Argyrosomus inodorus</t>
-        </is>
-      </c>
       <c r="AC213" t="inlineStr">
         <is>
           <t>Argyrosomus japonicus</t>
@@ -24603,11 +24278,6 @@
           <t>Pomacentridae</t>
         </is>
       </c>
-      <c r="O216" t="inlineStr">
-        <is>
-          <t>Amphiprion nigripes</t>
-        </is>
-      </c>
       <c r="Q216" t="inlineStr">
         <is>
           <t>Amphiprion sebae</t>
@@ -26279,11 +25949,6 @@
           <t>Himantolophidae</t>
         </is>
       </c>
-      <c r="O234" t="inlineStr">
-        <is>
-          <t>Himantolophus sagamius</t>
-        </is>
-      </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
@@ -26478,16 +26143,6 @@
           <t>Alepocephalus productus</t>
         </is>
       </c>
-      <c r="N236" t="inlineStr">
-        <is>
-          <t>Incorrect species</t>
-        </is>
-      </c>
-      <c r="O236" t="inlineStr">
-        <is>
-          <t>Alepocephalus antipodianus</t>
-        </is>
-      </c>
       <c r="P236" t="inlineStr">
         <is>
           <t>Correct species</t>
@@ -26831,11 +26486,6 @@
           <t>Takifugu xanthopterus</t>
         </is>
       </c>
-      <c r="O240" t="inlineStr">
-        <is>
-          <t>Takifugu xanthopterus</t>
-        </is>
-      </c>
       <c r="W240" t="inlineStr">
         <is>
           <t>Takifugu xanthopterus</t>
@@ -26878,11 +26528,6 @@
           <t>Ostraciidae</t>
         </is>
       </c>
-      <c r="O241" t="inlineStr">
-        <is>
-          <t>Ostracion nasus</t>
-        </is>
-      </c>
       <c r="W241" t="inlineStr">
         <is>
           <t>Ostracion immaculatus</t>
@@ -27047,11 +26692,6 @@
           <t>Alosa pseudoharengus</t>
         </is>
       </c>
-      <c r="O243" t="inlineStr">
-        <is>
-          <t>Ammodytes americanus</t>
-        </is>
-      </c>
       <c r="W243" t="inlineStr">
         <is>
           <t>Alosa aestivalis</t>
@@ -27984,16 +27624,6 @@
           <t>Phocoena phocoena</t>
         </is>
       </c>
-      <c r="N254" t="inlineStr">
-        <is>
-          <t>Incorrect species</t>
-        </is>
-      </c>
-      <c r="O254" t="inlineStr">
-        <is>
-          <t>Lycodes ocellatus</t>
-        </is>
-      </c>
       <c r="P254" t="inlineStr">
         <is>
           <t>Correct species</t>
@@ -28444,11 +28074,6 @@
           <t>Engraulidae</t>
         </is>
       </c>
-      <c r="O259" t="inlineStr">
-        <is>
-          <t>Coilia nasus</t>
-        </is>
-      </c>
       <c r="W259" t="inlineStr">
         <is>
           <t>Coilia nasus</t>
@@ -28496,16 +28121,6 @@
           <t>Stereolepis doederleini</t>
         </is>
       </c>
-      <c r="N260" t="inlineStr">
-        <is>
-          <t>Incorrect species</t>
-        </is>
-      </c>
-      <c r="O260" t="inlineStr">
-        <is>
-          <t>Synchirus gilli</t>
-        </is>
-      </c>
       <c r="P260" t="inlineStr">
         <is>
           <t>Incorrect species</t>
@@ -28784,11 +28399,6 @@
           <t>Auxis rochei</t>
         </is>
       </c>
-      <c r="O264" t="inlineStr">
-        <is>
-          <t>Auxis rochei</t>
-        </is>
-      </c>
       <c r="AC264" t="inlineStr">
         <is>
           <t>Auxis rochei</t>
@@ -29065,16 +28675,6 @@
           <t>Rhinogobius flumineus</t>
         </is>
       </c>
-      <c r="N267" t="inlineStr">
-        <is>
-          <t>Incorrect species</t>
-        </is>
-      </c>
-      <c r="O267" t="inlineStr">
-        <is>
-          <t>Rhinogobius kurodai</t>
-        </is>
-      </c>
       <c r="P267" t="inlineStr">
         <is>
           <t>Correct species</t>
@@ -29246,16 +28846,6 @@
           <t>Acanthurus japonicus</t>
         </is>
       </c>
-      <c r="N270" t="inlineStr">
-        <is>
-          <t>Incorrect species</t>
-        </is>
-      </c>
-      <c r="O270" t="inlineStr">
-        <is>
-          <t>Acanthurus nigricans</t>
-        </is>
-      </c>
       <c r="X270" t="inlineStr">
         <is>
           <t>Correct species</t>
@@ -30104,11 +29694,6 @@
           <t>Syngnathidae</t>
         </is>
       </c>
-      <c r="O279" t="inlineStr">
-        <is>
-          <t>Hippocampus reidi</t>
-        </is>
-      </c>
       <c r="AC279" t="inlineStr">
         <is>
           <t>Hippocampus fuscus</t>
@@ -30569,16 +30154,6 @@
           <t>Lycenchelys kolthoffi</t>
         </is>
       </c>
-      <c r="N284" t="inlineStr">
-        <is>
-          <t>Incorrect species</t>
-        </is>
-      </c>
-      <c r="O284" t="inlineStr">
-        <is>
-          <t>Lycodes lavalaei</t>
-        </is>
-      </c>
       <c r="AB284" t="inlineStr">
         <is>
           <t>Correct species</t>
@@ -31240,11 +30815,6 @@
           <t>Delphinidae</t>
         </is>
       </c>
-      <c r="O292" t="inlineStr">
-        <is>
-          <t>Globicephala macrorhynchus</t>
-        </is>
-      </c>
       <c r="W292" t="inlineStr">
         <is>
           <t>Globicephala melas</t>
@@ -31399,16 +30969,6 @@
           <t>Thryssa kammalensis</t>
         </is>
       </c>
-      <c r="N294" t="inlineStr">
-        <is>
-          <t>Incorrect species</t>
-        </is>
-      </c>
-      <c r="O294" t="inlineStr">
-        <is>
-          <t>Atherinomorus forskalii</t>
-        </is>
-      </c>
       <c r="V294" t="inlineStr">
         <is>
           <t>Correct species</t>
@@ -32100,16 +31660,6 @@
           <t>Gymnothorax nudivomer</t>
         </is>
       </c>
-      <c r="N302" t="inlineStr">
-        <is>
-          <t>Incorrect species</t>
-        </is>
-      </c>
-      <c r="O302" t="inlineStr">
-        <is>
-          <t>Tiliqua nigrolutea</t>
-        </is>
-      </c>
       <c r="P302" t="inlineStr">
         <is>
           <t>Incorrect species</t>
@@ -33860,16 +33410,6 @@
           <t>Gymnothorax nudivomer</t>
         </is>
       </c>
-      <c r="N317" t="inlineStr">
-        <is>
-          <t>Correct species</t>
-        </is>
-      </c>
-      <c r="O317" t="inlineStr">
-        <is>
-          <t>Aphareus rutilans</t>
-        </is>
-      </c>
       <c r="P317" t="inlineStr">
         <is>
           <t>Correct species</t>
@@ -34428,16 +33968,6 @@
           <t>Gymnothorax nudivomer</t>
         </is>
       </c>
-      <c r="N321" t="inlineStr">
-        <is>
-          <t>Incorrect species</t>
-        </is>
-      </c>
-      <c r="O321" t="inlineStr">
-        <is>
-          <t>Pterocaesio trilineata</t>
-        </is>
-      </c>
       <c r="P321" t="inlineStr">
         <is>
           <t>Correct species</t>
@@ -35176,16 +34706,6 @@
           <t>Lutjanus sebae</t>
         </is>
       </c>
-      <c r="N330" t="inlineStr">
-        <is>
-          <t>Incorrect species</t>
-        </is>
-      </c>
-      <c r="O330" t="inlineStr">
-        <is>
-          <t>Spratelloides gracilis</t>
-        </is>
-      </c>
       <c r="P330" t="inlineStr">
         <is>
           <t>Correct species</t>
@@ -35470,16 +34990,6 @@
           <t>Gymnothorax nudivomer</t>
         </is>
       </c>
-      <c r="N332" t="inlineStr">
-        <is>
-          <t>Incorrect species</t>
-        </is>
-      </c>
-      <c r="O332" t="inlineStr">
-        <is>
-          <t>Lutjanus madras</t>
-        </is>
-      </c>
       <c r="P332" t="inlineStr">
         <is>
           <t>Correct species</t>
@@ -35634,16 +35144,6 @@
           <t>Pristipomoides filamentosus</t>
         </is>
       </c>
-      <c r="N334" t="inlineStr">
-        <is>
-          <t>Incorrect species</t>
-        </is>
-      </c>
-      <c r="O334" t="inlineStr">
-        <is>
-          <t>Aphareus rutilans</t>
-        </is>
-      </c>
       <c r="P334" t="inlineStr">
         <is>
           <t>Incorrect species</t>
@@ -35711,16 +35211,6 @@
           <t>Caesio caerulaurea</t>
         </is>
       </c>
-      <c r="N335" t="inlineStr">
-        <is>
-          <t>Incorrect species</t>
-        </is>
-      </c>
-      <c r="O335" t="inlineStr">
-        <is>
-          <t>Amblycirrhitus pinos</t>
-        </is>
-      </c>
       <c r="P335" t="inlineStr">
         <is>
           <t>Incorrect species</t>
@@ -36407,16 +35897,6 @@
           <t>Pristipomoides auricilla</t>
         </is>
       </c>
-      <c r="N343" t="inlineStr">
-        <is>
-          <t>Incorrect species</t>
-        </is>
-      </c>
-      <c r="O343" t="inlineStr">
-        <is>
-          <t>Etelis oculatus</t>
-        </is>
-      </c>
       <c r="P343" t="inlineStr">
         <is>
           <t>Incorrect species</t>
@@ -37239,16 +36719,6 @@
           <t>Pristipomoides sieboldii</t>
         </is>
       </c>
-      <c r="N349" t="inlineStr">
-        <is>
-          <t>Incorrect species</t>
-        </is>
-      </c>
-      <c r="O349" t="inlineStr">
-        <is>
-          <t>Etelis oculatus</t>
-        </is>
-      </c>
       <c r="P349" t="inlineStr">
         <is>
           <t>Incorrect species</t>
@@ -37903,16 +37373,6 @@
           <t>Lutjanus johnii</t>
         </is>
       </c>
-      <c r="N356" t="inlineStr">
-        <is>
-          <t>Incorrect species</t>
-        </is>
-      </c>
-      <c r="O356" t="inlineStr">
-        <is>
-          <t>Zenarchopterus ectuntio</t>
-        </is>
-      </c>
       <c r="P356" t="inlineStr">
         <is>
           <t>Correct species</t>
@@ -38371,16 +37831,6 @@
           <t>Lutjanus malabaricus</t>
         </is>
       </c>
-      <c r="N360" t="inlineStr">
-        <is>
-          <t>Incorrect species</t>
-        </is>
-      </c>
-      <c r="O360" t="inlineStr">
-        <is>
-          <t>Parascorpaena picta</t>
-        </is>
-      </c>
       <c r="P360" t="inlineStr">
         <is>
           <t>Correct species</t>
@@ -38635,16 +38085,6 @@
           <t>Lutjanus viridis</t>
         </is>
       </c>
-      <c r="N362" t="inlineStr">
-        <is>
-          <t>Incorrect species</t>
-        </is>
-      </c>
-      <c r="O362" t="inlineStr">
-        <is>
-          <t>Lutjanus notatus</t>
-        </is>
-      </c>
       <c r="V362" t="inlineStr">
         <is>
           <t>Correct species</t>
@@ -39232,16 +38672,6 @@
           <t>Pterocaesio digramma</t>
         </is>
       </c>
-      <c r="N368" t="inlineStr">
-        <is>
-          <t>Correct species</t>
-        </is>
-      </c>
-      <c r="O368" t="inlineStr">
-        <is>
-          <t>Pterocaesio digramma</t>
-        </is>
-      </c>
       <c r="P368" t="inlineStr">
         <is>
           <t>Correct species</t>
@@ -40402,16 +39832,6 @@
           <t>Gymnothorax pseudothyrsoideus</t>
         </is>
       </c>
-      <c r="N378" t="inlineStr">
-        <is>
-          <t>Correct species</t>
-        </is>
-      </c>
-      <c r="O378" t="inlineStr">
-        <is>
-          <t>Gymnothorax pseudothyrsoideus</t>
-        </is>
-      </c>
       <c r="X378" t="inlineStr">
         <is>
           <t>Correct species</t>
@@ -40623,16 +40043,6 @@
           <t>Desmodema polystictum</t>
         </is>
       </c>
-      <c r="N381" t="inlineStr">
-        <is>
-          <t>Correct species</t>
-        </is>
-      </c>
-      <c r="O381" t="inlineStr">
-        <is>
-          <t>Desmodema polystictum</t>
-        </is>
-      </c>
       <c r="P381" t="inlineStr">
         <is>
           <t>Correct species</t>
@@ -40907,16 +40317,6 @@
           <t>Gymnothorax javanicus</t>
         </is>
       </c>
-      <c r="N383" t="inlineStr">
-        <is>
-          <t>Incorrect species</t>
-        </is>
-      </c>
-      <c r="O383" t="inlineStr">
-        <is>
-          <t>Herklotsichthys spilurus</t>
-        </is>
-      </c>
       <c r="P383" t="inlineStr">
         <is>
           <t>Correct species</t>
@@ -41024,16 +40424,6 @@
           <t>Zeus faber</t>
         </is>
       </c>
-      <c r="N384" t="inlineStr">
-        <is>
-          <t>Incorrect species</t>
-        </is>
-      </c>
-      <c r="O384" t="inlineStr">
-        <is>
-          <t>Acanthurus bahianus</t>
-        </is>
-      </c>
       <c r="P384" t="inlineStr">
         <is>
           <t>Correct species</t>
@@ -41442,16 +40832,6 @@
           <t>Tetrapturus angustirostris</t>
         </is>
       </c>
-      <c r="N388" t="inlineStr">
-        <is>
-          <t>Incorrect species</t>
-        </is>
-      </c>
-      <c r="O388" t="inlineStr">
-        <is>
-          <t>Tetrapturus pfluegeri</t>
-        </is>
-      </c>
       <c r="X388" t="inlineStr">
         <is>
           <t>Correct species</t>
@@ -41529,16 +40909,6 @@
           <t>Zeus faber</t>
         </is>
       </c>
-      <c r="N389" t="inlineStr">
-        <is>
-          <t>Incorrect species</t>
-        </is>
-      </c>
-      <c r="O389" t="inlineStr">
-        <is>
-          <t>Chilatherina alleni</t>
-        </is>
-      </c>
       <c r="P389" t="inlineStr">
         <is>
           <t>Correct species</t>
@@ -41870,16 +41240,6 @@
           <t>Gymnothorax pseudothyrsoideus</t>
         </is>
       </c>
-      <c r="N392" t="inlineStr">
-        <is>
-          <t>Correct species</t>
-        </is>
-      </c>
-      <c r="O392" t="inlineStr">
-        <is>
-          <t>Gymnothorax pseudothyrsoideus</t>
-        </is>
-      </c>
       <c r="Z392" t="inlineStr">
         <is>
           <t>Correct species</t>
@@ -41957,16 +41317,6 @@
           <t>Parupeneus chrysopleuron</t>
         </is>
       </c>
-      <c r="N393" t="inlineStr">
-        <is>
-          <t>Correct species</t>
-        </is>
-      </c>
-      <c r="O393" t="inlineStr">
-        <is>
-          <t>Parupeneus chrysopleuron</t>
-        </is>
-      </c>
       <c r="P393" t="inlineStr">
         <is>
           <t>Correct species</t>
@@ -42773,16 +42123,6 @@
           <t>Chaetodon auriga</t>
         </is>
       </c>
-      <c r="N401" t="inlineStr">
-        <is>
-          <t>Incorrect species</t>
-        </is>
-      </c>
-      <c r="O401" t="inlineStr">
-        <is>
-          <t>Chaetodon guttatissimus</t>
-        </is>
-      </c>
       <c r="P401" t="inlineStr">
         <is>
           <t>Correct species</t>
@@ -43154,16 +42494,6 @@
           <t>Acanthocybium solandri</t>
         </is>
       </c>
-      <c r="N404" t="inlineStr">
-        <is>
-          <t>Incorrect species</t>
-        </is>
-      </c>
-      <c r="O404" t="inlineStr">
-        <is>
-          <t>Agrostichthys parkeri</t>
-        </is>
-      </c>
       <c r="P404" t="inlineStr">
         <is>
           <t>Correct species</t>
@@ -43291,16 +42621,6 @@
           <t>Upeneus tragula</t>
         </is>
       </c>
-      <c r="N405" t="inlineStr">
-        <is>
-          <t>Incorrect species</t>
-        </is>
-      </c>
-      <c r="O405" t="inlineStr">
-        <is>
-          <t>Upeneus luzonius</t>
-        </is>
-      </c>
       <c r="P405" t="inlineStr">
         <is>
           <t>Correct species</t>
@@ -43465,16 +42785,6 @@
           <t>Pseudocaranx dentex</t>
         </is>
       </c>
-      <c r="N407" t="inlineStr">
-        <is>
-          <t>Incorrect species</t>
-        </is>
-      </c>
-      <c r="O407" t="inlineStr">
-        <is>
-          <t>Bregmaceros mcclellandi</t>
-        </is>
-      </c>
       <c r="P407" t="inlineStr">
         <is>
           <t>Correct species</t>
@@ -44809,16 +44119,6 @@
           <t>Dermogenys pusilla</t>
         </is>
       </c>
-      <c r="N419" t="inlineStr">
-        <is>
-          <t>Incorrect species</t>
-        </is>
-      </c>
-      <c r="O419" t="inlineStr">
-        <is>
-          <t>Bathyclupea megaceps</t>
-        </is>
-      </c>
       <c r="V419" t="inlineStr">
         <is>
           <t>Correct species</t>
@@ -45053,16 +44353,6 @@
           <t>Abudefduf vaigiensis</t>
         </is>
       </c>
-      <c r="N421" t="inlineStr">
-        <is>
-          <t>Correct species</t>
-        </is>
-      </c>
-      <c r="O421" t="inlineStr">
-        <is>
-          <t>Abudefduf vaigiensis</t>
-        </is>
-      </c>
       <c r="V421" t="inlineStr">
         <is>
           <t>Correct species</t>
@@ -45140,16 +44430,6 @@
           <t>Auxis thazard</t>
         </is>
       </c>
-      <c r="N422" t="inlineStr">
-        <is>
-          <t>Incorrect species</t>
-        </is>
-      </c>
-      <c r="O422" t="inlineStr">
-        <is>
-          <t>Omobranchus elegans</t>
-        </is>
-      </c>
       <c r="X422" t="inlineStr">
         <is>
           <t>Correct species</t>
@@ -46280,16 +45560,6 @@
           <t>Parupeneus chrysopleuron</t>
         </is>
       </c>
-      <c r="N432" t="inlineStr">
-        <is>
-          <t>Correct species</t>
-        </is>
-      </c>
-      <c r="O432" t="inlineStr">
-        <is>
-          <t>Parupeneus chrysopleuron</t>
-        </is>
-      </c>
       <c r="P432" t="inlineStr">
         <is>
           <t>Correct species</t>
@@ -48005,16 +47275,6 @@
           <t>Rhabdosargus sarba</t>
         </is>
       </c>
-      <c r="N447" t="inlineStr">
-        <is>
-          <t>Incorrect species</t>
-        </is>
-      </c>
-      <c r="O447" t="inlineStr">
-        <is>
-          <t>Rhabdosargus haffara</t>
-        </is>
-      </c>
       <c r="P447" t="inlineStr">
         <is>
           <t>Correct species</t>
@@ -48764,16 +48024,6 @@
           <t>Pomatomus saltatrix</t>
         </is>
       </c>
-      <c r="N454" t="inlineStr">
-        <is>
-          <t>Incorrect species</t>
-        </is>
-      </c>
-      <c r="O454" t="inlineStr">
-        <is>
-          <t>Poroderma africanum</t>
-        </is>
-      </c>
       <c r="P454" t="inlineStr">
         <is>
           <t>Correct species</t>
@@ -50208,16 +49458,6 @@
           <t>Lagocephalus lunaris</t>
         </is>
       </c>
-      <c r="N466" t="inlineStr">
-        <is>
-          <t>Incorrect species</t>
-        </is>
-      </c>
-      <c r="O466" t="inlineStr">
-        <is>
-          <t>Bathytroctes macrolepis</t>
-        </is>
-      </c>
       <c r="P466" t="inlineStr">
         <is>
           <t>Correct species</t>
@@ -51187,16 +50427,6 @@
           <t>Acanthaluteres brownii</t>
         </is>
       </c>
-      <c r="N473" t="inlineStr">
-        <is>
-          <t>Incorrect species</t>
-        </is>
-      </c>
-      <c r="O473" t="inlineStr">
-        <is>
-          <t>Meuschenia scaber</t>
-        </is>
-      </c>
       <c r="P473" t="inlineStr">
         <is>
           <t>Correct species</t>
@@ -51421,16 +50651,6 @@
           <t>Scobinichthys granulatus</t>
         </is>
       </c>
-      <c r="N475" t="inlineStr">
-        <is>
-          <t>Incorrect species</t>
-        </is>
-      </c>
-      <c r="O475" t="inlineStr">
-        <is>
-          <t>Meuschenia scaber</t>
-        </is>
-      </c>
       <c r="P475" t="inlineStr">
         <is>
           <t>Correct species</t>
@@ -51929,16 +51149,6 @@
           <t>Anoplocapros amygdaloides</t>
         </is>
       </c>
-      <c r="N479" t="inlineStr">
-        <is>
-          <t>Incorrect species</t>
-        </is>
-      </c>
-      <c r="O479" t="inlineStr">
-        <is>
-          <t>Bembrops platyrhynchus</t>
-        </is>
-      </c>
       <c r="AB479" t="inlineStr">
         <is>
           <t>Incorrect species</t>
@@ -52016,16 +51226,6 @@
           <t>Rachycentron canadum</t>
         </is>
       </c>
-      <c r="N480" t="inlineStr">
-        <is>
-          <t>Incorrect species</t>
-        </is>
-      </c>
-      <c r="O480" t="inlineStr">
-        <is>
-          <t>Aphanopus arigato</t>
-        </is>
-      </c>
       <c r="P480" t="inlineStr">
         <is>
           <t>Correct species</t>
@@ -52429,16 +51629,6 @@
           <t>Macroramphosus gracilis</t>
         </is>
       </c>
-      <c r="N484" t="inlineStr">
-        <is>
-          <t>Incorrect species</t>
-        </is>
-      </c>
-      <c r="O484" t="inlineStr">
-        <is>
-          <t>Macroramphosus gracilis</t>
-        </is>
-      </c>
       <c r="P484" t="inlineStr">
         <is>
           <t>Correct species</t>
@@ -52964,16 +52154,6 @@
           <t>Chlorurus sordidus</t>
         </is>
       </c>
-      <c r="N489" t="inlineStr">
-        <is>
-          <t>Correct species</t>
-        </is>
-      </c>
-      <c r="O489" t="inlineStr">
-        <is>
-          <t>Chlorurus sordidus</t>
-        </is>
-      </c>
       <c r="X489" t="inlineStr">
         <is>
           <t>Correct species</t>
@@ -53021,16 +52201,6 @@
           <t>Petroscirtes breviceps</t>
         </is>
       </c>
-      <c r="N490" t="inlineStr">
-        <is>
-          <t>Correct species</t>
-        </is>
-      </c>
-      <c r="O490" t="inlineStr">
-        <is>
-          <t>Petroscirtes breviceps</t>
-        </is>
-      </c>
       <c r="P490" t="inlineStr">
         <is>
           <t>Correct species</t>
@@ -53128,16 +52298,6 @@
           <t>Saurida macrolepis</t>
         </is>
       </c>
-      <c r="N491" t="inlineStr">
-        <is>
-          <t>Incorrect species</t>
-        </is>
-      </c>
-      <c r="O491" t="inlineStr">
-        <is>
-          <t>Saurida macrolepis</t>
-        </is>
-      </c>
       <c r="AB491" t="inlineStr">
         <is>
           <t>Incorrect species</t>
@@ -53489,16 +52649,6 @@
           <t>Gymnothorax nudivomer</t>
         </is>
       </c>
-      <c r="N494" t="inlineStr">
-        <is>
-          <t>Correct species</t>
-        </is>
-      </c>
-      <c r="O494" t="inlineStr">
-        <is>
-          <t>Phyllopteryx taeniolatus</t>
-        </is>
-      </c>
       <c r="P494" t="inlineStr">
         <is>
           <t>Correct species</t>
@@ -53626,16 +52776,6 @@
           <t>Gymnothorax nudivomer</t>
         </is>
       </c>
-      <c r="N495" t="inlineStr">
-        <is>
-          <t>Correct species</t>
-        </is>
-      </c>
-      <c r="O495" t="inlineStr">
-        <is>
-          <t>Carcharhinus falciformis</t>
-        </is>
-      </c>
       <c r="P495" t="inlineStr">
         <is>
           <t>Correct species</t>
@@ -54846,16 +53986,6 @@
           <t>Gymnothorax nudivomer</t>
         </is>
       </c>
-      <c r="N505" t="inlineStr">
-        <is>
-          <t>Incorrect species</t>
-        </is>
-      </c>
-      <c r="O505" t="inlineStr">
-        <is>
-          <t>Dischistodus pseudochrysopoecilus</t>
-        </is>
-      </c>
       <c r="P505" t="inlineStr">
         <is>
           <t>Correct species</t>
@@ -56327,16 +55457,6 @@
           <t>Gymnothorax nudivomer</t>
         </is>
       </c>
-      <c r="N518" t="inlineStr">
-        <is>
-          <t>Incorrect species</t>
-        </is>
-      </c>
-      <c r="O518" t="inlineStr">
-        <is>
-          <t>Arothron stellatus</t>
-        </is>
-      </c>
       <c r="AB518" t="inlineStr">
         <is>
           <t>Correct species</t>
@@ -57400,16 +56520,6 @@
           <t>Gymnothorax nudivomer</t>
         </is>
       </c>
-      <c r="N527" t="inlineStr">
-        <is>
-          <t>Correct species</t>
-        </is>
-      </c>
-      <c r="O527" t="inlineStr">
-        <is>
-          <t>Seriola lalandi</t>
-        </is>
-      </c>
       <c r="V527" t="inlineStr">
         <is>
           <t>Incorrect species</t>
@@ -57487,16 +56597,6 @@
           <t>Phyllopteryx taeniolatus</t>
         </is>
       </c>
-      <c r="N528" t="inlineStr">
-        <is>
-          <t>Correct species</t>
-        </is>
-      </c>
-      <c r="O528" t="inlineStr">
-        <is>
-          <t>Phyllopteryx taeniolatus</t>
-        </is>
-      </c>
       <c r="P528" t="inlineStr">
         <is>
           <t>Correct species</t>
@@ -59090,16 +58190,6 @@
           <t>Gymnothorax nudivomer</t>
         </is>
       </c>
-      <c r="N542" t="inlineStr">
-        <is>
-          <t>Incorrect species</t>
-        </is>
-      </c>
-      <c r="O542" t="inlineStr">
-        <is>
-          <t>Plesiops nakaharae</t>
-        </is>
-      </c>
       <c r="P542" t="inlineStr">
         <is>
           <t>Correct species</t>
@@ -59742,16 +58832,6 @@
           <t>Gymnothorax nudivomer</t>
         </is>
       </c>
-      <c r="N548" t="inlineStr">
-        <is>
-          <t>Incorrect species</t>
-        </is>
-      </c>
-      <c r="O548" t="inlineStr">
-        <is>
-          <t>Squalus brevirostris</t>
-        </is>
-      </c>
       <c r="P548" t="inlineStr">
         <is>
           <t>Correct species</t>
@@ -60534,16 +59614,6 @@
           <t>Gymnothorax nudivomer</t>
         </is>
       </c>
-      <c r="N554" t="inlineStr">
-        <is>
-          <t>Incorrect species</t>
-        </is>
-      </c>
-      <c r="O554" t="inlineStr">
-        <is>
-          <t>Pentapodus bifasciatus</t>
-        </is>
-      </c>
       <c r="P554" t="inlineStr">
         <is>
           <t>Correct species</t>
@@ -62246,16 +61316,6 @@
           <t>Gymnothorax nudivomer</t>
         </is>
       </c>
-      <c r="N570" t="inlineStr">
-        <is>
-          <t>Incorrect species</t>
-        </is>
-      </c>
-      <c r="O570" t="inlineStr">
-        <is>
-          <t>Acanthostracion quadricornis</t>
-        </is>
-      </c>
       <c r="P570" t="inlineStr">
         <is>
           <t>Correct species</t>
@@ -62490,16 +61550,6 @@
           <t>Anoplocapros inermis</t>
         </is>
       </c>
-      <c r="N572" t="inlineStr">
-        <is>
-          <t>Incorrect species</t>
-        </is>
-      </c>
-      <c r="O572" t="inlineStr">
-        <is>
-          <t>Canthigaster rostrata</t>
-        </is>
-      </c>
       <c r="P572" t="inlineStr">
         <is>
           <t>Incorrect species</t>
@@ -62684,16 +61734,6 @@
           <t>Gymnothorax nudivomer</t>
         </is>
       </c>
-      <c r="N574" t="inlineStr">
-        <is>
-          <t>Correct species</t>
-        </is>
-      </c>
-      <c r="O574" t="inlineStr">
-        <is>
-          <t>Zeus faber</t>
-        </is>
-      </c>
       <c r="P574" t="inlineStr">
         <is>
           <t>Correct species</t>
@@ -63690,16 +62730,6 @@
           <t>Gymnothorax nudivomer</t>
         </is>
       </c>
-      <c r="N582" t="inlineStr">
-        <is>
-          <t>Incorrect species</t>
-        </is>
-      </c>
-      <c r="O582" t="inlineStr">
-        <is>
-          <t>Praealticus margaritarius</t>
-        </is>
-      </c>
       <c r="P582" t="inlineStr">
         <is>
           <t>Correct species</t>
@@ -64539,16 +63569,6 @@
           <t>Gymnothorax nudivomer</t>
         </is>
       </c>
-      <c r="N589" t="inlineStr">
-        <is>
-          <t>Incorrect species</t>
-        </is>
-      </c>
-      <c r="O589" t="inlineStr">
-        <is>
-          <t>Lutjanus russellii</t>
-        </is>
-      </c>
       <c r="P589" t="inlineStr">
         <is>
           <t>Correct species</t>
@@ -64920,16 +63940,6 @@
           <t>Meuschenia trachylepis</t>
         </is>
       </c>
-      <c r="N592" t="inlineStr">
-        <is>
-          <t>Incorrect species</t>
-        </is>
-      </c>
-      <c r="O592" t="inlineStr">
-        <is>
-          <t>Nelusetta ayraudi</t>
-        </is>
-      </c>
       <c r="P592" t="inlineStr">
         <is>
           <t>Incorrect species</t>
@@ -65144,16 +64154,6 @@
           <t>Gymnothorax nudivomer</t>
         </is>
       </c>
-      <c r="N594" t="inlineStr">
-        <is>
-          <t>Incorrect species</t>
-        </is>
-      </c>
-      <c r="O594" t="inlineStr">
-        <is>
-          <t>Pempheris xanthoptera</t>
-        </is>
-      </c>
       <c r="V594" t="inlineStr">
         <is>
           <t>Correct species</t>
@@ -66150,16 +65150,6 @@
           <t>Acanthurus triostegus</t>
         </is>
       </c>
-      <c r="N602" t="inlineStr">
-        <is>
-          <t>Incorrect species</t>
-        </is>
-      </c>
-      <c r="O602" t="inlineStr">
-        <is>
-          <t>Proscelotes eggeli</t>
-        </is>
-      </c>
       <c r="P602" t="inlineStr">
         <is>
           <t>Correct species</t>
@@ -66384,16 +65374,6 @@
           <t>Gymnothorax nudivomer</t>
         </is>
       </c>
-      <c r="N604" t="inlineStr">
-        <is>
-          <t>Incorrect species</t>
-        </is>
-      </c>
-      <c r="O604" t="inlineStr">
-        <is>
-          <t>Lutjanus rivulatus</t>
-        </is>
-      </c>
       <c r="P604" t="inlineStr">
         <is>
           <t>Correct species</t>
@@ -67953,16 +66933,6 @@
           <t>Gymnothorax nudivomer</t>
         </is>
       </c>
-      <c r="N616" t="inlineStr">
-        <is>
-          <t>Incorrect species</t>
-        </is>
-      </c>
-      <c r="O616" t="inlineStr">
-        <is>
-          <t>Proscelotes eggeli</t>
-        </is>
-      </c>
       <c r="P616" t="inlineStr">
         <is>
           <t>Correct species</t>
@@ -68541,16 +67511,6 @@
           <t>Gymnothorax nudivomer</t>
         </is>
       </c>
-      <c r="N620" t="inlineStr">
-        <is>
-          <t>Incorrect species</t>
-        </is>
-      </c>
-      <c r="O620" t="inlineStr">
-        <is>
-          <t>Solegnathus spinosissimus</t>
-        </is>
-      </c>
       <c r="P620" t="inlineStr">
         <is>
           <t>Correct species</t>
@@ -68708,16 +67668,6 @@
           <t>Gymnothorax nudivomer</t>
         </is>
       </c>
-      <c r="N621" t="inlineStr">
-        <is>
-          <t>Incorrect species</t>
-        </is>
-      </c>
-      <c r="O621" t="inlineStr">
-        <is>
-          <t>Gymnothorax pseudothyrsoideus</t>
-        </is>
-      </c>
       <c r="P621" t="inlineStr">
         <is>
           <t>Correct species</t>
@@ -69316,16 +68266,6 @@
           <t>Gymnothorax nudivomer</t>
         </is>
       </c>
-      <c r="N625" t="inlineStr">
-        <is>
-          <t>Incorrect species</t>
-        </is>
-      </c>
-      <c r="O625" t="inlineStr">
-        <is>
-          <t>Sardinops melanostictus</t>
-        </is>
-      </c>
       <c r="AB625" t="inlineStr">
         <is>
           <t>Incorrect species</t>
@@ -69754,16 +68694,6 @@
           <t>Carcharias taurus</t>
         </is>
       </c>
-      <c r="N629" t="inlineStr">
-        <is>
-          <t>Incorrect species</t>
-        </is>
-      </c>
-      <c r="O629" t="inlineStr">
-        <is>
-          <t>Aspidelaps scutatus</t>
-        </is>
-      </c>
       <c r="P629" t="inlineStr">
         <is>
           <t>Correct species</t>
@@ -70028,16 +68958,6 @@
           <t>Gymnothorax nudivomer</t>
         </is>
       </c>
-      <c r="N631" t="inlineStr">
-        <is>
-          <t>Incorrect species</t>
-        </is>
-      </c>
-      <c r="O631" t="inlineStr">
-        <is>
-          <t>Solegnathus lettiensis</t>
-        </is>
-      </c>
       <c r="P631" t="inlineStr">
         <is>
           <t>Correct species</t>
@@ -70195,16 +69115,6 @@
           <t>Gymnothorax nudivomer</t>
         </is>
       </c>
-      <c r="N632" t="inlineStr">
-        <is>
-          <t>Correct species</t>
-        </is>
-      </c>
-      <c r="O632" t="inlineStr">
-        <is>
-          <t>Lagocephalus sceleratus</t>
-        </is>
-      </c>
       <c r="P632" t="inlineStr">
         <is>
           <t>Correct species</t>
@@ -71682,16 +70592,6 @@
           <t>Phyllopteryx taeniolatus</t>
         </is>
       </c>
-      <c r="N643" t="inlineStr">
-        <is>
-          <t>Incorrect species</t>
-        </is>
-      </c>
-      <c r="O643" t="inlineStr">
-        <is>
-          <t>Solegnathus lettiensis</t>
-        </is>
-      </c>
       <c r="P643" t="inlineStr">
         <is>
           <t>Correct species</t>
@@ -71856,16 +70756,6 @@
           <t>Phyllopteryx taeniolatus</t>
         </is>
       </c>
-      <c r="N645" t="inlineStr">
-        <is>
-          <t>Incorrect species</t>
-        </is>
-      </c>
-      <c r="O645" t="inlineStr">
-        <is>
-          <t>Solegnathus spinosissimus</t>
-        </is>
-      </c>
       <c r="P645" t="inlineStr">
         <is>
           <t>Correct species</t>
@@ -72605,16 +71495,6 @@
           <t>Gymnothorax nudivomer</t>
         </is>
       </c>
-      <c r="N652" t="inlineStr">
-        <is>
-          <t>Correct species</t>
-        </is>
-      </c>
-      <c r="O652" t="inlineStr">
-        <is>
-          <t>Lethrinus laticaudis</t>
-        </is>
-      </c>
       <c r="P652" t="inlineStr">
         <is>
           <t>Correct species</t>
@@ -74189,16 +73069,6 @@
           <t>Isurus oxyrinchus</t>
         </is>
       </c>
-      <c r="N664" t="inlineStr">
-        <is>
-          <t>Incorrect species</t>
-        </is>
-      </c>
-      <c r="O664" t="inlineStr">
-        <is>
-          <t>Lutjanus rivulatus</t>
-        </is>
-      </c>
       <c r="P664" t="inlineStr">
         <is>
           <t>Correct species</t>
@@ -75670,16 +74540,6 @@
           <t>Eubalichthys mosaicus</t>
         </is>
       </c>
-      <c r="N677" t="inlineStr">
-        <is>
-          <t>Incorrect species</t>
-        </is>
-      </c>
-      <c r="O677" t="inlineStr">
-        <is>
-          <t>Thamnaconus hypargyreus</t>
-        </is>
-      </c>
       <c r="P677" t="inlineStr">
         <is>
           <t>Correct species</t>
@@ -75894,16 +74754,6 @@
           <t>Meuschenia australis</t>
         </is>
       </c>
-      <c r="N679" t="inlineStr">
-        <is>
-          <t>Incorrect species</t>
-        </is>
-      </c>
-      <c r="O679" t="inlineStr">
-        <is>
-          <t>Orectolobus halei</t>
-        </is>
-      </c>
       <c r="P679" t="inlineStr">
         <is>
           <t>Incorrect species</t>
@@ -76242,16 +75092,6 @@
           <t>Gymnothorax nudivomer</t>
         </is>
       </c>
-      <c r="N683" t="inlineStr">
-        <is>
-          <t>Incorrect species</t>
-        </is>
-      </c>
-      <c r="O683" t="inlineStr">
-        <is>
-          <t>Centropomus armatus</t>
-        </is>
-      </c>
       <c r="AB683" t="inlineStr">
         <is>
           <t>Incorrect species</t>
@@ -77168,16 +76008,6 @@
           <t>Gymnothorax nudivomer</t>
         </is>
       </c>
-      <c r="N691" t="inlineStr">
-        <is>
-          <t>Incorrect species</t>
-        </is>
-      </c>
-      <c r="O691" t="inlineStr">
-        <is>
-          <t>Scarus compressus</t>
-        </is>
-      </c>
       <c r="AB691" t="inlineStr">
         <is>
           <t>Correct species</t>
@@ -77362,16 +76192,6 @@
           <t>Saurida undosquamis</t>
         </is>
       </c>
-      <c r="N693" t="inlineStr">
-        <is>
-          <t>Incorrect species</t>
-        </is>
-      </c>
-      <c r="O693" t="inlineStr">
-        <is>
-          <t>Saurida longimanus</t>
-        </is>
-      </c>
       <c r="P693" t="inlineStr">
         <is>
           <t>Correct species</t>
@@ -77940,16 +76760,6 @@
       <c r="E698" t="inlineStr">
         <is>
           <t>Metavelifer multiradiatus</t>
-        </is>
-      </c>
-      <c r="N698" t="inlineStr">
-        <is>
-          <t>Incorrect species</t>
-        </is>
-      </c>
-      <c r="O698" t="inlineStr">
-        <is>
-          <t>Rondeletia loricata</t>
         </is>
       </c>
     </row>

--- a/results/tables/Big_species_table.xlsx
+++ b/results/tables/Big_species_table.xlsx
@@ -572,12 +572,12 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Incorrect species</t>
+          <t>Correct species</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>Gymnothorax nudivomer</t>
+          <t>Phyllopteryx taeniolatus</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
@@ -704,7 +704,7 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>Gymnothorax nudivomer</t>
+          <t>Cirripectes polyzona</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
@@ -806,12 +806,12 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Incorrect species</t>
+          <t>Correct species</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>Gymnothorax nudivomer</t>
+          <t>Stercorarius longicaudus</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
@@ -943,12 +943,12 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Incorrect species</t>
+          <t>Correct species</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>Gymnothorax nudivomer</t>
+          <t>Carcharhinus brachyurus</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
@@ -1050,12 +1050,12 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Incorrect species</t>
+          <t>Correct species</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>Gymnothorax nudivomer</t>
+          <t>Hemigymnus melapterus</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
@@ -1167,12 +1167,12 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Incorrect species</t>
+          <t>Correct species</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>Gymnothorax nudivomer</t>
+          <t>Ctenochaetus tominiensis</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
@@ -1274,12 +1274,12 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Incorrect species</t>
+          <t>Correct species</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>Gymnothorax nudivomer</t>
+          <t>Daption capense</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
@@ -1441,12 +1441,12 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Incorrect species</t>
+          <t>Correct species</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>Gymnothorax nudivomer</t>
+          <t>Engraulis mordax</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
@@ -1598,12 +1598,12 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Incorrect species</t>
+          <t>Correct species</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>Gymnothorax nudivomer</t>
+          <t>Bathyraja meridionalis</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
@@ -1725,12 +1725,12 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Incorrect species</t>
+          <t>Correct species</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>Gymnothorax nudivomer</t>
+          <t>Triphoturus mexicanus</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
@@ -1882,12 +1882,12 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Incorrect species</t>
+          <t>Correct species</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>Gymnothorax nudivomer</t>
+          <t>Ostracion rhinorhynchos</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
@@ -2086,12 +2086,12 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>Incorrect species</t>
+          <t>Correct species</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>Gymnothorax nudivomer</t>
+          <t>Nemipterus bathybius</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
@@ -2211,16 +2211,6 @@
           <t>Cheilopogon unicolor</t>
         </is>
       </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>Incorrect species</t>
-        </is>
-      </c>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>Gymnothorax nudivomer</t>
-        </is>
-      </c>
       <c r="AB15" t="inlineStr">
         <is>
           <t>Incorrect species</t>
@@ -2280,12 +2270,12 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Incorrect species</t>
+          <t>Correct species</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>Gymnothorax nudivomer</t>
+          <t>Plestiodon chinensis</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
@@ -2417,12 +2407,12 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Incorrect species</t>
+          <t>Correct species</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>Gymnothorax nudivomer</t>
+          <t>Buteo lagopus</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
@@ -2522,16 +2512,6 @@
           <t>Rhinogobius tyoni</t>
         </is>
       </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>Incorrect species</t>
-        </is>
-      </c>
-      <c r="M18" t="inlineStr">
-        <is>
-          <t>Gymnothorax nudivomer</t>
-        </is>
-      </c>
       <c r="AF18" t="inlineStr">
         <is>
           <t>Incorrect species</t>
@@ -2569,16 +2549,6 @@
           <t>Cleisthenes herzensteini</t>
         </is>
       </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>Incorrect species</t>
-        </is>
-      </c>
-      <c r="M19" t="inlineStr">
-        <is>
-          <t>Gymnothorax nudivomer</t>
-        </is>
-      </c>
       <c r="AB19" t="inlineStr">
         <is>
           <t>Incorrect species</t>
@@ -2616,16 +2586,6 @@
           <t>Holacanthus ciliaris</t>
         </is>
       </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>Incorrect species</t>
-        </is>
-      </c>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>Gymnothorax nudivomer</t>
-        </is>
-      </c>
       <c r="N20" t="inlineStr">
         <is>
           <t>Incorrect species</t>
@@ -2695,12 +2655,12 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>Incorrect species</t>
+          <t>Correct species</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>Gymnothorax nudivomer</t>
+          <t>Pristis pectinata</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
@@ -2909,12 +2869,12 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>Incorrect species</t>
+          <t>Correct species</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>Gymnothorax nudivomer</t>
+          <t>Saurida wanieso</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
@@ -3076,12 +3036,12 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>Incorrect species</t>
+          <t>Correct species</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>Gymnothorax nudivomer</t>
+          <t>Parupeneus barberinus</t>
         </is>
       </c>
       <c r="P24" t="inlineStr">
@@ -3223,12 +3183,12 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>Incorrect species</t>
+          <t>Correct species</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>Gymnothorax nudivomer</t>
+          <t>Sillago aeolus</t>
         </is>
       </c>
       <c r="P25" t="inlineStr">
@@ -3380,12 +3340,12 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>Incorrect species</t>
+          <t>Correct species</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>Gymnothorax nudivomer</t>
+          <t>Ardea purpurea</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
@@ -3614,12 +3574,12 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>Incorrect species</t>
+          <t>Correct species</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>Gymnothorax nudivomer</t>
+          <t>Amphiprion clarkii</t>
         </is>
       </c>
       <c r="V28" t="inlineStr">
@@ -3699,16 +3659,6 @@
           <t>Sphyraena barracuda</t>
         </is>
       </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>Incorrect species</t>
-        </is>
-      </c>
-      <c r="M29" t="inlineStr">
-        <is>
-          <t>Gymnothorax nudivomer</t>
-        </is>
-      </c>
       <c r="N29" t="inlineStr">
         <is>
           <t>Correct species</t>
@@ -3865,12 +3815,12 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>Incorrect species</t>
+          <t>Correct species</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>Gymnothorax nudivomer</t>
+          <t>Aldrichetta forsteri</t>
         </is>
       </c>
       <c r="P31" t="inlineStr">
@@ -4027,7 +3977,7 @@
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>Gymnothorax nudivomer</t>
+          <t>Lutjanus jocu</t>
         </is>
       </c>
       <c r="P32" t="inlineStr">
@@ -4139,12 +4089,12 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>Incorrect species</t>
+          <t>Correct species</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>Gymnothorax nudivomer</t>
+          <t>Coilia lindmani</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
@@ -4353,12 +4303,12 @@
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>Incorrect species</t>
+          <t>Correct species</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>Gymnothorax nudivomer</t>
+          <t>Myripristis vittata</t>
         </is>
       </c>
       <c r="P35" t="inlineStr">
@@ -4460,12 +4410,12 @@
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>Incorrect species</t>
+          <t>Correct species</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>Gymnothorax nudivomer</t>
+          <t>Nettastoma parviceps</t>
         </is>
       </c>
       <c r="P36" t="inlineStr">
@@ -4607,12 +4557,12 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>Incorrect species</t>
+          <t>Correct species</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>Gymnothorax nudivomer</t>
+          <t>Alepocephalus umbriceps</t>
         </is>
       </c>
       <c r="V37" t="inlineStr">
@@ -4704,12 +4654,12 @@
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>Incorrect species</t>
+          <t>Correct species</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>Gymnothorax nudivomer</t>
+          <t>Rhynchopelates oxyrhynchus</t>
         </is>
       </c>
       <c r="P38" t="inlineStr">
@@ -4896,16 +4846,6 @@
           <t>Xanthichthys auromarginatus</t>
         </is>
       </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>Incorrect species</t>
-        </is>
-      </c>
-      <c r="M40" t="inlineStr">
-        <is>
-          <t>Gymnothorax nudivomer</t>
-        </is>
-      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -4955,12 +4895,12 @@
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>Incorrect species</t>
+          <t>Correct species</t>
         </is>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>Gymnothorax nudivomer</t>
+          <t>Naja naja</t>
         </is>
       </c>
       <c r="P41" t="inlineStr">
@@ -5082,12 +5022,12 @@
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>Incorrect species</t>
+          <t>Correct species</t>
         </is>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>Gymnothorax nudivomer</t>
+          <t>Phoca groenlandica</t>
         </is>
       </c>
       <c r="P42" t="inlineStr">
@@ -5229,12 +5169,12 @@
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>Incorrect species</t>
+          <t>Correct species</t>
         </is>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>Gymnothorax nudivomer</t>
+          <t>Bathygadus antrodes</t>
         </is>
       </c>
       <c r="P43" t="inlineStr">
@@ -5354,16 +5294,6 @@
           <t>Anguilla marmorata</t>
         </is>
       </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>Incorrect species</t>
-        </is>
-      </c>
-      <c r="M44" t="inlineStr">
-        <is>
-          <t>Gymnothorax nudivomer</t>
-        </is>
-      </c>
       <c r="AF44" t="inlineStr">
         <is>
           <t>Correct species</t>
@@ -5433,12 +5363,12 @@
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>Incorrect species</t>
+          <t>Correct species</t>
         </is>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>Gymnothorax nudivomer</t>
+          <t>Chimaera monstrosa</t>
         </is>
       </c>
       <c r="P45" t="inlineStr">
@@ -5580,12 +5510,12 @@
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>Incorrect species</t>
+          <t>Correct species</t>
         </is>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>Gymnothorax nudivomer</t>
+          <t>Tropidophorus hainanus</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
@@ -5725,16 +5655,6 @@
           <t>Trachurus mediterraneus</t>
         </is>
       </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>Incorrect species</t>
-        </is>
-      </c>
-      <c r="M47" t="inlineStr">
-        <is>
-          <t>Gymnothorax nudivomer</t>
-        </is>
-      </c>
       <c r="AF47" t="inlineStr">
         <is>
           <t>Correct species</t>
@@ -5794,12 +5714,12 @@
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>Incorrect species</t>
+          <t>Correct species</t>
         </is>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>Gymnothorax nudivomer</t>
+          <t>Pagrus pagrus</t>
         </is>
       </c>
       <c r="V48" t="inlineStr">
@@ -5869,16 +5789,6 @@
           <t>Istiophorus albicans</t>
         </is>
       </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>Incorrect species</t>
-        </is>
-      </c>
-      <c r="M49" t="inlineStr">
-        <is>
-          <t>Gymnothorax nudivomer</t>
-        </is>
-      </c>
       <c r="AB49" t="inlineStr">
         <is>
           <t>Incorrect species</t>
@@ -5948,12 +5858,12 @@
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>Incorrect species</t>
+          <t>Correct species</t>
         </is>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>Gymnothorax nudivomer</t>
+          <t>Lates calcarifer</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
@@ -6115,12 +6025,12 @@
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>Incorrect species</t>
+          <t>Correct species</t>
         </is>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>Gymnothorax nudivomer</t>
+          <t>Taenioides cirratus</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
@@ -6339,12 +6249,12 @@
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>Incorrect species</t>
+          <t>Correct species</t>
         </is>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>Gymnothorax nudivomer</t>
+          <t>Alosa aestivalis</t>
         </is>
       </c>
       <c r="X53" t="inlineStr">
@@ -6436,12 +6346,12 @@
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>Incorrect species</t>
+          <t>Correct species</t>
         </is>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>Gymnothorax nudivomer</t>
+          <t>Parachaeturichthys polynema</t>
         </is>
       </c>
       <c r="N54" t="inlineStr">
@@ -6571,16 +6481,6 @@
           <t>Syngnathus pelagicus</t>
         </is>
       </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>Incorrect species</t>
-        </is>
-      </c>
-      <c r="M55" t="inlineStr">
-        <is>
-          <t>Gymnothorax nudivomer</t>
-        </is>
-      </c>
       <c r="AB55" t="inlineStr">
         <is>
           <t>Incorrect species</t>
@@ -6640,12 +6540,12 @@
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>Incorrect species</t>
+          <t>Correct species</t>
         </is>
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>Gymnothorax nudivomer</t>
+          <t>Zeus faber</t>
         </is>
       </c>
       <c r="P56" t="inlineStr">
@@ -6787,12 +6687,12 @@
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>Incorrect species</t>
+          <t>Correct species</t>
         </is>
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>Gymnothorax nudivomer</t>
+          <t>Aythya nyroca</t>
         </is>
       </c>
       <c r="V57" t="inlineStr">
@@ -6894,12 +6794,12 @@
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>Incorrect species</t>
+          <t>Correct species</t>
         </is>
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>Gymnothorax nudivomer</t>
+          <t>Atherinomorus stipes</t>
         </is>
       </c>
       <c r="N58" t="inlineStr">
@@ -7051,12 +6951,12 @@
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>Incorrect species</t>
+          <t>Correct species</t>
         </is>
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>Gymnothorax nudivomer</t>
+          <t>Stereolepis doederleini</t>
         </is>
       </c>
       <c r="P59" t="inlineStr">
@@ -7176,16 +7076,6 @@
           <t>Squalus mitsukurii</t>
         </is>
       </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>Incorrect species</t>
-        </is>
-      </c>
-      <c r="M60" t="inlineStr">
-        <is>
-          <t>Gymnothorax nudivomer</t>
-        </is>
-      </c>
       <c r="AB60" t="inlineStr">
         <is>
           <t>Correct species</t>
@@ -7245,12 +7135,12 @@
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>Incorrect species</t>
+          <t>Correct species</t>
         </is>
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>Gymnothorax nudivomer</t>
+          <t>Scleropages formosus</t>
         </is>
       </c>
       <c r="P61" t="inlineStr">
@@ -7402,12 +7292,12 @@
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>Incorrect species</t>
+          <t>Correct species</t>
         </is>
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>Gymnothorax nudivomer</t>
+          <t>Trigonolampa miriceps</t>
         </is>
       </c>
       <c r="P62" t="inlineStr">
@@ -7549,12 +7439,12 @@
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>Incorrect species</t>
+          <t>Correct species</t>
         </is>
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>Gymnothorax nudivomer</t>
+          <t>Calidris alba</t>
         </is>
       </c>
       <c r="P63" t="inlineStr">
@@ -7666,12 +7556,12 @@
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>Incorrect species</t>
+          <t>Correct species</t>
         </is>
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>Gymnothorax nudivomer</t>
+          <t>Auxis rochei</t>
         </is>
       </c>
       <c r="P64" t="inlineStr">
@@ -7773,12 +7663,12 @@
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>Incorrect species</t>
+          <t>Correct species</t>
         </is>
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>Gymnothorax nudivomer</t>
+          <t>Squatina squatina</t>
         </is>
       </c>
       <c r="P65" t="inlineStr">
@@ -8044,12 +7934,12 @@
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>Incorrect species</t>
+          <t>Correct species</t>
         </is>
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>Gymnothorax nudivomer</t>
+          <t>Acanthogobius flavimanus</t>
         </is>
       </c>
       <c r="P68" t="inlineStr">
@@ -8201,12 +8091,12 @@
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>Incorrect species</t>
+          <t>Correct species</t>
         </is>
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>Gymnothorax nudivomer</t>
+          <t>Gymnothorax javanicus</t>
         </is>
       </c>
       <c r="N69" t="inlineStr">
@@ -8346,16 +8236,6 @@
           <t>Takifugu reticularis</t>
         </is>
       </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>Incorrect species</t>
-        </is>
-      </c>
-      <c r="M70" t="inlineStr">
-        <is>
-          <t>Gymnothorax nudivomer</t>
-        </is>
-      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -8393,16 +8273,6 @@
           <t>Lentipes armatus</t>
         </is>
       </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>Incorrect species</t>
-        </is>
-      </c>
-      <c r="M71" t="inlineStr">
-        <is>
-          <t>Gymnothorax nudivomer</t>
-        </is>
-      </c>
       <c r="AB71" t="inlineStr">
         <is>
           <t>Incorrect species</t>
@@ -8470,16 +8340,6 @@
           <t>Cottus aleuticus</t>
         </is>
       </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>Incorrect species</t>
-        </is>
-      </c>
-      <c r="M72" t="inlineStr">
-        <is>
-          <t>Gymnothorax nudivomer</t>
-        </is>
-      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -8644,16 +8504,6 @@
           <t>Sebastes rubrivinctus</t>
         </is>
       </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>Incorrect species</t>
-        </is>
-      </c>
-      <c r="M74" t="inlineStr">
-        <is>
-          <t>Gymnothorax nudivomer</t>
-        </is>
-      </c>
       <c r="AB74" t="inlineStr">
         <is>
           <t>Incorrect species</t>
@@ -8728,7 +8578,7 @@
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>Gymnothorax nudivomer</t>
+          <t>Taeniamia fucata</t>
         </is>
       </c>
       <c r="N75" t="inlineStr">
@@ -8870,12 +8720,12 @@
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>Incorrect species</t>
+          <t>Correct species</t>
         </is>
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>Gymnothorax nudivomer</t>
+          <t>Cephalopholis miniata</t>
         </is>
       </c>
       <c r="P76" t="inlineStr">
@@ -8975,16 +8825,6 @@
           <t>Dipturus intermedius</t>
         </is>
       </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>Incorrect species</t>
-        </is>
-      </c>
-      <c r="M77" t="inlineStr">
-        <is>
-          <t>Gymnothorax nudivomer</t>
-        </is>
-      </c>
       <c r="N77" t="inlineStr">
         <is>
           <t>Correct species</t>
@@ -9064,12 +8904,12 @@
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>Incorrect species</t>
+          <t>Correct species</t>
         </is>
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>Gymnothorax nudivomer</t>
+          <t>Odontaspis ferox</t>
         </is>
       </c>
       <c r="N78" t="inlineStr">
@@ -9231,12 +9071,12 @@
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>Incorrect species</t>
+          <t>Correct species</t>
         </is>
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>Gymnothorax nudivomer</t>
+          <t>Trichiurus lepturus</t>
         </is>
       </c>
       <c r="N79" t="inlineStr">
@@ -9393,7 +9233,7 @@
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>Gymnothorax nudivomer</t>
+          <t>Arothron stellatus</t>
         </is>
       </c>
       <c r="N80" t="inlineStr">
@@ -9525,12 +9365,12 @@
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>Incorrect species</t>
+          <t>Correct species</t>
         </is>
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>Gymnothorax nudivomer</t>
+          <t>Chaenogobius annularis</t>
         </is>
       </c>
       <c r="N81" t="inlineStr">
@@ -9747,16 +9587,6 @@
           <t>Myoxocephalus scorpius</t>
         </is>
       </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>Incorrect species</t>
-        </is>
-      </c>
-      <c r="M83" t="inlineStr">
-        <is>
-          <t>Gymnothorax nudivomer</t>
-        </is>
-      </c>
       <c r="AB83" t="inlineStr">
         <is>
           <t>Incorrect species</t>
@@ -9846,12 +9676,12 @@
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>Incorrect species</t>
+          <t>Correct species</t>
         </is>
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>Gymnothorax nudivomer</t>
+          <t>Minous monodactylus</t>
         </is>
       </c>
       <c r="P84" t="inlineStr">
@@ -9971,16 +9801,6 @@
           <t>Maccullochella peelii</t>
         </is>
       </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>Incorrect species</t>
-        </is>
-      </c>
-      <c r="M85" t="inlineStr">
-        <is>
-          <t>Gymnothorax nudivomer</t>
-        </is>
-      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -10008,16 +9828,6 @@
           <t>Eutrigla gurnardus</t>
         </is>
       </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>Incorrect species</t>
-        </is>
-      </c>
-      <c r="M86" t="inlineStr">
-        <is>
-          <t>Gymnothorax nudivomer</t>
-        </is>
-      </c>
       <c r="AB86" t="inlineStr">
         <is>
           <t>Incorrect species</t>
@@ -10097,12 +9907,12 @@
       </c>
       <c r="L87" t="inlineStr">
         <is>
-          <t>Incorrect species</t>
+          <t>Correct species</t>
         </is>
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>Gymnothorax nudivomer</t>
+          <t>Cynoglossus robustus</t>
         </is>
       </c>
       <c r="N87" t="inlineStr">
@@ -10269,7 +10079,7 @@
       </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t>Gymnothorax nudivomer</t>
+          <t>Liparis tessellatus</t>
         </is>
       </c>
       <c r="P88" t="inlineStr">
@@ -10411,12 +10221,12 @@
       </c>
       <c r="L89" t="inlineStr">
         <is>
-          <t>Incorrect species</t>
+          <t>Correct species</t>
         </is>
       </c>
       <c r="M89" t="inlineStr">
         <is>
-          <t>Gymnothorax nudivomer</t>
+          <t>Lycodes esmarkii</t>
         </is>
       </c>
       <c r="P89" t="inlineStr">
@@ -10630,7 +10440,7 @@
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>Gymnothorax nudivomer</t>
+          <t>Epinephelus malabaricus</t>
         </is>
       </c>
       <c r="P91" t="inlineStr">
@@ -10720,16 +10530,6 @@
           <t>Arius maculatus</t>
         </is>
       </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>Incorrect species</t>
-        </is>
-      </c>
-      <c r="M92" t="inlineStr">
-        <is>
-          <t>Gymnothorax nudivomer</t>
-        </is>
-      </c>
       <c r="N92" t="inlineStr">
         <is>
           <t>Incorrect species</t>
@@ -10799,12 +10599,12 @@
       </c>
       <c r="L93" t="inlineStr">
         <is>
-          <t>Incorrect species</t>
+          <t>Correct species</t>
         </is>
       </c>
       <c r="M93" t="inlineStr">
         <is>
-          <t>Gymnothorax nudivomer</t>
+          <t>Sicyopterus japonicus</t>
         </is>
       </c>
       <c r="V93" t="inlineStr">
@@ -10916,12 +10716,12 @@
       </c>
       <c r="L94" t="inlineStr">
         <is>
-          <t>Incorrect species</t>
+          <t>Correct species</t>
         </is>
       </c>
       <c r="M94" t="inlineStr">
         <is>
-          <t>Gymnothorax nudivomer</t>
+          <t>Cheilinus undulatus</t>
         </is>
       </c>
       <c r="N94" t="inlineStr">
@@ -11063,12 +10863,12 @@
       </c>
       <c r="L95" t="inlineStr">
         <is>
-          <t>Incorrect species</t>
+          <t>Correct species</t>
         </is>
       </c>
       <c r="M95" t="inlineStr">
         <is>
-          <t>Gymnothorax nudivomer</t>
+          <t>Eleotris klunzingerii</t>
         </is>
       </c>
       <c r="P95" t="inlineStr">
@@ -11200,12 +11000,12 @@
       </c>
       <c r="L96" t="inlineStr">
         <is>
-          <t>Incorrect species</t>
+          <t>Correct species</t>
         </is>
       </c>
       <c r="M96" t="inlineStr">
         <is>
-          <t>Gymnothorax nudivomer</t>
+          <t>Globicephala macrorhynchus</t>
         </is>
       </c>
       <c r="P96" t="inlineStr">
@@ -11327,12 +11127,12 @@
       </c>
       <c r="L97" t="inlineStr">
         <is>
-          <t>Incorrect species</t>
+          <t>Correct species</t>
         </is>
       </c>
       <c r="M97" t="inlineStr">
         <is>
-          <t>Gymnothorax nudivomer</t>
+          <t>Doryichthys boaja</t>
         </is>
       </c>
       <c r="N97" t="inlineStr">
@@ -11494,12 +11294,12 @@
       </c>
       <c r="L98" t="inlineStr">
         <is>
-          <t>Incorrect species</t>
+          <t>Correct species</t>
         </is>
       </c>
       <c r="M98" t="inlineStr">
         <is>
-          <t>Gymnothorax nudivomer</t>
+          <t>Chaetodon octofasciatus</t>
         </is>
       </c>
       <c r="P98" t="inlineStr">
@@ -11619,16 +11419,6 @@
           <t>Sardinella albella</t>
         </is>
       </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>Incorrect species</t>
-        </is>
-      </c>
-      <c r="M99" t="inlineStr">
-        <is>
-          <t>Gymnothorax nudivomer</t>
-        </is>
-      </c>
       <c r="AB99" t="inlineStr">
         <is>
           <t>Incorrect species</t>
@@ -11765,12 +11555,12 @@
       </c>
       <c r="L101" t="inlineStr">
         <is>
-          <t>Incorrect species</t>
+          <t>Correct species</t>
         </is>
       </c>
       <c r="M101" t="inlineStr">
         <is>
-          <t>Gymnothorax nudivomer</t>
+          <t>Phyllopteryx taeniolatus</t>
         </is>
       </c>
       <c r="P101" t="inlineStr">
@@ -11890,16 +11680,6 @@
           <t>Dipturus intermedius</t>
         </is>
       </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>Incorrect species</t>
-        </is>
-      </c>
-      <c r="M102" t="inlineStr">
-        <is>
-          <t>Gymnothorax nudivomer</t>
-        </is>
-      </c>
       <c r="N102" t="inlineStr">
         <is>
           <t>Incorrect species</t>
@@ -11969,12 +11749,12 @@
       </c>
       <c r="L103" t="inlineStr">
         <is>
-          <t>Incorrect species</t>
+          <t>Correct species</t>
         </is>
       </c>
       <c r="M103" t="inlineStr">
         <is>
-          <t>Gymnothorax nudivomer</t>
+          <t>Hemigymnus melapterus</t>
         </is>
       </c>
       <c r="P103" t="inlineStr">
@@ -12094,16 +11874,6 @@
           <t>Lycodes polaris</t>
         </is>
       </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>Incorrect species</t>
-        </is>
-      </c>
-      <c r="M104" t="inlineStr">
-        <is>
-          <t>Gymnothorax nudivomer</t>
-        </is>
-      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -12163,12 +11933,12 @@
       </c>
       <c r="L105" t="inlineStr">
         <is>
-          <t>Incorrect species</t>
+          <t>Correct species</t>
         </is>
       </c>
       <c r="M105" t="inlineStr">
         <is>
-          <t>Gymnothorax nudivomer</t>
+          <t>Tropidophorus hangnam</t>
         </is>
       </c>
       <c r="N105" t="inlineStr">
@@ -12330,12 +12100,12 @@
       </c>
       <c r="L106" t="inlineStr">
         <is>
-          <t>Incorrect species</t>
+          <t>Correct species</t>
         </is>
       </c>
       <c r="M106" t="inlineStr">
         <is>
-          <t>Gymnothorax nudivomer</t>
+          <t>Chaetodon wiebeli</t>
         </is>
       </c>
       <c r="P106" t="inlineStr">
@@ -12445,16 +12215,6 @@
           <t>Hydrolagus melanophasma</t>
         </is>
       </c>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>Incorrect species</t>
-        </is>
-      </c>
-      <c r="M107" t="inlineStr">
-        <is>
-          <t>Gymnothorax nudivomer</t>
-        </is>
-      </c>
       <c r="N107" t="inlineStr">
         <is>
           <t>Correct species</t>
@@ -12522,16 +12282,6 @@
           <t>Exyrias puntang</t>
         </is>
       </c>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>Incorrect species</t>
-        </is>
-      </c>
-      <c r="M108" t="inlineStr">
-        <is>
-          <t>Gymnothorax nudivomer</t>
-        </is>
-      </c>
       <c r="N108" t="inlineStr">
         <is>
           <t>Incorrect species</t>
@@ -12641,12 +12391,12 @@
       </c>
       <c r="L109" t="inlineStr">
         <is>
-          <t>Incorrect species</t>
+          <t>Correct species</t>
         </is>
       </c>
       <c r="M109" t="inlineStr">
         <is>
-          <t>Gymnothorax nudivomer</t>
+          <t>Plestiodon tunganus</t>
         </is>
       </c>
       <c r="N109" t="inlineStr">
@@ -12808,12 +12558,12 @@
       </c>
       <c r="L110" t="inlineStr">
         <is>
-          <t>Incorrect species</t>
+          <t>Correct species</t>
         </is>
       </c>
       <c r="M110" t="inlineStr">
         <is>
-          <t>Gymnothorax nudivomer</t>
+          <t>Hyporhamphus limbatus</t>
         </is>
       </c>
       <c r="N110" t="inlineStr">
@@ -12955,12 +12705,12 @@
       </c>
       <c r="L111" t="inlineStr">
         <is>
-          <t>Incorrect species</t>
+          <t>Correct species</t>
         </is>
       </c>
       <c r="M111" t="inlineStr">
         <is>
-          <t>Gymnothorax nudivomer</t>
+          <t>Bathyraja maccaini</t>
         </is>
       </c>
       <c r="V111" t="inlineStr">
@@ -13062,12 +12812,12 @@
       </c>
       <c r="L112" t="inlineStr">
         <is>
-          <t>Incorrect species</t>
+          <t>Correct species</t>
         </is>
       </c>
       <c r="M112" t="inlineStr">
         <is>
-          <t>Gymnothorax nudivomer</t>
+          <t>Glyphis garricki</t>
         </is>
       </c>
       <c r="P112" t="inlineStr">
@@ -13159,12 +12909,12 @@
       </c>
       <c r="L113" t="inlineStr">
         <is>
-          <t>Incorrect species</t>
+          <t>Correct species</t>
         </is>
       </c>
       <c r="M113" t="inlineStr">
         <is>
-          <t>Gymnothorax nudivomer</t>
+          <t>Cheilopogon cyanopterus</t>
         </is>
       </c>
       <c r="V113" t="inlineStr">
@@ -13234,16 +12984,6 @@
           <t>Cottus asper</t>
         </is>
       </c>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>Incorrect species</t>
-        </is>
-      </c>
-      <c r="M114" t="inlineStr">
-        <is>
-          <t>Gymnothorax nudivomer</t>
-        </is>
-      </c>
       <c r="V114" t="inlineStr">
         <is>
           <t>Correct species</t>
@@ -13313,12 +13053,12 @@
       </c>
       <c r="L115" t="inlineStr">
         <is>
-          <t>Incorrect species</t>
+          <t>Correct species</t>
         </is>
       </c>
       <c r="M115" t="inlineStr">
         <is>
-          <t>Gymnothorax nudivomer</t>
+          <t>Lophonectes gallus</t>
         </is>
       </c>
       <c r="N115" t="inlineStr">
@@ -13480,12 +13220,12 @@
       </c>
       <c r="L116" t="inlineStr">
         <is>
-          <t>Incorrect species</t>
+          <t>Correct species</t>
         </is>
       </c>
       <c r="M116" t="inlineStr">
         <is>
-          <t>Gymnothorax nudivomer</t>
+          <t>Nemipterus virgatus</t>
         </is>
       </c>
       <c r="N116" t="inlineStr">
@@ -13694,12 +13434,12 @@
       </c>
       <c r="L118" t="inlineStr">
         <is>
-          <t>Incorrect species</t>
+          <t>Correct species</t>
         </is>
       </c>
       <c r="M118" t="inlineStr">
         <is>
-          <t>Gymnothorax nudivomer</t>
+          <t>Apolemichthys griffisi</t>
         </is>
       </c>
       <c r="N118" t="inlineStr">
@@ -13819,16 +13559,6 @@
           <t>Sebastes vulpes</t>
         </is>
       </c>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>Incorrect species</t>
-        </is>
-      </c>
-      <c r="M119" t="inlineStr">
-        <is>
-          <t>Gymnothorax nudivomer</t>
-        </is>
-      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -13933,16 +13663,6 @@
           <t>Plectorhinchus lineatus</t>
         </is>
       </c>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>Incorrect species</t>
-        </is>
-      </c>
-      <c r="M121" t="inlineStr">
-        <is>
-          <t>Gymnothorax nudivomer</t>
-        </is>
-      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -13992,12 +13712,12 @@
       </c>
       <c r="L122" t="inlineStr">
         <is>
-          <t>Incorrect species</t>
+          <t>Correct species</t>
         </is>
       </c>
       <c r="M122" t="inlineStr">
         <is>
-          <t>Gymnothorax nudivomer</t>
+          <t>Sillago asiatica</t>
         </is>
       </c>
       <c r="N122" t="inlineStr">
@@ -14129,12 +13849,12 @@
       </c>
       <c r="L123" t="inlineStr">
         <is>
-          <t>Incorrect species</t>
+          <t>Correct species</t>
         </is>
       </c>
       <c r="M123" t="inlineStr">
         <is>
-          <t>Gymnothorax nudivomer</t>
+          <t>Merluccius productus</t>
         </is>
       </c>
       <c r="P123" t="inlineStr">
@@ -14391,16 +14111,6 @@
           <t>Trachurus novaezelandiae</t>
         </is>
       </c>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>Incorrect species</t>
-        </is>
-      </c>
-      <c r="M125" t="inlineStr">
-        <is>
-          <t>Gymnothorax nudivomer</t>
-        </is>
-      </c>
       <c r="N125" t="inlineStr">
         <is>
           <t>Incorrect species</t>
@@ -14475,7 +14185,7 @@
       </c>
       <c r="M126" t="inlineStr">
         <is>
-          <t>Gymnothorax nudivomer</t>
+          <t>Liza haematocheila</t>
         </is>
       </c>
       <c r="N126" t="inlineStr">
@@ -14577,12 +14287,12 @@
       </c>
       <c r="L127" t="inlineStr">
         <is>
-          <t>Incorrect species</t>
+          <t>Correct species</t>
         </is>
       </c>
       <c r="M127" t="inlineStr">
         <is>
-          <t>Gymnothorax nudivomer</t>
+          <t>Amphiprion percula</t>
         </is>
       </c>
       <c r="N127" t="inlineStr">
@@ -14849,16 +14559,6 @@
           <t>Coilia grayii</t>
         </is>
       </c>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>Incorrect species</t>
-        </is>
-      </c>
-      <c r="M129" t="inlineStr">
-        <is>
-          <t>Gymnothorax nudivomer</t>
-        </is>
-      </c>
       <c r="N129" t="inlineStr">
         <is>
           <t>Incorrect species</t>
@@ -14985,12 +14685,12 @@
       </c>
       <c r="L131" t="inlineStr">
         <is>
-          <t>Incorrect species</t>
+          <t>Correct species</t>
         </is>
       </c>
       <c r="M131" t="inlineStr">
         <is>
-          <t>Gymnothorax nudivomer</t>
+          <t>Sicyopterus lagocephalus</t>
         </is>
       </c>
       <c r="V131" t="inlineStr">
@@ -15179,12 +14879,12 @@
       </c>
       <c r="L133" t="inlineStr">
         <is>
-          <t>Incorrect species</t>
+          <t>Correct species</t>
         </is>
       </c>
       <c r="M133" t="inlineStr">
         <is>
-          <t>Gymnothorax nudivomer</t>
+          <t>Epinephelus sexfasciatus</t>
         </is>
       </c>
       <c r="N133" t="inlineStr">
@@ -15403,12 +15103,12 @@
       </c>
       <c r="L135" t="inlineStr">
         <is>
-          <t>Incorrect species</t>
+          <t>Correct species</t>
         </is>
       </c>
       <c r="M135" t="inlineStr">
         <is>
-          <t>Gymnothorax nudivomer</t>
+          <t>Hemitrygon akajei</t>
         </is>
       </c>
       <c r="N135" t="inlineStr">
@@ -15570,12 +15270,12 @@
       </c>
       <c r="L136" t="inlineStr">
         <is>
-          <t>Incorrect species</t>
+          <t>Correct species</t>
         </is>
       </c>
       <c r="M136" t="inlineStr">
         <is>
-          <t>Gymnothorax nudivomer</t>
+          <t>Sciaenops ocellatus</t>
         </is>
       </c>
       <c r="P136" t="inlineStr">
@@ -16232,12 +15932,12 @@
       </c>
       <c r="L142" t="inlineStr">
         <is>
-          <t>Incorrect species</t>
+          <t>Correct species</t>
         </is>
       </c>
       <c r="M142" t="inlineStr">
         <is>
-          <t>Gymnothorax nudivomer</t>
+          <t>Rhynchopelates oxyrhynchus</t>
         </is>
       </c>
       <c r="P142" t="inlineStr">
@@ -16347,16 +16047,6 @@
           <t>Kyphosus cinerascens</t>
         </is>
       </c>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>Incorrect species</t>
-        </is>
-      </c>
-      <c r="M143" t="inlineStr">
-        <is>
-          <t>Gymnothorax nudivomer</t>
-        </is>
-      </c>
       <c r="AF143" t="inlineStr">
         <is>
           <t>Correct species</t>
@@ -16394,16 +16084,6 @@
           <t>Pseudobalistes flavimarginatus</t>
         </is>
       </c>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>Incorrect species</t>
-        </is>
-      </c>
-      <c r="M144" t="inlineStr">
-        <is>
-          <t>Gymnothorax nudivomer</t>
-        </is>
-      </c>
       <c r="N144" t="inlineStr">
         <is>
           <t>Incorrect species</t>
@@ -16451,16 +16131,6 @@
           <t>Hippocampus algiricus</t>
         </is>
       </c>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>Incorrect species</t>
-        </is>
-      </c>
-      <c r="M145" t="inlineStr">
-        <is>
-          <t>Gymnothorax nudivomer</t>
-        </is>
-      </c>
       <c r="AB145" t="inlineStr">
         <is>
           <t>Incorrect species</t>
@@ -16508,16 +16178,6 @@
           <t>Takifugu xanthopterus</t>
         </is>
       </c>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>Incorrect species</t>
-        </is>
-      </c>
-      <c r="M146" t="inlineStr">
-        <is>
-          <t>Gymnothorax nudivomer</t>
-        </is>
-      </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -16704,12 +16364,12 @@
       </c>
       <c r="L148" t="inlineStr">
         <is>
-          <t>Incorrect species</t>
+          <t>Correct species</t>
         </is>
       </c>
       <c r="M148" t="inlineStr">
         <is>
-          <t>Gymnothorax nudivomer</t>
+          <t>Arctocephalus pusillus</t>
         </is>
       </c>
       <c r="N148" t="inlineStr">
@@ -16851,12 +16511,12 @@
       </c>
       <c r="L149" t="inlineStr">
         <is>
-          <t>Incorrect species</t>
+          <t>Correct species</t>
         </is>
       </c>
       <c r="M149" t="inlineStr">
         <is>
-          <t>Gymnothorax nudivomer</t>
+          <t>Anguilla reinhardtii</t>
         </is>
       </c>
       <c r="P149" t="inlineStr">
@@ -17065,12 +16725,12 @@
       </c>
       <c r="L151" t="inlineStr">
         <is>
-          <t>Incorrect species</t>
+          <t>Correct species</t>
         </is>
       </c>
       <c r="M151" t="inlineStr">
         <is>
-          <t>Gymnothorax nudivomer</t>
+          <t>Euthynnus alletteratus</t>
         </is>
       </c>
       <c r="N151" t="inlineStr">
@@ -17212,12 +16872,12 @@
       </c>
       <c r="L152" t="inlineStr">
         <is>
-          <t>Incorrect species</t>
+          <t>Correct species</t>
         </is>
       </c>
       <c r="M152" t="inlineStr">
         <is>
-          <t>Gymnothorax nudivomer</t>
+          <t>Monocentris japonicus</t>
         </is>
       </c>
       <c r="N152" t="inlineStr">
@@ -17707,12 +17367,12 @@
       </c>
       <c r="L157" t="inlineStr">
         <is>
-          <t>Incorrect species</t>
+          <t>Correct species</t>
         </is>
       </c>
       <c r="M157" t="inlineStr">
         <is>
-          <t>Gymnothorax nudivomer</t>
+          <t>Istiophorus platypterus</t>
         </is>
       </c>
       <c r="X157" t="inlineStr">
@@ -17794,12 +17454,12 @@
       </c>
       <c r="L158" t="inlineStr">
         <is>
-          <t>Incorrect species</t>
+          <t>Correct species</t>
         </is>
       </c>
       <c r="M158" t="inlineStr">
         <is>
-          <t>Gymnothorax nudivomer</t>
+          <t>Taenioides cirratus</t>
         </is>
       </c>
       <c r="N158" t="inlineStr">
@@ -17961,12 +17621,12 @@
       </c>
       <c r="L159" t="inlineStr">
         <is>
-          <t>Incorrect species</t>
+          <t>Correct species</t>
         </is>
       </c>
       <c r="M159" t="inlineStr">
         <is>
-          <t>Gymnothorax nudivomer</t>
+          <t>Alopias vulpinus</t>
         </is>
       </c>
       <c r="N159" t="inlineStr">
@@ -18128,12 +17788,12 @@
       </c>
       <c r="L160" t="inlineStr">
         <is>
-          <t>Incorrect species</t>
+          <t>Correct species</t>
         </is>
       </c>
       <c r="M160" t="inlineStr">
         <is>
-          <t>Gymnothorax nudivomer</t>
+          <t>Alepisaurus ferox</t>
         </is>
       </c>
       <c r="N160" t="inlineStr">
@@ -18273,16 +17933,6 @@
           <t>Limanda ferruginea</t>
         </is>
       </c>
-      <c r="L161" t="inlineStr">
-        <is>
-          <t>Incorrect species</t>
-        </is>
-      </c>
-      <c r="M161" t="inlineStr">
-        <is>
-          <t>Gymnothorax nudivomer</t>
-        </is>
-      </c>
       <c r="N161" t="inlineStr">
         <is>
           <t>Incorrect species</t>
@@ -18352,12 +18002,12 @@
       </c>
       <c r="L162" t="inlineStr">
         <is>
-          <t>Incorrect species</t>
+          <t>Correct species</t>
         </is>
       </c>
       <c r="M162" t="inlineStr">
         <is>
-          <t>Gymnothorax nudivomer</t>
+          <t>Syngnathus californiensis</t>
         </is>
       </c>
       <c r="N162" t="inlineStr">
@@ -18439,12 +18089,12 @@
       </c>
       <c r="L163" t="inlineStr">
         <is>
-          <t>Incorrect species</t>
+          <t>Correct species</t>
         </is>
       </c>
       <c r="M163" t="inlineStr">
         <is>
-          <t>Gymnothorax nudivomer</t>
+          <t>Trachipterus trachypterus</t>
         </is>
       </c>
       <c r="P163" t="inlineStr">
@@ -18661,16 +18311,6 @@
           <t>Trichiurus japonicus</t>
         </is>
       </c>
-      <c r="L165" t="inlineStr">
-        <is>
-          <t>Incorrect species</t>
-        </is>
-      </c>
-      <c r="M165" t="inlineStr">
-        <is>
-          <t>Gymnothorax nudivomer</t>
-        </is>
-      </c>
       <c r="N165" t="inlineStr">
         <is>
           <t>Correct species</t>
@@ -18770,12 +18410,12 @@
       </c>
       <c r="L166" t="inlineStr">
         <is>
-          <t>Incorrect species</t>
+          <t>Correct species</t>
         </is>
       </c>
       <c r="M166" t="inlineStr">
         <is>
-          <t>Gymnothorax nudivomer</t>
+          <t>Scleropages formosus</t>
         </is>
       </c>
       <c r="N166" t="inlineStr">
@@ -18937,12 +18577,12 @@
       </c>
       <c r="L167" t="inlineStr">
         <is>
-          <t>Incorrect species</t>
+          <t>Correct species</t>
         </is>
       </c>
       <c r="M167" t="inlineStr">
         <is>
-          <t>Gymnothorax nudivomer</t>
+          <t>Cirripectes castaneus</t>
         </is>
       </c>
       <c r="P167" t="inlineStr">
@@ -19141,12 +18781,12 @@
       </c>
       <c r="L169" t="inlineStr">
         <is>
-          <t>Incorrect species</t>
+          <t>Correct species</t>
         </is>
       </c>
       <c r="M169" t="inlineStr">
         <is>
-          <t>Gymnothorax nudivomer</t>
+          <t>Squatina squatina</t>
         </is>
       </c>
       <c r="N169" t="inlineStr">
@@ -19410,16 +19050,6 @@
           <t>Lentipes armatus</t>
         </is>
       </c>
-      <c r="L172" t="inlineStr">
-        <is>
-          <t>Incorrect species</t>
-        </is>
-      </c>
-      <c r="M172" t="inlineStr">
-        <is>
-          <t>Gymnothorax nudivomer</t>
-        </is>
-      </c>
       <c r="AB172" t="inlineStr">
         <is>
           <t>Incorrect species</t>
@@ -19477,16 +19107,6 @@
           <t>Ctenochaetus tominiensis</t>
         </is>
       </c>
-      <c r="L173" t="inlineStr">
-        <is>
-          <t>Incorrect species</t>
-        </is>
-      </c>
-      <c r="M173" t="inlineStr">
-        <is>
-          <t>Gymnothorax nudivomer</t>
-        </is>
-      </c>
       <c r="N173" t="inlineStr">
         <is>
           <t>Correct species</t>
@@ -19566,12 +19186,12 @@
       </c>
       <c r="L174" t="inlineStr">
         <is>
-          <t>Incorrect species</t>
+          <t>Correct species</t>
         </is>
       </c>
       <c r="M174" t="inlineStr">
         <is>
-          <t>Gymnothorax nudivomer</t>
+          <t>Lepidochelys kempii</t>
         </is>
       </c>
       <c r="P174" t="inlineStr">
@@ -19703,12 +19323,12 @@
       </c>
       <c r="L175" t="inlineStr">
         <is>
-          <t>Incorrect species</t>
+          <t>Correct species</t>
         </is>
       </c>
       <c r="M175" t="inlineStr">
         <is>
-          <t>Gymnothorax nudivomer</t>
+          <t>Neogobius melanostomus</t>
         </is>
       </c>
       <c r="N175" t="inlineStr">
@@ -19870,12 +19490,12 @@
       </c>
       <c r="L176" t="inlineStr">
         <is>
-          <t>Incorrect species</t>
+          <t>Correct species</t>
         </is>
       </c>
       <c r="M176" t="inlineStr">
         <is>
-          <t>Gymnothorax nudivomer</t>
+          <t>Lutjanus stellatus</t>
         </is>
       </c>
       <c r="V176" t="inlineStr">
@@ -19997,12 +19617,12 @@
       </c>
       <c r="L177" t="inlineStr">
         <is>
-          <t>Incorrect species</t>
+          <t>Correct species</t>
         </is>
       </c>
       <c r="M177" t="inlineStr">
         <is>
-          <t>Gymnothorax nudivomer</t>
+          <t>Ostorhinchus fleurieu</t>
         </is>
       </c>
       <c r="N177" t="inlineStr">
@@ -20164,12 +19784,12 @@
       </c>
       <c r="L178" t="inlineStr">
         <is>
-          <t>Incorrect species</t>
+          <t>Correct species</t>
         </is>
       </c>
       <c r="M178" t="inlineStr">
         <is>
-          <t>Gymnothorax nudivomer</t>
+          <t>Gymnothorax mucifer</t>
         </is>
       </c>
       <c r="N178" t="inlineStr">
@@ -20299,16 +19919,6 @@
           <t>Alosa aestivalis</t>
         </is>
       </c>
-      <c r="L179" t="inlineStr">
-        <is>
-          <t>Incorrect species</t>
-        </is>
-      </c>
-      <c r="M179" t="inlineStr">
-        <is>
-          <t>Gymnothorax nudivomer</t>
-        </is>
-      </c>
       <c r="AB179" t="inlineStr">
         <is>
           <t>Incorrect species</t>
@@ -20368,12 +19978,12 @@
       </c>
       <c r="L180" t="inlineStr">
         <is>
-          <t>Incorrect species</t>
+          <t>Correct species</t>
         </is>
       </c>
       <c r="M180" t="inlineStr">
         <is>
-          <t>Gymnothorax nudivomer</t>
+          <t>Arothron reticularis</t>
         </is>
       </c>
       <c r="N180" t="inlineStr">
@@ -20525,12 +20135,12 @@
       </c>
       <c r="L181" t="inlineStr">
         <is>
-          <t>Incorrect species</t>
+          <t>Correct species</t>
         </is>
       </c>
       <c r="M181" t="inlineStr">
         <is>
-          <t>Gymnothorax nudivomer</t>
+          <t>Chaenogobius annularis</t>
         </is>
       </c>
       <c r="N181" t="inlineStr">
@@ -20692,12 +20302,12 @@
       </c>
       <c r="L182" t="inlineStr">
         <is>
-          <t>Incorrect species</t>
+          <t>Correct species</t>
         </is>
       </c>
       <c r="M182" t="inlineStr">
         <is>
-          <t>Gymnothorax nudivomer</t>
+          <t>Cynoglossus roulei</t>
         </is>
       </c>
       <c r="N182" t="inlineStr">
@@ -20859,12 +20469,12 @@
       </c>
       <c r="L183" t="inlineStr">
         <is>
-          <t>Incorrect species</t>
+          <t>Correct species</t>
         </is>
       </c>
       <c r="M183" t="inlineStr">
         <is>
-          <t>Gymnothorax nudivomer</t>
+          <t>Leptonychotes weddellii</t>
         </is>
       </c>
       <c r="N183" t="inlineStr">
@@ -20994,16 +20604,6 @@
           <t>Arius dispar</t>
         </is>
       </c>
-      <c r="L184" t="inlineStr">
-        <is>
-          <t>Incorrect species</t>
-        </is>
-      </c>
-      <c r="M184" t="inlineStr">
-        <is>
-          <t>Gymnothorax nudivomer</t>
-        </is>
-      </c>
       <c r="N184" t="inlineStr">
         <is>
           <t>Correct species</t>
@@ -21197,12 +20797,12 @@
       </c>
       <c r="L187" t="inlineStr">
         <is>
-          <t>Incorrect species</t>
+          <t>Correct species</t>
         </is>
       </c>
       <c r="M187" t="inlineStr">
         <is>
-          <t>Gymnothorax nudivomer</t>
+          <t>Pagrus caeruleostictus</t>
         </is>
       </c>
       <c r="P187" t="inlineStr">
@@ -21344,12 +20944,12 @@
       </c>
       <c r="L188" t="inlineStr">
         <is>
-          <t>Incorrect species</t>
+          <t>Correct species</t>
         </is>
       </c>
       <c r="M188" t="inlineStr">
         <is>
-          <t>Gymnothorax nudivomer</t>
+          <t>Balaena mysticetus</t>
         </is>
       </c>
       <c r="N188" t="inlineStr">
@@ -21491,12 +21091,12 @@
       </c>
       <c r="L189" t="inlineStr">
         <is>
-          <t>Incorrect species</t>
+          <t>Correct species</t>
         </is>
       </c>
       <c r="M189" t="inlineStr">
         <is>
-          <t>Gymnothorax nudivomer</t>
+          <t>Liparis bathyarcticus</t>
         </is>
       </c>
       <c r="P189" t="inlineStr">
@@ -21586,16 +21186,6 @@
           <t>Ammodytes hexapterus</t>
         </is>
       </c>
-      <c r="L190" t="inlineStr">
-        <is>
-          <t>Incorrect species</t>
-        </is>
-      </c>
-      <c r="M190" t="inlineStr">
-        <is>
-          <t>Gymnothorax nudivomer</t>
-        </is>
-      </c>
       <c r="N190" t="inlineStr">
         <is>
           <t>Correct species</t>
@@ -21822,12 +21412,12 @@
       </c>
       <c r="L192" t="inlineStr">
         <is>
-          <t>Incorrect species</t>
+          <t>Correct species</t>
         </is>
       </c>
       <c r="M192" t="inlineStr">
         <is>
-          <t>Gymnothorax nudivomer</t>
+          <t>Cheilinus undulatus</t>
         </is>
       </c>
       <c r="N192" t="inlineStr">
@@ -22066,12 +21656,12 @@
       </c>
       <c r="L194" t="inlineStr">
         <is>
-          <t>Incorrect species</t>
+          <t>Correct species</t>
         </is>
       </c>
       <c r="M194" t="inlineStr">
         <is>
-          <t>Gymnothorax nudivomer</t>
+          <t>Globicephala macrorhynchus</t>
         </is>
       </c>
       <c r="N194" t="inlineStr">
@@ -22203,12 +21793,12 @@
       </c>
       <c r="L195" t="inlineStr">
         <is>
-          <t>Incorrect species</t>
+          <t>Correct species</t>
         </is>
       </c>
       <c r="M195" t="inlineStr">
         <is>
-          <t>Gymnothorax nudivomer</t>
+          <t>Engraulis mordax</t>
         </is>
       </c>
       <c r="N195" t="inlineStr">
@@ -22425,16 +22015,6 @@
           <t>Oostethus manadensis</t>
         </is>
       </c>
-      <c r="L197" t="inlineStr">
-        <is>
-          <t>Incorrect species</t>
-        </is>
-      </c>
-      <c r="M197" t="inlineStr">
-        <is>
-          <t>Gymnothorax nudivomer</t>
-        </is>
-      </c>
       <c r="AB197" t="inlineStr">
         <is>
           <t>Incorrect species</t>
@@ -22524,12 +22104,12 @@
       </c>
       <c r="L198" t="inlineStr">
         <is>
-          <t>Incorrect species</t>
+          <t>Correct species</t>
         </is>
       </c>
       <c r="M198" t="inlineStr">
         <is>
-          <t>Gymnothorax nudivomer</t>
+          <t>Aldrovandia oleosa</t>
         </is>
       </c>
       <c r="N198" t="inlineStr">
@@ -22681,12 +22261,12 @@
       </c>
       <c r="L199" t="inlineStr">
         <is>
-          <t>Incorrect species</t>
+          <t>Correct species</t>
         </is>
       </c>
       <c r="M199" t="inlineStr">
         <is>
-          <t>Gymnothorax nudivomer</t>
+          <t>Stenobrachius leucopsarus</t>
         </is>
       </c>
       <c r="P199" t="inlineStr">
@@ -22793,7 +22373,7 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
@@ -22930,7 +22510,7 @@
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
@@ -23037,7 +22617,7 @@
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
@@ -23134,7 +22714,7 @@
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
@@ -23251,7 +22831,7 @@
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
@@ -23283,7 +22863,7 @@
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
@@ -23350,7 +22930,7 @@
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
@@ -23457,7 +23037,7 @@
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
@@ -23504,7 +23084,7 @@
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
@@ -23621,7 +23201,7 @@
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
@@ -23708,7 +23288,7 @@
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
@@ -23795,7 +23375,7 @@
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D211" t="inlineStr">
@@ -23942,7 +23522,7 @@
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D212" t="inlineStr">
@@ -24049,7 +23629,7 @@
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D213" t="inlineStr">
@@ -24086,7 +23666,7 @@
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
@@ -24133,7 +23713,7 @@
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D215" t="inlineStr">
@@ -24270,7 +23850,7 @@
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D216" t="inlineStr">
@@ -24302,7 +23882,7 @@
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D217" t="inlineStr">
@@ -24449,7 +24029,7 @@
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D218" t="inlineStr">
@@ -24536,7 +24116,7 @@
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D219" t="inlineStr">
@@ -24578,7 +24158,7 @@
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D220" t="inlineStr">
@@ -24665,7 +24245,7 @@
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
@@ -24697,7 +24277,7 @@
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D222" t="inlineStr">
@@ -24729,7 +24309,7 @@
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D223" t="inlineStr">
@@ -24866,7 +24446,7 @@
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D224" t="inlineStr">
@@ -24993,7 +24573,7 @@
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D225" t="inlineStr">
@@ -25090,7 +24670,7 @@
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D226" t="inlineStr">
@@ -25122,7 +24702,7 @@
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D227" t="inlineStr">
@@ -25219,7 +24799,7 @@
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D228" t="inlineStr">
@@ -25336,7 +24916,7 @@
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D229" t="inlineStr">
@@ -25453,7 +25033,7 @@
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D230" t="inlineStr">
@@ -25580,7 +25160,7 @@
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D231" t="inlineStr">
@@ -25667,7 +25247,7 @@
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D232" t="inlineStr">
@@ -25814,7 +25394,7 @@
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D233" t="inlineStr">
@@ -25941,7 +25521,7 @@
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D234" t="inlineStr">
@@ -25963,7 +25543,7 @@
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D235" t="inlineStr">
@@ -26110,7 +25690,7 @@
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D236" t="inlineStr">
@@ -26187,7 +25767,7 @@
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D237" t="inlineStr">
@@ -26294,7 +25874,7 @@
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D238" t="inlineStr">
@@ -26401,7 +25981,7 @@
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D239" t="inlineStr">
@@ -26468,7 +26048,7 @@
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D240" t="inlineStr">
@@ -26520,7 +26100,7 @@
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D241" t="inlineStr">
@@ -26557,7 +26137,7 @@
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D242" t="inlineStr">
@@ -26674,7 +26254,7 @@
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D243" t="inlineStr">
@@ -26731,7 +26311,7 @@
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D244" t="inlineStr">
@@ -26778,7 +26358,7 @@
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D245" t="inlineStr">
@@ -26905,7 +26485,7 @@
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D246" t="inlineStr">
@@ -27042,7 +26622,7 @@
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D247" t="inlineStr">
@@ -27169,7 +26749,7 @@
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D248" t="inlineStr">
@@ -27206,7 +26786,7 @@
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D249" t="inlineStr">
@@ -27248,7 +26828,7 @@
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D250" t="inlineStr">
@@ -27395,7 +26975,7 @@
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D251" t="inlineStr">
@@ -27502,7 +27082,7 @@
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D252" t="inlineStr">
@@ -27534,7 +27114,7 @@
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D253" t="inlineStr">
@@ -27581,7 +27161,7 @@
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D254" t="inlineStr">
@@ -27718,7 +27298,7 @@
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D255" t="inlineStr">
@@ -27845,7 +27425,7 @@
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D256" t="inlineStr">
@@ -27962,7 +27542,7 @@
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D257" t="inlineStr">
@@ -27999,7 +27579,7 @@
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D258" t="inlineStr">
@@ -28066,7 +27646,7 @@
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D259" t="inlineStr">
@@ -28108,7 +27688,7 @@
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D260" t="inlineStr">
@@ -28165,7 +27745,7 @@
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D261" t="inlineStr">
@@ -28212,7 +27792,7 @@
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D262" t="inlineStr">
@@ -28359,7 +27939,7 @@
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D263" t="inlineStr">
@@ -28386,7 +27966,7 @@
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D264" t="inlineStr">
@@ -28428,7 +28008,7 @@
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D265" t="inlineStr">
@@ -28565,7 +28145,7 @@
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D266" t="inlineStr">
@@ -28652,7 +28232,7 @@
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D267" t="inlineStr">
@@ -28739,7 +28319,7 @@
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D268" t="inlineStr">
@@ -28791,7 +28371,7 @@
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D269" t="inlineStr">
@@ -28823,7 +28403,7 @@
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D270" t="inlineStr">
@@ -28890,7 +28470,7 @@
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D271" t="inlineStr">
@@ -29027,7 +28607,7 @@
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D272" t="inlineStr">
@@ -29134,7 +28714,7 @@
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D273" t="inlineStr">
@@ -29241,7 +28821,7 @@
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D274" t="inlineStr">
@@ -29278,7 +28858,7 @@
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D275" t="inlineStr">
@@ -29375,7 +28955,7 @@
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D276" t="inlineStr">
@@ -29502,7 +29082,7 @@
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D277" t="inlineStr">
@@ -29569,7 +29149,7 @@
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D278" t="inlineStr">
@@ -29686,7 +29266,7 @@
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D279" t="inlineStr">
@@ -29718,7 +29298,7 @@
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D280" t="inlineStr">
@@ -29760,7 +29340,7 @@
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D281" t="inlineStr">
@@ -29857,7 +29437,7 @@
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D282" t="inlineStr">
@@ -29994,7 +29574,7 @@
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D283" t="inlineStr">
@@ -30121,7 +29701,7 @@
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D284" t="inlineStr">
@@ -30188,7 +29768,7 @@
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D285" t="inlineStr">
@@ -30235,7 +29815,7 @@
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D286" t="inlineStr">
@@ -30267,7 +29847,7 @@
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D287" t="inlineStr">
@@ -30414,7 +29994,7 @@
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D288" t="inlineStr">
@@ -30486,7 +30066,7 @@
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D289" t="inlineStr">
@@ -30613,7 +30193,7 @@
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D290" t="inlineStr">
@@ -30690,7 +30270,7 @@
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D291" t="inlineStr">
@@ -30807,7 +30387,7 @@
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D292" t="inlineStr">
@@ -30839,7 +30419,7 @@
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D293" t="inlineStr">
@@ -30926,7 +30506,7 @@
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D294" t="inlineStr">
@@ -31043,7 +30623,7 @@
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D295" t="inlineStr">
@@ -31160,7 +30740,7 @@
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D296" t="inlineStr">
@@ -31237,7 +30817,7 @@
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D297" t="inlineStr">
@@ -31374,7 +30954,7 @@
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D298" t="inlineStr">
@@ -31419,11 +30999,6 @@
           <t>Lutjanidae</t>
         </is>
       </c>
-      <c r="M299" t="inlineStr">
-        <is>
-          <t>Gymnothorax nudivomer</t>
-        </is>
-      </c>
       <c r="O299" t="inlineStr">
         <is>
           <t>Odontanthias tapui</t>
@@ -31466,16 +31041,6 @@
           <t>Lutjanus erythropterus</t>
         </is>
       </c>
-      <c r="L300" t="inlineStr">
-        <is>
-          <t>Incorrect species</t>
-        </is>
-      </c>
-      <c r="M300" t="inlineStr">
-        <is>
-          <t>Gymnothorax nudivomer</t>
-        </is>
-      </c>
       <c r="N300" t="inlineStr">
         <is>
           <t>Incorrect species</t>
@@ -31555,12 +31120,12 @@
       </c>
       <c r="L301" t="inlineStr">
         <is>
-          <t>Incorrect species</t>
+          <t>Correct species</t>
         </is>
       </c>
       <c r="M301" t="inlineStr">
         <is>
-          <t>Gymnothorax nudivomer</t>
+          <t>Caesio cuning</t>
         </is>
       </c>
       <c r="P301" t="inlineStr">
@@ -31650,16 +31215,6 @@
           <t>Lutjanus campechanus</t>
         </is>
       </c>
-      <c r="L302" t="inlineStr">
-        <is>
-          <t>Incorrect species</t>
-        </is>
-      </c>
-      <c r="M302" t="inlineStr">
-        <is>
-          <t>Gymnothorax nudivomer</t>
-        </is>
-      </c>
       <c r="P302" t="inlineStr">
         <is>
           <t>Incorrect species</t>
@@ -31759,12 +31314,12 @@
       </c>
       <c r="L303" t="inlineStr">
         <is>
-          <t>Incorrect species</t>
+          <t>Correct species</t>
         </is>
       </c>
       <c r="M303" t="inlineStr">
         <is>
-          <t>Gymnothorax nudivomer</t>
+          <t>Lutjanus johnii</t>
         </is>
       </c>
       <c r="N303" t="inlineStr">
@@ -31906,12 +31461,12 @@
       </c>
       <c r="L304" t="inlineStr">
         <is>
-          <t>Incorrect species</t>
+          <t>Correct species</t>
         </is>
       </c>
       <c r="M304" t="inlineStr">
         <is>
-          <t>Gymnothorax nudivomer</t>
+          <t>Pristipomoides multidens</t>
         </is>
       </c>
       <c r="P304" t="inlineStr">
@@ -32048,7 +31603,7 @@
       </c>
       <c r="M305" t="inlineStr">
         <is>
-          <t>Gymnothorax nudivomer</t>
+          <t>Lutjanus jocu</t>
         </is>
       </c>
       <c r="P305" t="inlineStr">
@@ -32160,12 +31715,12 @@
       </c>
       <c r="L306" t="inlineStr">
         <is>
-          <t>Incorrect species</t>
+          <t>Correct species</t>
         </is>
       </c>
       <c r="M306" t="inlineStr">
         <is>
-          <t>Gymnothorax nudivomer</t>
+          <t>Lutjanus malabaricus</t>
         </is>
       </c>
       <c r="N306" t="inlineStr">
@@ -32414,12 +31969,12 @@
       </c>
       <c r="L308" t="inlineStr">
         <is>
-          <t>Incorrect species</t>
+          <t>Correct species</t>
         </is>
       </c>
       <c r="M308" t="inlineStr">
         <is>
-          <t>Gymnothorax nudivomer</t>
+          <t>Pterocaesio tile</t>
         </is>
       </c>
       <c r="P308" t="inlineStr">
@@ -32573,7 +32128,7 @@
       </c>
       <c r="M310" t="inlineStr">
         <is>
-          <t>Gymnothorax nudivomer</t>
+          <t>Lutjanus stellatus</t>
         </is>
       </c>
       <c r="O310" t="inlineStr">
@@ -32717,12 +32272,12 @@
       </c>
       <c r="L312" t="inlineStr">
         <is>
-          <t>Incorrect species</t>
+          <t>Correct species</t>
         </is>
       </c>
       <c r="M312" t="inlineStr">
         <is>
-          <t>Gymnothorax nudivomer</t>
+          <t>Lutjanus kasmira</t>
         </is>
       </c>
       <c r="P312" t="inlineStr">
@@ -32844,12 +32399,12 @@
       </c>
       <c r="L313" t="inlineStr">
         <is>
-          <t>Incorrect species</t>
+          <t>Correct species</t>
         </is>
       </c>
       <c r="M313" t="inlineStr">
         <is>
-          <t>Gymnothorax nudivomer</t>
+          <t>Pristipomoides argyrogrammicus</t>
         </is>
       </c>
       <c r="N313" t="inlineStr">
@@ -33098,12 +32653,12 @@
       </c>
       <c r="L315" t="inlineStr">
         <is>
-          <t>Incorrect species</t>
+          <t>Correct species</t>
         </is>
       </c>
       <c r="M315" t="inlineStr">
         <is>
-          <t>Gymnothorax nudivomer</t>
+          <t>Lutjanus bengalensis</t>
         </is>
       </c>
       <c r="N315" t="inlineStr">
@@ -33245,12 +32800,12 @@
       </c>
       <c r="L316" t="inlineStr">
         <is>
-          <t>Incorrect species</t>
+          <t>Correct species</t>
         </is>
       </c>
       <c r="M316" t="inlineStr">
         <is>
-          <t>Gymnothorax nudivomer</t>
+          <t>Pristipomoides filamentosus</t>
         </is>
       </c>
       <c r="P316" t="inlineStr">
@@ -33402,12 +32957,12 @@
       </c>
       <c r="L317" t="inlineStr">
         <is>
-          <t>Incorrect species</t>
+          <t>Correct species</t>
         </is>
       </c>
       <c r="M317" t="inlineStr">
         <is>
-          <t>Gymnothorax nudivomer</t>
+          <t>Aphareus rutilans</t>
         </is>
       </c>
       <c r="P317" t="inlineStr">
@@ -33549,12 +33104,12 @@
       </c>
       <c r="L318" t="inlineStr">
         <is>
-          <t>Incorrect species</t>
+          <t>Correct species</t>
         </is>
       </c>
       <c r="M318" t="inlineStr">
         <is>
-          <t>Gymnothorax nudivomer</t>
+          <t>Lutjanus carponotatus</t>
         </is>
       </c>
       <c r="P318" t="inlineStr">
@@ -33686,12 +33241,12 @@
       </c>
       <c r="L319" t="inlineStr">
         <is>
-          <t>Incorrect species</t>
+          <t>Correct species</t>
         </is>
       </c>
       <c r="M319" t="inlineStr">
         <is>
-          <t>Gymnothorax nudivomer</t>
+          <t>Lutjanus fulviflamma</t>
         </is>
       </c>
       <c r="P319" t="inlineStr">
@@ -33843,12 +33398,12 @@
       </c>
       <c r="L320" t="inlineStr">
         <is>
-          <t>Incorrect species</t>
+          <t>Correct species</t>
         </is>
       </c>
       <c r="M320" t="inlineStr">
         <is>
-          <t>Gymnothorax nudivomer</t>
+          <t>Lutjanus ophuysenii</t>
         </is>
       </c>
       <c r="N320" t="inlineStr">
@@ -33960,12 +33515,12 @@
       </c>
       <c r="L321" t="inlineStr">
         <is>
-          <t>Incorrect species</t>
+          <t>Correct species</t>
         </is>
       </c>
       <c r="M321" t="inlineStr">
         <is>
-          <t>Gymnothorax nudivomer</t>
+          <t>Lutjanus vitta</t>
         </is>
       </c>
       <c r="P321" t="inlineStr">
@@ -34055,16 +33610,6 @@
           <t>Pristipomoides argyrogrammicus</t>
         </is>
       </c>
-      <c r="L322" t="inlineStr">
-        <is>
-          <t>Incorrect species</t>
-        </is>
-      </c>
-      <c r="M322" t="inlineStr">
-        <is>
-          <t>Gymnothorax nudivomer</t>
-        </is>
-      </c>
       <c r="N322" t="inlineStr">
         <is>
           <t>Incorrect species</t>
@@ -34134,7 +33679,7 @@
       </c>
       <c r="M323" t="inlineStr">
         <is>
-          <t>Gymnothorax nudivomer</t>
+          <t>Lutjanus stellatus</t>
         </is>
       </c>
       <c r="W323" t="inlineStr">
@@ -34251,16 +33796,6 @@
           <t>Lutjanus erythropterus</t>
         </is>
       </c>
-      <c r="L325" t="inlineStr">
-        <is>
-          <t>Incorrect species</t>
-        </is>
-      </c>
-      <c r="M325" t="inlineStr">
-        <is>
-          <t>Gymnothorax nudivomer</t>
-        </is>
-      </c>
       <c r="AF325" t="inlineStr">
         <is>
           <t>Incorrect species</t>
@@ -34320,12 +33855,12 @@
       </c>
       <c r="L326" t="inlineStr">
         <is>
-          <t>Incorrect species</t>
+          <t>Correct species</t>
         </is>
       </c>
       <c r="M326" t="inlineStr">
         <is>
-          <t>Gymnothorax nudivomer</t>
+          <t>Lutjanus peru</t>
         </is>
       </c>
       <c r="V326" t="inlineStr">
@@ -34551,12 +34086,12 @@
       </c>
       <c r="L329" t="inlineStr">
         <is>
-          <t>Incorrect species</t>
+          <t>Correct species</t>
         </is>
       </c>
       <c r="M329" t="inlineStr">
         <is>
-          <t>Gymnothorax nudivomer</t>
+          <t>Lutjanus argentimaculatus</t>
         </is>
       </c>
       <c r="N329" t="inlineStr">
@@ -34840,7 +34375,7 @@
       </c>
       <c r="M331" t="inlineStr">
         <is>
-          <t>Gymnothorax nudivomer</t>
+          <t>Lutjanus erythropterus</t>
         </is>
       </c>
       <c r="N331" t="inlineStr">
@@ -34982,12 +34517,12 @@
       </c>
       <c r="L332" t="inlineStr">
         <is>
-          <t>Incorrect species</t>
+          <t>Correct species</t>
         </is>
       </c>
       <c r="M332" t="inlineStr">
         <is>
-          <t>Gymnothorax nudivomer</t>
+          <t>Lutjanus kasmira</t>
         </is>
       </c>
       <c r="P332" t="inlineStr">
@@ -35365,16 +34900,6 @@
           <t>Pterocaesio digramma</t>
         </is>
       </c>
-      <c r="L337" t="inlineStr">
-        <is>
-          <t>Incorrect species</t>
-        </is>
-      </c>
-      <c r="M337" t="inlineStr">
-        <is>
-          <t>Gymnothorax nudivomer</t>
-        </is>
-      </c>
       <c r="N337" t="inlineStr">
         <is>
           <t>Correct species</t>
@@ -35454,12 +34979,12 @@
       </c>
       <c r="L338" t="inlineStr">
         <is>
-          <t>Incorrect species</t>
+          <t>Correct species</t>
         </is>
       </c>
       <c r="M338" t="inlineStr">
         <is>
-          <t>Gymnothorax nudivomer</t>
+          <t>Caesio cuning</t>
         </is>
       </c>
       <c r="P338" t="inlineStr">
@@ -36006,12 +35531,12 @@
       </c>
       <c r="L344" t="inlineStr">
         <is>
-          <t>Incorrect species</t>
+          <t>Correct species</t>
         </is>
       </c>
       <c r="M344" t="inlineStr">
         <is>
-          <t>Gymnothorax nudivomer</t>
+          <t>Aphareus rutilans</t>
         </is>
       </c>
       <c r="N344" t="inlineStr">
@@ -36173,12 +35698,12 @@
       </c>
       <c r="L345" t="inlineStr">
         <is>
-          <t>Incorrect species</t>
+          <t>Correct species</t>
         </is>
       </c>
       <c r="M345" t="inlineStr">
         <is>
-          <t>Gymnothorax nudivomer</t>
+          <t>Lutjanus ophuysenii</t>
         </is>
       </c>
       <c r="N345" t="inlineStr">
@@ -36320,12 +35845,12 @@
       </c>
       <c r="L346" t="inlineStr">
         <is>
-          <t>Incorrect species</t>
+          <t>Correct species</t>
         </is>
       </c>
       <c r="M346" t="inlineStr">
         <is>
-          <t>Gymnothorax nudivomer</t>
+          <t>Lutjanus carponotatus</t>
         </is>
       </c>
       <c r="P346" t="inlineStr">
@@ -36457,12 +35982,12 @@
       </c>
       <c r="L347" t="inlineStr">
         <is>
-          <t>Incorrect species</t>
+          <t>Correct species</t>
         </is>
       </c>
       <c r="M347" t="inlineStr">
         <is>
-          <t>Gymnothorax nudivomer</t>
+          <t>Lutjanus fulviflamma</t>
         </is>
       </c>
       <c r="N347" t="inlineStr">
@@ -36624,12 +36149,12 @@
       </c>
       <c r="L348" t="inlineStr">
         <is>
-          <t>Incorrect species</t>
+          <t>Correct species</t>
         </is>
       </c>
       <c r="M348" t="inlineStr">
         <is>
-          <t>Gymnothorax nudivomer</t>
+          <t>Lutjanus vitta</t>
         </is>
       </c>
       <c r="P348" t="inlineStr">
@@ -36763,7 +36288,7 @@
       </c>
       <c r="C350" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D350" t="inlineStr">
@@ -36805,7 +36330,7 @@
       </c>
       <c r="C351" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D351" t="inlineStr">
@@ -36902,7 +36427,7 @@
       </c>
       <c r="C352" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D352" t="inlineStr">
@@ -37009,7 +36534,7 @@
       </c>
       <c r="C353" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D353" t="inlineStr">
@@ -37076,7 +36601,7 @@
       </c>
       <c r="C354" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D354" t="inlineStr">
@@ -37193,7 +36718,7 @@
       </c>
       <c r="C355" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D355" t="inlineStr">
@@ -37330,7 +36855,7 @@
       </c>
       <c r="C356" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D356" t="inlineStr">
@@ -37427,7 +36952,7 @@
       </c>
       <c r="C357" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D357" t="inlineStr">
@@ -37554,7 +37079,7 @@
       </c>
       <c r="C358" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D358" t="inlineStr">
@@ -37691,7 +37216,7 @@
       </c>
       <c r="C359" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D359" t="inlineStr">
@@ -37798,7 +37323,7 @@
       </c>
       <c r="C360" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D360" t="inlineStr">
@@ -37905,7 +37430,7 @@
       </c>
       <c r="C361" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D361" t="inlineStr">
@@ -38042,7 +37567,7 @@
       </c>
       <c r="C362" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D362" t="inlineStr">
@@ -38139,7 +37664,7 @@
       </c>
       <c r="C363" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D363" t="inlineStr">
@@ -38266,7 +37791,7 @@
       </c>
       <c r="C364" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D364" t="inlineStr">
@@ -38343,7 +37868,7 @@
       </c>
       <c r="C365" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D365" t="inlineStr">
@@ -38440,7 +37965,7 @@
       </c>
       <c r="C366" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D366" t="inlineStr">
@@ -38502,7 +38027,7 @@
       </c>
       <c r="C367" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D367" t="inlineStr">
@@ -38649,7 +38174,7 @@
       </c>
       <c r="C368" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D368" t="inlineStr">
@@ -38746,7 +38271,7 @@
       </c>
       <c r="C369" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D369" t="inlineStr">
@@ -38843,7 +38368,7 @@
       </c>
       <c r="C370" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D370" t="inlineStr">
@@ -38950,7 +38475,7 @@
       </c>
       <c r="C371" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D371" t="inlineStr">
@@ -39057,7 +38582,7 @@
       </c>
       <c r="C372" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D372" t="inlineStr">
@@ -39174,7 +38699,7 @@
       </c>
       <c r="C373" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D373" t="inlineStr">
@@ -39291,7 +38816,7 @@
       </c>
       <c r="C374" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D374" t="inlineStr">
@@ -39428,7 +38953,7 @@
       </c>
       <c r="C375" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D375" t="inlineStr">
@@ -39545,7 +39070,7 @@
       </c>
       <c r="C376" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D376" t="inlineStr">
@@ -39652,7 +39177,7 @@
       </c>
       <c r="C377" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D377" t="inlineStr">
@@ -39799,7 +39324,7 @@
       </c>
       <c r="C378" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D378" t="inlineStr">
@@ -39876,7 +39401,7 @@
       </c>
       <c r="C379" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D379" t="inlineStr">
@@ -39943,7 +39468,7 @@
       </c>
       <c r="C380" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D380" t="inlineStr">
@@ -40020,7 +39545,7 @@
       </c>
       <c r="C381" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D381" t="inlineStr">
@@ -40127,7 +39652,7 @@
       </c>
       <c r="C382" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D382" t="inlineStr">
@@ -40274,7 +39799,7 @@
       </c>
       <c r="C383" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D383" t="inlineStr">
@@ -40401,7 +39926,7 @@
       </c>
       <c r="C384" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D384" t="inlineStr">
@@ -40508,7 +40033,7 @@
       </c>
       <c r="C385" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D385" t="inlineStr">
@@ -40535,7 +40060,7 @@
       </c>
       <c r="C386" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D386" t="inlineStr">
@@ -40682,7 +40207,7 @@
       </c>
       <c r="C387" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D387" t="inlineStr">
@@ -40819,7 +40344,7 @@
       </c>
       <c r="C388" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D388" t="inlineStr">
@@ -40866,7 +40391,7 @@
       </c>
       <c r="C389" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D389" t="inlineStr">
@@ -41003,7 +40528,7 @@
       </c>
       <c r="C390" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D390" t="inlineStr">
@@ -41150,7 +40675,7 @@
       </c>
       <c r="C391" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D391" t="inlineStr">
@@ -41207,7 +40732,7 @@
       </c>
       <c r="C392" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D392" t="inlineStr">
@@ -41274,7 +40799,7 @@
       </c>
       <c r="C393" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D393" t="inlineStr">
@@ -41391,7 +40916,7 @@
       </c>
       <c r="C394" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D394" t="inlineStr">
@@ -41528,7 +41053,7 @@
       </c>
       <c r="C395" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D395" t="inlineStr">
@@ -41595,7 +41120,7 @@
       </c>
       <c r="C396" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D396" t="inlineStr">
@@ -41732,7 +41257,7 @@
       </c>
       <c r="C397" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D397" t="inlineStr">
@@ -41809,7 +41334,7 @@
       </c>
       <c r="C398" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D398" t="inlineStr">
@@ -41906,7 +41431,7 @@
       </c>
       <c r="C399" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D399" t="inlineStr">
@@ -42043,7 +41568,7 @@
       </c>
       <c r="C400" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D400" t="inlineStr">
@@ -42080,7 +41605,7 @@
       </c>
       <c r="C401" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D401" t="inlineStr">
@@ -42197,7 +41722,7 @@
       </c>
       <c r="C402" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D402" t="inlineStr">
@@ -42304,7 +41829,7 @@
       </c>
       <c r="C403" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D403" t="inlineStr">
@@ -42451,7 +41976,7 @@
       </c>
       <c r="C404" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D404" t="inlineStr">
@@ -42588,7 +42113,7 @@
       </c>
       <c r="C405" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D405" t="inlineStr">
@@ -42665,7 +42190,7 @@
       </c>
       <c r="C406" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D406" t="inlineStr">
@@ -42772,7 +42297,7 @@
       </c>
       <c r="C407" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D407" t="inlineStr">
@@ -42859,7 +42384,7 @@
       </c>
       <c r="C408" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D408" t="inlineStr">
@@ -43006,7 +42531,7 @@
       </c>
       <c r="C409" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D409" t="inlineStr">
@@ -43133,7 +42658,7 @@
       </c>
       <c r="C410" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D410" t="inlineStr">
@@ -43170,7 +42695,7 @@
       </c>
       <c r="C411" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D411" t="inlineStr">
@@ -43287,7 +42812,7 @@
       </c>
       <c r="C412" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D412" t="inlineStr">
@@ -43364,7 +42889,7 @@
       </c>
       <c r="C413" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D413" t="inlineStr">
@@ -43491,7 +43016,7 @@
       </c>
       <c r="C414" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D414" t="inlineStr">
@@ -43628,7 +43153,7 @@
       </c>
       <c r="C415" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D415" t="inlineStr">
@@ -43725,7 +43250,7 @@
       </c>
       <c r="C416" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D416" t="inlineStr">
@@ -43852,7 +43377,7 @@
       </c>
       <c r="C417" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D417" t="inlineStr">
@@ -43989,7 +43514,7 @@
       </c>
       <c r="C418" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D418" t="inlineStr">
@@ -44096,7 +43621,7 @@
       </c>
       <c r="C419" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D419" t="inlineStr">
@@ -44163,7 +43688,7 @@
       </c>
       <c r="C420" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D420" t="inlineStr">
@@ -44320,7 +43845,7 @@
       </c>
       <c r="C421" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D421" t="inlineStr">
@@ -44407,7 +43932,7 @@
       </c>
       <c r="C422" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D422" t="inlineStr">
@@ -44494,7 +44019,7 @@
       </c>
       <c r="C423" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D423" t="inlineStr">
@@ -44591,7 +44116,7 @@
       </c>
       <c r="C424" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D424" t="inlineStr">
@@ -44728,7 +44253,7 @@
       </c>
       <c r="C425" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D425" t="inlineStr">
@@ -44815,7 +44340,7 @@
       </c>
       <c r="C426" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D426" t="inlineStr">
@@ -44872,7 +44397,7 @@
       </c>
       <c r="C427" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D427" t="inlineStr">
@@ -44989,7 +44514,7 @@
       </c>
       <c r="C428" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D428" t="inlineStr">
@@ -45096,7 +44621,7 @@
       </c>
       <c r="C429" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D429" t="inlineStr">
@@ -45243,7 +44768,7 @@
       </c>
       <c r="C430" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D430" t="inlineStr">
@@ -45380,7 +44905,7 @@
       </c>
       <c r="C431" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D431" t="inlineStr">
@@ -45517,7 +45042,7 @@
       </c>
       <c r="C432" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D432" t="inlineStr">
@@ -45634,7 +45159,7 @@
       </c>
       <c r="C433" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D433" t="inlineStr">
@@ -45691,7 +45216,7 @@
       </c>
       <c r="C434" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D434" t="inlineStr">
@@ -45838,7 +45363,7 @@
       </c>
       <c r="C435" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D435" t="inlineStr">
@@ -45955,7 +45480,7 @@
       </c>
       <c r="C436" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D436" t="inlineStr">
@@ -46082,7 +45607,7 @@
       </c>
       <c r="C437" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D437" t="inlineStr">
@@ -46129,7 +45654,7 @@
       </c>
       <c r="C438" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D438" t="inlineStr">
@@ -46256,7 +45781,7 @@
       </c>
       <c r="C439" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D439" t="inlineStr">
@@ -46373,7 +45898,7 @@
       </c>
       <c r="C440" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D440" t="inlineStr">
@@ -46490,7 +46015,7 @@
       </c>
       <c r="C441" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D441" t="inlineStr">
@@ -46607,7 +46132,7 @@
       </c>
       <c r="C442" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D442" t="inlineStr">
@@ -46734,7 +46259,7 @@
       </c>
       <c r="C443" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D443" t="inlineStr">
@@ -46851,7 +46376,7 @@
       </c>
       <c r="C444" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D444" t="inlineStr">
@@ -46988,7 +46513,7 @@
       </c>
       <c r="C445" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D445" t="inlineStr">
@@ -47125,7 +46650,7 @@
       </c>
       <c r="C446" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D446" t="inlineStr">
@@ -47252,7 +46777,7 @@
       </c>
       <c r="C447" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D447" t="inlineStr">
@@ -47369,7 +46894,7 @@
       </c>
       <c r="C448" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D448" t="inlineStr">
@@ -47396,7 +46921,7 @@
       </c>
       <c r="C449" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D449" t="inlineStr">
@@ -47543,7 +47068,7 @@
       </c>
       <c r="C450" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D450" t="inlineStr">
@@ -47620,7 +47145,7 @@
       </c>
       <c r="C451" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D451" t="inlineStr">
@@ -47737,7 +47262,7 @@
       </c>
       <c r="C452" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D452" t="inlineStr">
@@ -47894,7 +47419,7 @@
       </c>
       <c r="C453" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D453" t="inlineStr">
@@ -47981,7 +47506,7 @@
       </c>
       <c r="C454" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D454" t="inlineStr">
@@ -48098,7 +47623,7 @@
       </c>
       <c r="C455" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D455" t="inlineStr">
@@ -48235,7 +47760,7 @@
       </c>
       <c r="C456" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D456" t="inlineStr">
@@ -48362,7 +47887,7 @@
       </c>
       <c r="C457" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D457" t="inlineStr">
@@ -48499,7 +48024,7 @@
       </c>
       <c r="C458" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D458" t="inlineStr">
@@ -48556,7 +48081,7 @@
       </c>
       <c r="C459" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D459" t="inlineStr">
@@ -48693,7 +48218,7 @@
       </c>
       <c r="C460" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D460" t="inlineStr">
@@ -48830,7 +48355,7 @@
       </c>
       <c r="C461" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D461" t="inlineStr">
@@ -48967,7 +48492,7 @@
       </c>
       <c r="C462" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D462" t="inlineStr">
@@ -49104,7 +48629,7 @@
       </c>
       <c r="C463" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D463" t="inlineStr">
@@ -49231,7 +48756,7 @@
       </c>
       <c r="C464" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D464" t="inlineStr">
@@ -49358,7 +48883,7 @@
       </c>
       <c r="C465" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D465" t="inlineStr">
@@ -49415,7 +48940,7 @@
       </c>
       <c r="C466" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D466" t="inlineStr">
@@ -49552,7 +49077,7 @@
       </c>
       <c r="C467" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D467" t="inlineStr">
@@ -49689,7 +49214,7 @@
       </c>
       <c r="C468" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D468" t="inlineStr">
@@ -49826,7 +49351,7 @@
       </c>
       <c r="C469" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D469" t="inlineStr">
@@ -49973,7 +49498,7 @@
       </c>
       <c r="C470" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D470" t="inlineStr">
@@ -50110,7 +49635,7 @@
       </c>
       <c r="C471" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D471" t="inlineStr">
@@ -50237,7 +49762,7 @@
       </c>
       <c r="C472" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D472" t="inlineStr">
@@ -50384,7 +49909,7 @@
       </c>
       <c r="C473" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D473" t="inlineStr">
@@ -50481,7 +50006,7 @@
       </c>
       <c r="C474" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D474" t="inlineStr">
@@ -50608,7 +50133,7 @@
       </c>
       <c r="C475" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D475" t="inlineStr">
@@ -50735,7 +50260,7 @@
       </c>
       <c r="C476" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D476" t="inlineStr">
@@ -50882,7 +50407,7 @@
       </c>
       <c r="C477" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D477" t="inlineStr">
@@ -51009,7 +50534,7 @@
       </c>
       <c r="C478" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D478" t="inlineStr">
@@ -51126,7 +50651,7 @@
       </c>
       <c r="C479" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D479" t="inlineStr">
@@ -51183,7 +50708,7 @@
       </c>
       <c r="C480" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D480" t="inlineStr">
@@ -51320,7 +50845,7 @@
       </c>
       <c r="C481" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D481" t="inlineStr">
@@ -51407,7 +50932,7 @@
       </c>
       <c r="C482" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D482" t="inlineStr">
@@ -51564,7 +51089,7 @@
       </c>
       <c r="C483" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D483" t="inlineStr">
@@ -51606,7 +51131,7 @@
       </c>
       <c r="C484" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D484" t="inlineStr">
@@ -51663,7 +51188,7 @@
       </c>
       <c r="C485" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D485" t="inlineStr">
@@ -51810,7 +51335,7 @@
       </c>
       <c r="C486" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D486" t="inlineStr">
@@ -51947,7 +51472,7 @@
       </c>
       <c r="C487" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D487" t="inlineStr">
@@ -52034,7 +51559,7 @@
       </c>
       <c r="C488" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D488" t="inlineStr">
@@ -52141,7 +51666,7 @@
       </c>
       <c r="C489" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D489" t="inlineStr">
@@ -52188,7 +51713,7 @@
       </c>
       <c r="C490" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D490" t="inlineStr">
@@ -52275,7 +51800,7 @@
       </c>
       <c r="C491" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D491" t="inlineStr">
@@ -52332,7 +51857,7 @@
       </c>
       <c r="C492" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D492" t="inlineStr">
@@ -52489,7 +52014,7 @@
       </c>
       <c r="C493" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D493" t="inlineStr">
@@ -52641,12 +52166,12 @@
       </c>
       <c r="L494" t="inlineStr">
         <is>
-          <t>Incorrect species</t>
+          <t>Correct species</t>
         </is>
       </c>
       <c r="M494" t="inlineStr">
         <is>
-          <t>Gymnothorax nudivomer</t>
+          <t>Phyllopteryx taeniolatus</t>
         </is>
       </c>
       <c r="P494" t="inlineStr">
@@ -52768,12 +52293,12 @@
       </c>
       <c r="L495" t="inlineStr">
         <is>
-          <t>Incorrect species</t>
+          <t>Correct species</t>
         </is>
       </c>
       <c r="M495" t="inlineStr">
         <is>
-          <t>Gymnothorax nudivomer</t>
+          <t>Carcharhinus falciformis</t>
         </is>
       </c>
       <c r="P495" t="inlineStr">
@@ -52895,12 +52420,12 @@
       </c>
       <c r="L496" t="inlineStr">
         <is>
-          <t>Incorrect species</t>
+          <t>Correct species</t>
         </is>
       </c>
       <c r="M496" t="inlineStr">
         <is>
-          <t>Gymnothorax nudivomer</t>
+          <t>Isurus oxyrinchus</t>
         </is>
       </c>
       <c r="P496" t="inlineStr">
@@ -53127,16 +52652,6 @@
           <t>Carcharhinus galapagensis</t>
         </is>
       </c>
-      <c r="L498" t="inlineStr">
-        <is>
-          <t>Incorrect species</t>
-        </is>
-      </c>
-      <c r="M498" t="inlineStr">
-        <is>
-          <t>Gymnothorax nudivomer</t>
-        </is>
-      </c>
       <c r="AD498" t="inlineStr">
         <is>
           <t>Incorrect species</t>
@@ -53206,12 +52721,12 @@
       </c>
       <c r="L499" t="inlineStr">
         <is>
-          <t>Incorrect species</t>
+          <t>Correct species</t>
         </is>
       </c>
       <c r="M499" t="inlineStr">
         <is>
-          <t>Gymnothorax nudivomer</t>
+          <t>Pseudocaranx dentex</t>
         </is>
       </c>
       <c r="N499" t="inlineStr">
@@ -53353,12 +52868,12 @@
       </c>
       <c r="L500" t="inlineStr">
         <is>
-          <t>Incorrect species</t>
+          <t>Correct species</t>
         </is>
       </c>
       <c r="M500" t="inlineStr">
         <is>
-          <t>Gymnothorax nudivomer</t>
+          <t>Carcharhinus brachyurus</t>
         </is>
       </c>
       <c r="V500" t="inlineStr">
@@ -53460,12 +52975,12 @@
       </c>
       <c r="L501" t="inlineStr">
         <is>
-          <t>Incorrect species</t>
+          <t>Correct species</t>
         </is>
       </c>
       <c r="M501" t="inlineStr">
         <is>
-          <t>Gymnothorax nudivomer</t>
+          <t>Parupeneus chrysopleuron</t>
         </is>
       </c>
       <c r="P501" t="inlineStr">
@@ -53607,12 +53122,12 @@
       </c>
       <c r="L502" t="inlineStr">
         <is>
-          <t>Incorrect species</t>
+          <t>Correct species</t>
         </is>
       </c>
       <c r="M502" t="inlineStr">
         <is>
-          <t>Gymnothorax nudivomer</t>
+          <t>Sphyrna lewini</t>
         </is>
       </c>
       <c r="P502" t="inlineStr">
@@ -53739,7 +53254,7 @@
       </c>
       <c r="M503" t="inlineStr">
         <is>
-          <t>Gymnothorax nudivomer</t>
+          <t>Parupeneus heptacanthus</t>
         </is>
       </c>
       <c r="P503" t="inlineStr">
@@ -53861,12 +53376,12 @@
       </c>
       <c r="L504" t="inlineStr">
         <is>
-          <t>Incorrect species</t>
+          <t>Correct species</t>
         </is>
       </c>
       <c r="M504" t="inlineStr">
         <is>
-          <t>Gymnothorax nudivomer</t>
+          <t>Chaetodon auriga</t>
         </is>
       </c>
       <c r="P504" t="inlineStr">
@@ -53978,12 +53493,12 @@
       </c>
       <c r="L505" t="inlineStr">
         <is>
-          <t>Incorrect species</t>
+          <t>Correct species</t>
         </is>
       </c>
       <c r="M505" t="inlineStr">
         <is>
-          <t>Gymnothorax nudivomer</t>
+          <t>Dascyllus trimaculatus</t>
         </is>
       </c>
       <c r="P505" t="inlineStr">
@@ -54093,16 +53608,6 @@
           <t>Gymnothorax meleagris</t>
         </is>
       </c>
-      <c r="L506" t="inlineStr">
-        <is>
-          <t>Incorrect species</t>
-        </is>
-      </c>
-      <c r="M506" t="inlineStr">
-        <is>
-          <t>Gymnothorax nudivomer</t>
-        </is>
-      </c>
     </row>
     <row r="507">
       <c r="A507" t="inlineStr">
@@ -54162,12 +53667,12 @@
       </c>
       <c r="L507" t="inlineStr">
         <is>
-          <t>Incorrect species</t>
+          <t>Correct species</t>
         </is>
       </c>
       <c r="M507" t="inlineStr">
         <is>
-          <t>Gymnothorax nudivomer</t>
+          <t>Acanthocybium solandri</t>
         </is>
       </c>
       <c r="P507" t="inlineStr">
@@ -54336,12 +53841,12 @@
       </c>
       <c r="L509" t="inlineStr">
         <is>
-          <t>Incorrect species</t>
+          <t>Correct species</t>
         </is>
       </c>
       <c r="M509" t="inlineStr">
         <is>
-          <t>Gymnothorax nudivomer</t>
+          <t>Upeneus tragula</t>
         </is>
       </c>
       <c r="P509" t="inlineStr">
@@ -54463,12 +53968,12 @@
       </c>
       <c r="L510" t="inlineStr">
         <is>
-          <t>Incorrect species</t>
+          <t>Correct species</t>
         </is>
       </c>
       <c r="M510" t="inlineStr">
         <is>
-          <t>Gymnothorax nudivomer</t>
+          <t>Hemigymnus melapterus</t>
         </is>
       </c>
       <c r="N510" t="inlineStr">
@@ -54600,12 +54105,12 @@
       </c>
       <c r="L511" t="inlineStr">
         <is>
-          <t>Incorrect species</t>
+          <t>Correct species</t>
         </is>
       </c>
       <c r="M511" t="inlineStr">
         <is>
-          <t>Gymnothorax nudivomer</t>
+          <t>Chaetodon speculum</t>
         </is>
       </c>
       <c r="N511" t="inlineStr">
@@ -54735,16 +54240,6 @@
           <t>Sardinops sagax</t>
         </is>
       </c>
-      <c r="L512" t="inlineStr">
-        <is>
-          <t>Incorrect species</t>
-        </is>
-      </c>
-      <c r="M512" t="inlineStr">
-        <is>
-          <t>Gymnothorax nudivomer</t>
-        </is>
-      </c>
       <c r="N512" t="inlineStr">
         <is>
           <t>Incorrect species</t>
@@ -54834,12 +54329,12 @@
       </c>
       <c r="L513" t="inlineStr">
         <is>
-          <t>Incorrect species</t>
+          <t>Correct species</t>
         </is>
       </c>
       <c r="M513" t="inlineStr">
         <is>
-          <t>Gymnothorax nudivomer</t>
+          <t>Bathytoshia brevicaudata</t>
         </is>
       </c>
       <c r="N513" t="inlineStr">
@@ -54969,16 +54464,6 @@
           <t>Pterois lunulata</t>
         </is>
       </c>
-      <c r="L514" t="inlineStr">
-        <is>
-          <t>Incorrect species</t>
-        </is>
-      </c>
-      <c r="M514" t="inlineStr">
-        <is>
-          <t>Gymnothorax nudivomer</t>
-        </is>
-      </c>
       <c r="AB514" t="inlineStr">
         <is>
           <t>Incorrect species</t>
@@ -55155,12 +54640,12 @@
       </c>
       <c r="L516" t="inlineStr">
         <is>
-          <t>Incorrect species</t>
+          <t>Correct species</t>
         </is>
       </c>
       <c r="M516" t="inlineStr">
         <is>
-          <t>Gymnothorax nudivomer</t>
+          <t>Galeocerdo cuvier</t>
         </is>
       </c>
       <c r="N516" t="inlineStr">
@@ -55312,12 +54797,12 @@
       </c>
       <c r="L517" t="inlineStr">
         <is>
-          <t>Incorrect species</t>
+          <t>Correct species</t>
         </is>
       </c>
       <c r="M517" t="inlineStr">
         <is>
-          <t>Gymnothorax nudivomer</t>
+          <t>Lagocephalus sceleratus</t>
         </is>
       </c>
       <c r="N517" t="inlineStr">
@@ -55447,16 +54932,6 @@
           <t>Arothron hispidus</t>
         </is>
       </c>
-      <c r="L518" t="inlineStr">
-        <is>
-          <t>Incorrect species</t>
-        </is>
-      </c>
-      <c r="M518" t="inlineStr">
-        <is>
-          <t>Gymnothorax nudivomer</t>
-        </is>
-      </c>
       <c r="AB518" t="inlineStr">
         <is>
           <t>Correct species</t>
@@ -55611,16 +55086,6 @@
           <t>Istiophorus albicans</t>
         </is>
       </c>
-      <c r="L520" t="inlineStr">
-        <is>
-          <t>Incorrect species</t>
-        </is>
-      </c>
-      <c r="M520" t="inlineStr">
-        <is>
-          <t>Gymnothorax nudivomer</t>
-        </is>
-      </c>
       <c r="AB520" t="inlineStr">
         <is>
           <t>Incorrect species</t>
@@ -55700,12 +55165,12 @@
       </c>
       <c r="L521" t="inlineStr">
         <is>
-          <t>Incorrect species</t>
+          <t>Correct species</t>
         </is>
       </c>
       <c r="M521" t="inlineStr">
         <is>
-          <t>Gymnothorax nudivomer</t>
+          <t>Ablennes hians</t>
         </is>
       </c>
       <c r="N521" t="inlineStr">
@@ -55867,12 +55332,12 @@
       </c>
       <c r="L522" t="inlineStr">
         <is>
-          <t>Incorrect species</t>
+          <t>Correct species</t>
         </is>
       </c>
       <c r="M522" t="inlineStr">
         <is>
-          <t>Gymnothorax nudivomer</t>
+          <t>Solenostomus cyanopterus</t>
         </is>
       </c>
       <c r="N522" t="inlineStr">
@@ -56012,16 +55477,6 @@
           <t>Abudefduf sexfasciatus</t>
         </is>
       </c>
-      <c r="L523" t="inlineStr">
-        <is>
-          <t>Incorrect species</t>
-        </is>
-      </c>
-      <c r="M523" t="inlineStr">
-        <is>
-          <t>Gymnothorax nudivomer</t>
-        </is>
-      </c>
       <c r="AF523" t="inlineStr">
         <is>
           <t>Incorrect species</t>
@@ -56091,12 +55546,12 @@
       </c>
       <c r="L524" t="inlineStr">
         <is>
-          <t>Incorrect species</t>
+          <t>Correct species</t>
         </is>
       </c>
       <c r="M524" t="inlineStr">
         <is>
-          <t>Gymnothorax nudivomer</t>
+          <t>Mugil cephalus</t>
         </is>
       </c>
       <c r="N524" t="inlineStr">
@@ -56258,12 +55713,12 @@
       </c>
       <c r="L525" t="inlineStr">
         <is>
-          <t>Incorrect species</t>
+          <t>Correct species</t>
         </is>
       </c>
       <c r="M525" t="inlineStr">
         <is>
-          <t>Gymnothorax nudivomer</t>
+          <t>Abudefduf bengalensis</t>
         </is>
       </c>
       <c r="V525" t="inlineStr">
@@ -56385,12 +55840,12 @@
       </c>
       <c r="L526" t="inlineStr">
         <is>
-          <t>Incorrect species</t>
+          <t>Correct species</t>
         </is>
       </c>
       <c r="M526" t="inlineStr">
         <is>
-          <t>Gymnothorax nudivomer</t>
+          <t>Acanthurus triostegus</t>
         </is>
       </c>
       <c r="P526" t="inlineStr">
@@ -56517,7 +55972,7 @@
       </c>
       <c r="M527" t="inlineStr">
         <is>
-          <t>Gymnothorax nudivomer</t>
+          <t>Seriola aureovittata</t>
         </is>
       </c>
       <c r="V527" t="inlineStr">
@@ -56721,11 +56176,6 @@
           <t>Halichoeres nigrescens</t>
         </is>
       </c>
-      <c r="M530" t="inlineStr">
-        <is>
-          <t>Gymnothorax nudivomer</t>
-        </is>
-      </c>
       <c r="O530" t="inlineStr">
         <is>
           <t>Pterygotrigla ryukyuensis</t>
@@ -56805,12 +56255,12 @@
       </c>
       <c r="L531" t="inlineStr">
         <is>
-          <t>Incorrect species</t>
+          <t>Correct species</t>
         </is>
       </c>
       <c r="M531" t="inlineStr">
         <is>
-          <t>Gymnothorax nudivomer</t>
+          <t>Seriola dumerili</t>
         </is>
       </c>
       <c r="V531" t="inlineStr">
@@ -57049,12 +56499,12 @@
       </c>
       <c r="L533" t="inlineStr">
         <is>
-          <t>Incorrect species</t>
+          <t>Correct species</t>
         </is>
       </c>
       <c r="M533" t="inlineStr">
         <is>
-          <t>Gymnothorax nudivomer</t>
+          <t>Psammoperca waigiensis</t>
         </is>
       </c>
       <c r="P533" t="inlineStr">
@@ -57174,16 +56624,6 @@
           <t>Chelidonichthys kumu</t>
         </is>
       </c>
-      <c r="L534" t="inlineStr">
-        <is>
-          <t>Incorrect species</t>
-        </is>
-      </c>
-      <c r="M534" t="inlineStr">
-        <is>
-          <t>Gymnothorax nudivomer</t>
-        </is>
-      </c>
       <c r="AB534" t="inlineStr">
         <is>
           <t>Incorrect species</t>
@@ -57253,12 +56693,12 @@
       </c>
       <c r="L535" t="inlineStr">
         <is>
-          <t>Incorrect species</t>
+          <t>Correct species</t>
         </is>
       </c>
       <c r="M535" t="inlineStr">
         <is>
-          <t>Gymnothorax nudivomer</t>
+          <t>Lophonectes gallus</t>
         </is>
       </c>
       <c r="N535" t="inlineStr">
@@ -57410,12 +56850,12 @@
       </c>
       <c r="L536" t="inlineStr">
         <is>
-          <t>Incorrect species</t>
+          <t>Correct species</t>
         </is>
       </c>
       <c r="M536" t="inlineStr">
         <is>
-          <t>Gymnothorax nudivomer</t>
+          <t>Lethrinus laticaudis</t>
         </is>
       </c>
       <c r="N536" t="inlineStr">
@@ -57577,12 +57017,12 @@
       </c>
       <c r="L537" t="inlineStr">
         <is>
-          <t>Incorrect species</t>
+          <t>Correct species</t>
         </is>
       </c>
       <c r="M537" t="inlineStr">
         <is>
-          <t>Gymnothorax nudivomer</t>
+          <t>Ginglymostoma cirratum</t>
         </is>
       </c>
       <c r="N537" t="inlineStr">
@@ -57712,16 +57152,6 @@
           <t>Plotosus lineatus</t>
         </is>
       </c>
-      <c r="L538" t="inlineStr">
-        <is>
-          <t>Incorrect species</t>
-        </is>
-      </c>
-      <c r="M538" t="inlineStr">
-        <is>
-          <t>Gymnothorax nudivomer</t>
-        </is>
-      </c>
       <c r="N538" t="inlineStr">
         <is>
           <t>Incorrect species</t>
@@ -57801,12 +57231,12 @@
       </c>
       <c r="L539" t="inlineStr">
         <is>
-          <t>Incorrect species</t>
+          <t>Correct species</t>
         </is>
       </c>
       <c r="M539" t="inlineStr">
         <is>
-          <t>Gymnothorax nudivomer</t>
+          <t>Caesio cuning</t>
         </is>
       </c>
       <c r="P539" t="inlineStr">
@@ -57918,12 +57348,12 @@
       </c>
       <c r="L540" t="inlineStr">
         <is>
-          <t>Incorrect species</t>
+          <t>Correct species</t>
         </is>
       </c>
       <c r="M540" t="inlineStr">
         <is>
-          <t>Gymnothorax nudivomer</t>
+          <t>Ecsenius bicolor</t>
         </is>
       </c>
       <c r="N540" t="inlineStr">
@@ -58182,12 +57612,12 @@
       </c>
       <c r="L542" t="inlineStr">
         <is>
-          <t>Incorrect species</t>
+          <t>Correct species</t>
         </is>
       </c>
       <c r="M542" t="inlineStr">
         <is>
-          <t>Gymnothorax nudivomer</t>
+          <t>Diploprion bifasciatum</t>
         </is>
       </c>
       <c r="P542" t="inlineStr">
@@ -58317,16 +57747,6 @@
           <t>Pempheris xanthoptera</t>
         </is>
       </c>
-      <c r="L543" t="inlineStr">
-        <is>
-          <t>Incorrect species</t>
-        </is>
-      </c>
-      <c r="M543" t="inlineStr">
-        <is>
-          <t>Gymnothorax nudivomer</t>
-        </is>
-      </c>
       <c r="AB543" t="inlineStr">
         <is>
           <t>Incorrect species</t>
@@ -58416,12 +57836,12 @@
       </c>
       <c r="L544" t="inlineStr">
         <is>
-          <t>Incorrect species</t>
+          <t>Correct species</t>
         </is>
       </c>
       <c r="M544" t="inlineStr">
         <is>
-          <t>Gymnothorax nudivomer</t>
+          <t>Rhabdosargus sarba</t>
         </is>
       </c>
       <c r="N544" t="inlineStr">
@@ -58561,16 +57981,6 @@
           <t>Carcharhinus plumbeus</t>
         </is>
       </c>
-      <c r="L545" t="inlineStr">
-        <is>
-          <t>Incorrect species</t>
-        </is>
-      </c>
-      <c r="M545" t="inlineStr">
-        <is>
-          <t>Gymnothorax nudivomer</t>
-        </is>
-      </c>
     </row>
     <row r="546">
       <c r="A546" t="inlineStr">
@@ -58687,12 +58097,12 @@
       </c>
       <c r="L547" t="inlineStr">
         <is>
-          <t>Incorrect species</t>
+          <t>Correct species</t>
         </is>
       </c>
       <c r="M547" t="inlineStr">
         <is>
-          <t>Gymnothorax nudivomer</t>
+          <t>Caranx ignobilis</t>
         </is>
       </c>
       <c r="P547" t="inlineStr">
@@ -58824,12 +58234,12 @@
       </c>
       <c r="L548" t="inlineStr">
         <is>
-          <t>Incorrect species</t>
+          <t>Correct species</t>
         </is>
       </c>
       <c r="M548" t="inlineStr">
         <is>
-          <t>Gymnothorax nudivomer</t>
+          <t>Sphyrna lewini</t>
         </is>
       </c>
       <c r="P548" t="inlineStr">
@@ -58949,16 +58359,6 @@
           <t>Echeneis neucratoides</t>
         </is>
       </c>
-      <c r="L549" t="inlineStr">
-        <is>
-          <t>Incorrect species</t>
-        </is>
-      </c>
-      <c r="M549" t="inlineStr">
-        <is>
-          <t>Gymnothorax nudivomer</t>
-        </is>
-      </c>
       <c r="N549" t="inlineStr">
         <is>
           <t>Incorrect species</t>
@@ -59048,12 +58448,12 @@
       </c>
       <c r="L550" t="inlineStr">
         <is>
-          <t>Incorrect species</t>
+          <t>Correct species</t>
         </is>
       </c>
       <c r="M550" t="inlineStr">
         <is>
-          <t>Gymnothorax nudivomer</t>
+          <t>Pomatomus saltatrix</t>
         </is>
       </c>
       <c r="N550" t="inlineStr">
@@ -59205,12 +58605,12 @@
       </c>
       <c r="L551" t="inlineStr">
         <is>
-          <t>Incorrect species</t>
+          <t>Correct species</t>
         </is>
       </c>
       <c r="M551" t="inlineStr">
         <is>
-          <t>Gymnothorax nudivomer</t>
+          <t>Carcharodon carcharias</t>
         </is>
       </c>
       <c r="N551" t="inlineStr">
@@ -59362,12 +58762,12 @@
       </c>
       <c r="L552" t="inlineStr">
         <is>
-          <t>Incorrect species</t>
+          <t>Correct species</t>
         </is>
       </c>
       <c r="M552" t="inlineStr">
         <is>
-          <t>Gymnothorax nudivomer</t>
+          <t>Seriola lalandi</t>
         </is>
       </c>
       <c r="P552" t="inlineStr">
@@ -59469,12 +58869,12 @@
       </c>
       <c r="L553" t="inlineStr">
         <is>
-          <t>Incorrect species</t>
+          <t>Correct species</t>
         </is>
       </c>
       <c r="M553" t="inlineStr">
         <is>
-          <t>Gymnothorax nudivomer</t>
+          <t>Pristipomoides multidens</t>
         </is>
       </c>
       <c r="P553" t="inlineStr">
@@ -59606,12 +59006,12 @@
       </c>
       <c r="L554" t="inlineStr">
         <is>
-          <t>Incorrect species</t>
+          <t>Correct species</t>
         </is>
       </c>
       <c r="M554" t="inlineStr">
         <is>
-          <t>Gymnothorax nudivomer</t>
+          <t>Plectropomus areolatus</t>
         </is>
       </c>
       <c r="P554" t="inlineStr">
@@ -59763,12 +59163,12 @@
       </c>
       <c r="L555" t="inlineStr">
         <is>
-          <t>Incorrect species</t>
+          <t>Correct species</t>
         </is>
       </c>
       <c r="M555" t="inlineStr">
         <is>
-          <t>Gymnothorax nudivomer</t>
+          <t>Aldrichetta forsteri</t>
         </is>
       </c>
       <c r="P555" t="inlineStr">
@@ -59957,12 +59357,12 @@
       </c>
       <c r="L557" t="inlineStr">
         <is>
-          <t>Incorrect species</t>
+          <t>Correct species</t>
         </is>
       </c>
       <c r="M557" t="inlineStr">
         <is>
-          <t>Gymnothorax nudivomer</t>
+          <t>Torquigener pleurogramma</t>
         </is>
       </c>
       <c r="P557" t="inlineStr">
@@ -60226,16 +59626,6 @@
           <t>Scomber colias</t>
         </is>
       </c>
-      <c r="L560" t="inlineStr">
-        <is>
-          <t>Incorrect species</t>
-        </is>
-      </c>
-      <c r="M560" t="inlineStr">
-        <is>
-          <t>Gymnothorax nudivomer</t>
-        </is>
-      </c>
       <c r="AB560" t="inlineStr">
         <is>
           <t>Incorrect species</t>
@@ -60325,12 +59715,12 @@
       </c>
       <c r="L561" t="inlineStr">
         <is>
-          <t>Incorrect species</t>
+          <t>Correct species</t>
         </is>
       </c>
       <c r="M561" t="inlineStr">
         <is>
-          <t>Gymnothorax nudivomer</t>
+          <t>Microcanthus strigatus</t>
         </is>
       </c>
       <c r="N561" t="inlineStr">
@@ -60616,12 +60006,12 @@
       </c>
       <c r="L564" t="inlineStr">
         <is>
-          <t>Incorrect species</t>
+          <t>Correct species</t>
         </is>
       </c>
       <c r="M564" t="inlineStr">
         <is>
-          <t>Gymnothorax nudivomer</t>
+          <t>Chaetodermis penicilligerus</t>
         </is>
       </c>
       <c r="P564" t="inlineStr">
@@ -60927,12 +60317,12 @@
       </c>
       <c r="L567" t="inlineStr">
         <is>
-          <t>Incorrect species</t>
+          <t>Correct species</t>
         </is>
       </c>
       <c r="M567" t="inlineStr">
         <is>
-          <t>Gymnothorax nudivomer</t>
+          <t>Scarus schlegeli</t>
         </is>
       </c>
       <c r="P567" t="inlineStr">
@@ -61161,12 +60551,12 @@
       </c>
       <c r="L569" t="inlineStr">
         <is>
-          <t>Incorrect species</t>
+          <t>Correct species</t>
         </is>
       </c>
       <c r="M569" t="inlineStr">
         <is>
-          <t>Gymnothorax nudivomer</t>
+          <t>Monacanthus chinensis</t>
         </is>
       </c>
       <c r="P569" t="inlineStr">
@@ -61308,12 +60698,12 @@
       </c>
       <c r="L570" t="inlineStr">
         <is>
-          <t>Incorrect species</t>
+          <t>Correct species</t>
         </is>
       </c>
       <c r="M570" t="inlineStr">
         <is>
-          <t>Gymnothorax nudivomer</t>
+          <t>Nelusetta ayraudi</t>
         </is>
       </c>
       <c r="P570" t="inlineStr">
@@ -61445,12 +60835,12 @@
       </c>
       <c r="L571" t="inlineStr">
         <is>
-          <t>Incorrect species</t>
+          <t>Correct species</t>
         </is>
       </c>
       <c r="M571" t="inlineStr">
         <is>
-          <t>Gymnothorax nudivomer</t>
+          <t>Scarus ghobban</t>
         </is>
       </c>
       <c r="P571" t="inlineStr">
@@ -61637,16 +61027,6 @@
           <t>Epinephelus malabaricus</t>
         </is>
       </c>
-      <c r="L573" t="inlineStr">
-        <is>
-          <t>Incorrect species</t>
-        </is>
-      </c>
-      <c r="M573" t="inlineStr">
-        <is>
-          <t>Gymnothorax nudivomer</t>
-        </is>
-      </c>
       <c r="N573" t="inlineStr">
         <is>
           <t>Incorrect species</t>
@@ -61726,12 +61106,12 @@
       </c>
       <c r="L574" t="inlineStr">
         <is>
-          <t>Incorrect species</t>
+          <t>Correct species</t>
         </is>
       </c>
       <c r="M574" t="inlineStr">
         <is>
-          <t>Gymnothorax nudivomer</t>
+          <t>Zeus faber</t>
         </is>
       </c>
       <c r="P574" t="inlineStr">
@@ -61883,12 +61263,12 @@
       </c>
       <c r="L575" t="inlineStr">
         <is>
-          <t>Incorrect species</t>
+          <t>Correct species</t>
         </is>
       </c>
       <c r="M575" t="inlineStr">
         <is>
-          <t>Gymnothorax nudivomer</t>
+          <t>Fistularia commersonii</t>
         </is>
       </c>
       <c r="P575" t="inlineStr">
@@ -61998,16 +61378,6 @@
           <t>Macroramphosus gracilis</t>
         </is>
       </c>
-      <c r="L576" t="inlineStr">
-        <is>
-          <t>Incorrect species</t>
-        </is>
-      </c>
-      <c r="M576" t="inlineStr">
-        <is>
-          <t>Gymnothorax nudivomer</t>
-        </is>
-      </c>
       <c r="N576" t="inlineStr">
         <is>
           <t>Incorrect species</t>
@@ -62107,12 +61477,12 @@
       </c>
       <c r="L577" t="inlineStr">
         <is>
-          <t>Incorrect species</t>
+          <t>Correct species</t>
         </is>
       </c>
       <c r="M577" t="inlineStr">
         <is>
-          <t>Gymnothorax nudivomer</t>
+          <t>Zanclus cornutus</t>
         </is>
       </c>
       <c r="N577" t="inlineStr">
@@ -62264,12 +61634,12 @@
       </c>
       <c r="L578" t="inlineStr">
         <is>
-          <t>Incorrect species</t>
+          <t>Correct species</t>
         </is>
       </c>
       <c r="M578" t="inlineStr">
         <is>
-          <t>Gymnothorax nudivomer</t>
+          <t>Spratelloides delicatulus</t>
         </is>
       </c>
       <c r="N578" t="inlineStr">
@@ -62409,16 +61779,6 @@
           <t>Siganus fuscescens</t>
         </is>
       </c>
-      <c r="L579" t="inlineStr">
-        <is>
-          <t>Incorrect species</t>
-        </is>
-      </c>
-      <c r="M579" t="inlineStr">
-        <is>
-          <t>Gymnothorax nudivomer</t>
-        </is>
-      </c>
       <c r="N579" t="inlineStr">
         <is>
           <t>Incorrect species</t>
@@ -62595,12 +61955,12 @@
       </c>
       <c r="L581" t="inlineStr">
         <is>
-          <t>Incorrect species</t>
+          <t>Correct species</t>
         </is>
       </c>
       <c r="M581" t="inlineStr">
         <is>
-          <t>Gymnothorax nudivomer</t>
+          <t>Chlorurus sordidus</t>
         </is>
       </c>
       <c r="P581" t="inlineStr">
@@ -62722,12 +62082,12 @@
       </c>
       <c r="L582" t="inlineStr">
         <is>
-          <t>Incorrect species</t>
+          <t>Correct species</t>
         </is>
       </c>
       <c r="M582" t="inlineStr">
         <is>
-          <t>Gymnothorax nudivomer</t>
+          <t>Petroscirtes breviceps</t>
         </is>
       </c>
       <c r="P582" t="inlineStr">
@@ -62857,16 +62217,6 @@
           <t>Saurida macrolepis</t>
         </is>
       </c>
-      <c r="L583" t="inlineStr">
-        <is>
-          <t>Incorrect species</t>
-        </is>
-      </c>
-      <c r="M583" t="inlineStr">
-        <is>
-          <t>Gymnothorax nudivomer</t>
-        </is>
-      </c>
       <c r="N583" t="inlineStr">
         <is>
           <t>Incorrect species</t>
@@ -62956,12 +62306,12 @@
       </c>
       <c r="L584" t="inlineStr">
         <is>
-          <t>Incorrect species</t>
+          <t>Correct species</t>
         </is>
       </c>
       <c r="M584" t="inlineStr">
         <is>
-          <t>Gymnothorax nudivomer</t>
+          <t>Acanthurus thompsoni</t>
         </is>
       </c>
       <c r="P584" t="inlineStr">
@@ -63071,16 +62421,6 @@
           <t>Gymnothorax reevesii</t>
         </is>
       </c>
-      <c r="L585" t="inlineStr">
-        <is>
-          <t>Incorrect species</t>
-        </is>
-      </c>
-      <c r="M585" t="inlineStr">
-        <is>
-          <t>Gymnothorax nudivomer</t>
-        </is>
-      </c>
       <c r="AD585" t="inlineStr">
         <is>
           <t>Incorrect species</t>
@@ -63155,7 +62495,7 @@
       </c>
       <c r="M586" t="inlineStr">
         <is>
-          <t>Gymnothorax nudivomer</t>
+          <t>Epinephelus awoara</t>
         </is>
       </c>
       <c r="N586" t="inlineStr">
@@ -63285,16 +62625,6 @@
           <t>Regalecus russelii</t>
         </is>
       </c>
-      <c r="L587" t="inlineStr">
-        <is>
-          <t>Incorrect species</t>
-        </is>
-      </c>
-      <c r="M587" t="inlineStr">
-        <is>
-          <t>Gymnothorax nudivomer</t>
-        </is>
-      </c>
       <c r="N587" t="inlineStr">
         <is>
           <t>Incorrect species</t>
@@ -63394,12 +62724,12 @@
       </c>
       <c r="L588" t="inlineStr">
         <is>
-          <t>Incorrect species</t>
+          <t>Correct species</t>
         </is>
       </c>
       <c r="M588" t="inlineStr">
         <is>
-          <t>Gymnothorax nudivomer</t>
+          <t>Metavelifer multiradiatus</t>
         </is>
       </c>
       <c r="N588" t="inlineStr">
@@ -63561,12 +62891,12 @@
       </c>
       <c r="L589" t="inlineStr">
         <is>
-          <t>Incorrect species</t>
+          <t>Correct species</t>
         </is>
       </c>
       <c r="M589" t="inlineStr">
         <is>
-          <t>Gymnothorax nudivomer</t>
+          <t>Desmodema polystictum</t>
         </is>
       </c>
       <c r="P589" t="inlineStr">
@@ -63718,12 +63048,12 @@
       </c>
       <c r="L590" t="inlineStr">
         <is>
-          <t>Incorrect species</t>
+          <t>Correct species</t>
         </is>
       </c>
       <c r="M590" t="inlineStr">
         <is>
-          <t>Gymnothorax nudivomer</t>
+          <t>Gymnothorax javanicus</t>
         </is>
       </c>
       <c r="N590" t="inlineStr">
@@ -64049,12 +63379,12 @@
       </c>
       <c r="L593" t="inlineStr">
         <is>
-          <t>Incorrect species</t>
+          <t>Correct species</t>
         </is>
       </c>
       <c r="M593" t="inlineStr">
         <is>
-          <t>Gymnothorax nudivomer</t>
+          <t>Auxis thazard</t>
         </is>
       </c>
       <c r="V593" t="inlineStr">
@@ -64146,12 +63476,12 @@
       </c>
       <c r="L594" t="inlineStr">
         <is>
-          <t>Incorrect species</t>
+          <t>Correct species</t>
         </is>
       </c>
       <c r="M594" t="inlineStr">
         <is>
-          <t>Gymnothorax nudivomer</t>
+          <t>Seriola dumerili</t>
         </is>
       </c>
       <c r="V594" t="inlineStr">
@@ -64330,12 +63660,12 @@
       </c>
       <c r="L596" t="inlineStr">
         <is>
-          <t>Incorrect species</t>
+          <t>Correct species</t>
         </is>
       </c>
       <c r="M596" t="inlineStr">
         <is>
-          <t>Gymnothorax nudivomer</t>
+          <t>Phyllopteryx taeniolatus</t>
         </is>
       </c>
       <c r="N596" t="inlineStr">
@@ -64497,12 +63827,12 @@
       </c>
       <c r="L597" t="inlineStr">
         <is>
-          <t>Incorrect species</t>
+          <t>Correct species</t>
         </is>
       </c>
       <c r="M597" t="inlineStr">
         <is>
-          <t>Gymnothorax nudivomer</t>
+          <t>Phycodurus eques</t>
         </is>
       </c>
       <c r="N597" t="inlineStr">
@@ -64664,12 +63994,12 @@
       </c>
       <c r="L598" t="inlineStr">
         <is>
-          <t>Incorrect species</t>
+          <t>Correct species</t>
         </is>
       </c>
       <c r="M598" t="inlineStr">
         <is>
-          <t>Gymnothorax nudivomer</t>
+          <t>Zeus faber</t>
         </is>
       </c>
       <c r="N598" t="inlineStr">
@@ -64821,12 +64151,12 @@
       </c>
       <c r="L599" t="inlineStr">
         <is>
-          <t>Incorrect species</t>
+          <t>Correct species</t>
         </is>
       </c>
       <c r="M599" t="inlineStr">
         <is>
-          <t>Gymnothorax nudivomer</t>
+          <t>Pterois volitans</t>
         </is>
       </c>
       <c r="P599" t="inlineStr">
@@ -65025,12 +64355,12 @@
       </c>
       <c r="L601" t="inlineStr">
         <is>
-          <t>Incorrect species</t>
+          <t>Correct species</t>
         </is>
       </c>
       <c r="M601" t="inlineStr">
         <is>
-          <t>Gymnothorax nudivomer</t>
+          <t>Nelusetta ayraudi</t>
         </is>
       </c>
       <c r="P601" t="inlineStr">
@@ -65267,16 +64597,6 @@
           <t>Abudefduf sexfasciatus</t>
         </is>
       </c>
-      <c r="L603" t="inlineStr">
-        <is>
-          <t>Incorrect species</t>
-        </is>
-      </c>
-      <c r="M603" t="inlineStr">
-        <is>
-          <t>Gymnothorax nudivomer</t>
-        </is>
-      </c>
       <c r="N603" t="inlineStr">
         <is>
           <t>Incorrect species</t>
@@ -65366,12 +64686,12 @@
       </c>
       <c r="L604" t="inlineStr">
         <is>
-          <t>Incorrect species</t>
+          <t>Correct species</t>
         </is>
       </c>
       <c r="M604" t="inlineStr">
         <is>
-          <t>Gymnothorax nudivomer</t>
+          <t>Isurus oxyrinchus</t>
         </is>
       </c>
       <c r="P604" t="inlineStr">
@@ -65491,16 +64811,6 @@
           <t>Seriola dumerili</t>
         </is>
       </c>
-      <c r="L605" t="inlineStr">
-        <is>
-          <t>Incorrect species</t>
-        </is>
-      </c>
-      <c r="M605" t="inlineStr">
-        <is>
-          <t>Gymnothorax nudivomer</t>
-        </is>
-      </c>
       <c r="AB605" t="inlineStr">
         <is>
           <t>Incorrect species</t>
@@ -65570,12 +64880,12 @@
       </c>
       <c r="L606" t="inlineStr">
         <is>
-          <t>Incorrect species</t>
+          <t>Correct species</t>
         </is>
       </c>
       <c r="M606" t="inlineStr">
         <is>
-          <t>Gymnothorax nudivomer</t>
+          <t>Sphyrna lewini</t>
         </is>
       </c>
       <c r="P606" t="inlineStr">
@@ -65697,12 +65007,12 @@
       </c>
       <c r="L607" t="inlineStr">
         <is>
-          <t>Incorrect species</t>
+          <t>Correct species</t>
         </is>
       </c>
       <c r="M607" t="inlineStr">
         <is>
-          <t>Gymnothorax nudivomer</t>
+          <t>Auxis thazard</t>
         </is>
       </c>
       <c r="P607" t="inlineStr">
@@ -65824,12 +65134,12 @@
       </c>
       <c r="L608" t="inlineStr">
         <is>
-          <t>Incorrect species</t>
+          <t>Correct species</t>
         </is>
       </c>
       <c r="M608" t="inlineStr">
         <is>
-          <t>Gymnothorax nudivomer</t>
+          <t>Zeus faber</t>
         </is>
       </c>
       <c r="N608" t="inlineStr">
@@ -66297,12 +65607,12 @@
       </c>
       <c r="L612" t="inlineStr">
         <is>
-          <t>Incorrect species</t>
+          <t>Correct species</t>
         </is>
       </c>
       <c r="M612" t="inlineStr">
         <is>
-          <t>Gymnothorax nudivomer</t>
+          <t>Pseudocaranx dentex</t>
         </is>
       </c>
       <c r="N612" t="inlineStr">
@@ -66454,12 +65764,12 @@
       </c>
       <c r="L613" t="inlineStr">
         <is>
-          <t>Incorrect species</t>
+          <t>Correct species</t>
         </is>
       </c>
       <c r="M613" t="inlineStr">
         <is>
-          <t>Gymnothorax nudivomer</t>
+          <t>Carcharhinus falciformis</t>
         </is>
       </c>
       <c r="P613" t="inlineStr">
@@ -66591,12 +65901,12 @@
       </c>
       <c r="L614" t="inlineStr">
         <is>
-          <t>Incorrect species</t>
+          <t>Correct species</t>
         </is>
       </c>
       <c r="M614" t="inlineStr">
         <is>
-          <t>Gymnothorax nudivomer</t>
+          <t>Gymnothorax pseudothyrsoideus</t>
         </is>
       </c>
       <c r="N614" t="inlineStr">
@@ -66758,12 +66068,12 @@
       </c>
       <c r="L615" t="inlineStr">
         <is>
-          <t>Incorrect species</t>
+          <t>Correct species</t>
         </is>
       </c>
       <c r="M615" t="inlineStr">
         <is>
-          <t>Gymnothorax nudivomer</t>
+          <t>Parupeneus chrysopleuron</t>
         </is>
       </c>
       <c r="N615" t="inlineStr">
@@ -66925,12 +66235,12 @@
       </c>
       <c r="L616" t="inlineStr">
         <is>
-          <t>Incorrect species</t>
+          <t>Correct species</t>
         </is>
       </c>
       <c r="M616" t="inlineStr">
         <is>
-          <t>Gymnothorax nudivomer</t>
+          <t>Acanthurus triostegus</t>
         </is>
       </c>
       <c r="P616" t="inlineStr">
@@ -67057,7 +66367,7 @@
       </c>
       <c r="M617" t="inlineStr">
         <is>
-          <t>Gymnothorax nudivomer</t>
+          <t>Parupeneus heptacanthus</t>
         </is>
       </c>
       <c r="N617" t="inlineStr">
@@ -67219,12 +66529,12 @@
       </c>
       <c r="L618" t="inlineStr">
         <is>
-          <t>Incorrect species</t>
+          <t>Correct species</t>
         </is>
       </c>
       <c r="M618" t="inlineStr">
         <is>
-          <t>Gymnothorax nudivomer</t>
+          <t>Chaetodon auriga</t>
         </is>
       </c>
       <c r="N618" t="inlineStr">
@@ -67376,12 +66686,12 @@
       </c>
       <c r="L619" t="inlineStr">
         <is>
-          <t>Incorrect species</t>
+          <t>Correct species</t>
         </is>
       </c>
       <c r="M619" t="inlineStr">
         <is>
-          <t>Gymnothorax nudivomer</t>
+          <t>Dascyllus trimaculatus</t>
         </is>
       </c>
       <c r="P619" t="inlineStr">
@@ -67503,12 +66813,12 @@
       </c>
       <c r="L620" t="inlineStr">
         <is>
-          <t>Incorrect species</t>
+          <t>Correct species</t>
         </is>
       </c>
       <c r="M620" t="inlineStr">
         <is>
-          <t>Gymnothorax nudivomer</t>
+          <t>Phyllopteryx taeniolatus</t>
         </is>
       </c>
       <c r="P620" t="inlineStr">
@@ -67660,12 +66970,12 @@
       </c>
       <c r="L621" t="inlineStr">
         <is>
-          <t>Incorrect species</t>
+          <t>Correct species</t>
         </is>
       </c>
       <c r="M621" t="inlineStr">
         <is>
-          <t>Gymnothorax nudivomer</t>
+          <t>Gymnothorax eurostus</t>
         </is>
       </c>
       <c r="P621" t="inlineStr">
@@ -67807,12 +67117,12 @@
       </c>
       <c r="L622" t="inlineStr">
         <is>
-          <t>Incorrect species</t>
+          <t>Correct species</t>
         </is>
       </c>
       <c r="M622" t="inlineStr">
         <is>
-          <t>Gymnothorax nudivomer</t>
+          <t>Upeneus tragula</t>
         </is>
       </c>
       <c r="P622" t="inlineStr">
@@ -67964,12 +67274,12 @@
       </c>
       <c r="L623" t="inlineStr">
         <is>
-          <t>Incorrect species</t>
+          <t>Correct species</t>
         </is>
       </c>
       <c r="M623" t="inlineStr">
         <is>
-          <t>Gymnothorax nudivomer</t>
+          <t>Hemigymnus melapterus</t>
         </is>
       </c>
       <c r="P623" t="inlineStr">
@@ -68121,12 +67431,12 @@
       </c>
       <c r="L624" t="inlineStr">
         <is>
-          <t>Incorrect species</t>
+          <t>Correct species</t>
         </is>
       </c>
       <c r="M624" t="inlineStr">
         <is>
-          <t>Gymnothorax nudivomer</t>
+          <t>Chaetodon speculum</t>
         </is>
       </c>
       <c r="N624" t="inlineStr">
@@ -68256,16 +67566,6 @@
           <t>Sardinops sagax</t>
         </is>
       </c>
-      <c r="L625" t="inlineStr">
-        <is>
-          <t>Incorrect species</t>
-        </is>
-      </c>
-      <c r="M625" t="inlineStr">
-        <is>
-          <t>Gymnothorax nudivomer</t>
-        </is>
-      </c>
       <c r="AB625" t="inlineStr">
         <is>
           <t>Incorrect species</t>
@@ -68343,16 +67643,6 @@
           <t>Dasyatis brevicaudata</t>
         </is>
       </c>
-      <c r="L626" t="inlineStr">
-        <is>
-          <t>Incorrect species</t>
-        </is>
-      </c>
-      <c r="M626" t="inlineStr">
-        <is>
-          <t>Gymnothorax nudivomer</t>
-        </is>
-      </c>
       <c r="N626" t="inlineStr">
         <is>
           <t>Incorrect species</t>
@@ -68512,12 +67802,12 @@
       </c>
       <c r="L627" t="inlineStr">
         <is>
-          <t>Incorrect species</t>
+          <t>Correct species</t>
         </is>
       </c>
       <c r="M627" t="inlineStr">
         <is>
-          <t>Gymnothorax nudivomer</t>
+          <t>Abudefduf bengalensis</t>
         </is>
       </c>
       <c r="P627" t="inlineStr">
@@ -68803,12 +68093,12 @@
       </c>
       <c r="L630" t="inlineStr">
         <is>
-          <t>Incorrect species</t>
+          <t>Correct species</t>
         </is>
       </c>
       <c r="M630" t="inlineStr">
         <is>
-          <t>Gymnothorax nudivomer</t>
+          <t>Galeocerdo cuvier</t>
         </is>
       </c>
       <c r="N630" t="inlineStr">
@@ -68950,12 +68240,12 @@
       </c>
       <c r="L631" t="inlineStr">
         <is>
-          <t>Incorrect species</t>
+          <t>Correct species</t>
         </is>
       </c>
       <c r="M631" t="inlineStr">
         <is>
-          <t>Gymnothorax nudivomer</t>
+          <t>Phyllopteryx taeniolatus</t>
         </is>
       </c>
       <c r="P631" t="inlineStr">
@@ -69107,12 +68397,12 @@
       </c>
       <c r="L632" t="inlineStr">
         <is>
-          <t>Incorrect species</t>
+          <t>Correct species</t>
         </is>
       </c>
       <c r="M632" t="inlineStr">
         <is>
-          <t>Gymnothorax nudivomer</t>
+          <t>Lagocephalus sceleratus</t>
         </is>
       </c>
       <c r="P632" t="inlineStr">
@@ -69244,12 +68534,12 @@
       </c>
       <c r="L633" t="inlineStr">
         <is>
-          <t>Incorrect species</t>
+          <t>Correct species</t>
         </is>
       </c>
       <c r="M633" t="inlineStr">
         <is>
-          <t>Gymnothorax nudivomer</t>
+          <t>Arothron hispidus</t>
         </is>
       </c>
       <c r="N633" t="inlineStr">
@@ -69371,12 +68661,12 @@
       </c>
       <c r="L634" t="inlineStr">
         <is>
-          <t>Incorrect species</t>
+          <t>Correct species</t>
         </is>
       </c>
       <c r="M634" t="inlineStr">
         <is>
-          <t>Gymnothorax nudivomer</t>
+          <t>Tetrapturus angustirostris</t>
         </is>
       </c>
       <c r="P634" t="inlineStr">
@@ -69645,12 +68935,12 @@
       </c>
       <c r="L636" t="inlineStr">
         <is>
-          <t>Incorrect species</t>
+          <t>Correct species</t>
         </is>
       </c>
       <c r="M636" t="inlineStr">
         <is>
-          <t>Gymnothorax nudivomer</t>
+          <t>Mugil cephalus</t>
         </is>
       </c>
       <c r="P636" t="inlineStr">
@@ -69797,7 +69087,7 @@
       </c>
       <c r="M637" t="inlineStr">
         <is>
-          <t>Gymnothorax nudivomer</t>
+          <t>Dermogenys pusilla</t>
         </is>
       </c>
       <c r="N637" t="inlineStr">
@@ -69959,12 +69249,12 @@
       </c>
       <c r="L638" t="inlineStr">
         <is>
-          <t>Incorrect species</t>
+          <t>Correct species</t>
         </is>
       </c>
       <c r="M638" t="inlineStr">
         <is>
-          <t>Gymnothorax nudivomer</t>
+          <t>Acanthocybium solandri</t>
         </is>
       </c>
       <c r="P638" t="inlineStr">
@@ -70106,12 +69396,12 @@
       </c>
       <c r="L639" t="inlineStr">
         <is>
-          <t>Incorrect species</t>
+          <t>Correct species</t>
         </is>
       </c>
       <c r="M639" t="inlineStr">
         <is>
-          <t>Gymnothorax nudivomer</t>
+          <t>Sphyrna lewini</t>
         </is>
       </c>
       <c r="N639" t="inlineStr">
@@ -70437,12 +69727,12 @@
       </c>
       <c r="L642" t="inlineStr">
         <is>
-          <t>Incorrect species</t>
+          <t>Correct species</t>
         </is>
       </c>
       <c r="M642" t="inlineStr">
         <is>
-          <t>Gymnothorax nudivomer</t>
+          <t>Phycodurus eques</t>
         </is>
       </c>
       <c r="N642" t="inlineStr">
@@ -70699,16 +69989,6 @@
           <t>Auxis thazard</t>
         </is>
       </c>
-      <c r="L644" t="inlineStr">
-        <is>
-          <t>Incorrect species</t>
-        </is>
-      </c>
-      <c r="M644" t="inlineStr">
-        <is>
-          <t>Gymnothorax nudivomer</t>
-        </is>
-      </c>
     </row>
     <row r="645">
       <c r="A645" t="inlineStr">
@@ -71106,12 +70386,12 @@
       </c>
       <c r="L649" t="inlineStr">
         <is>
-          <t>Incorrect species</t>
+          <t>Correct species</t>
         </is>
       </c>
       <c r="M649" t="inlineStr">
         <is>
-          <t>Gymnothorax nudivomer</t>
+          <t>Psammoperca waigiensis</t>
         </is>
       </c>
       <c r="P649" t="inlineStr">
@@ -71231,16 +70511,6 @@
           <t>Chelidonichthys kumu</t>
         </is>
       </c>
-      <c r="L650" t="inlineStr">
-        <is>
-          <t>Incorrect species</t>
-        </is>
-      </c>
-      <c r="M650" t="inlineStr">
-        <is>
-          <t>Gymnothorax nudivomer</t>
-        </is>
-      </c>
       <c r="AB650" t="inlineStr">
         <is>
           <t>Incorrect species</t>
@@ -71320,12 +70590,12 @@
       </c>
       <c r="L651" t="inlineStr">
         <is>
-          <t>Incorrect species</t>
+          <t>Correct species</t>
         </is>
       </c>
       <c r="M651" t="inlineStr">
         <is>
-          <t>Gymnothorax nudivomer</t>
+          <t>Lophonectes gallus</t>
         </is>
       </c>
       <c r="N651" t="inlineStr">
@@ -71487,12 +70757,12 @@
       </c>
       <c r="L652" t="inlineStr">
         <is>
-          <t>Incorrect species</t>
+          <t>Correct species</t>
         </is>
       </c>
       <c r="M652" t="inlineStr">
         <is>
-          <t>Gymnothorax nudivomer</t>
+          <t>Lethrinus laticaudis</t>
         </is>
       </c>
       <c r="P652" t="inlineStr">
@@ -71624,12 +70894,12 @@
       </c>
       <c r="L653" t="inlineStr">
         <is>
-          <t>Incorrect species</t>
+          <t>Correct species</t>
         </is>
       </c>
       <c r="M653" t="inlineStr">
         <is>
-          <t>Gymnothorax nudivomer</t>
+          <t>Seriola lalandi</t>
         </is>
       </c>
       <c r="N653" t="inlineStr">
@@ -71791,12 +71061,12 @@
       </c>
       <c r="L654" t="inlineStr">
         <is>
-          <t>Incorrect species</t>
+          <t>Correct species</t>
         </is>
       </c>
       <c r="M654" t="inlineStr">
         <is>
-          <t>Gymnothorax nudivomer</t>
+          <t>Ginglymostoma cirratum</t>
         </is>
       </c>
       <c r="N654" t="inlineStr">
@@ -71926,16 +71196,6 @@
           <t>Plotosus lineatus</t>
         </is>
       </c>
-      <c r="L655" t="inlineStr">
-        <is>
-          <t>Incorrect species</t>
-        </is>
-      </c>
-      <c r="M655" t="inlineStr">
-        <is>
-          <t>Gymnothorax nudivomer</t>
-        </is>
-      </c>
       <c r="N655" t="inlineStr">
         <is>
           <t>Incorrect species</t>
@@ -72025,12 +71285,12 @@
       </c>
       <c r="L656" t="inlineStr">
         <is>
-          <t>Incorrect species</t>
+          <t>Correct species</t>
         </is>
       </c>
       <c r="M656" t="inlineStr">
         <is>
-          <t>Gymnothorax nudivomer</t>
+          <t>Caesio cuning</t>
         </is>
       </c>
       <c r="P656" t="inlineStr">
@@ -72182,12 +71442,12 @@
       </c>
       <c r="L657" t="inlineStr">
         <is>
-          <t>Incorrect species</t>
+          <t>Correct species</t>
         </is>
       </c>
       <c r="M657" t="inlineStr">
         <is>
-          <t>Gymnothorax nudivomer</t>
+          <t>Ecsenius bicolor</t>
         </is>
       </c>
       <c r="N657" t="inlineStr">
@@ -72349,12 +71609,12 @@
       </c>
       <c r="L658" t="inlineStr">
         <is>
-          <t>Incorrect species</t>
+          <t>Correct species</t>
         </is>
       </c>
       <c r="M658" t="inlineStr">
         <is>
-          <t>Gymnothorax nudivomer</t>
+          <t>Diploprion bifasciatum</t>
         </is>
       </c>
       <c r="N658" t="inlineStr">
@@ -72516,12 +71776,12 @@
       </c>
       <c r="L659" t="inlineStr">
         <is>
-          <t>Incorrect species</t>
+          <t>Correct species</t>
         </is>
       </c>
       <c r="M659" t="inlineStr">
         <is>
-          <t>Gymnothorax nudivomer</t>
+          <t>Rhabdosargus sarba</t>
         </is>
       </c>
       <c r="N659" t="inlineStr">
@@ -72720,12 +71980,12 @@
       </c>
       <c r="L661" t="inlineStr">
         <is>
-          <t>Incorrect species</t>
+          <t>Correct species</t>
         </is>
       </c>
       <c r="M661" t="inlineStr">
         <is>
-          <t>Gymnothorax nudivomer</t>
+          <t>Caranx ignobilis</t>
         </is>
       </c>
       <c r="P661" t="inlineStr">
@@ -72914,12 +72174,12 @@
       </c>
       <c r="L663" t="inlineStr">
         <is>
-          <t>Incorrect species</t>
+          <t>Correct species</t>
         </is>
       </c>
       <c r="M663" t="inlineStr">
         <is>
-          <t>Gymnothorax nudivomer</t>
+          <t>Pomatomus saltatrix</t>
         </is>
       </c>
       <c r="N663" t="inlineStr">
@@ -73208,12 +72468,12 @@
       </c>
       <c r="L665" t="inlineStr">
         <is>
-          <t>Incorrect species</t>
+          <t>Correct species</t>
         </is>
       </c>
       <c r="M665" t="inlineStr">
         <is>
-          <t>Gymnothorax nudivomer</t>
+          <t>Carcharodon carcharias</t>
         </is>
       </c>
       <c r="N665" t="inlineStr">
@@ -73442,12 +72702,12 @@
       </c>
       <c r="L667" t="inlineStr">
         <is>
-          <t>Incorrect species</t>
+          <t>Correct species</t>
         </is>
       </c>
       <c r="M667" t="inlineStr">
         <is>
-          <t>Gymnothorax nudivomer</t>
+          <t>Aldrichetta forsteri</t>
         </is>
       </c>
       <c r="N667" t="inlineStr">
@@ -73609,12 +72869,12 @@
       </c>
       <c r="L668" t="inlineStr">
         <is>
-          <t>Incorrect species</t>
+          <t>Correct species</t>
         </is>
       </c>
       <c r="M668" t="inlineStr">
         <is>
-          <t>Gymnothorax nudivomer</t>
+          <t>Hyperlophus vittatus</t>
         </is>
       </c>
       <c r="N668" t="inlineStr">
@@ -73776,12 +73036,12 @@
       </c>
       <c r="L669" t="inlineStr">
         <is>
-          <t>Incorrect species</t>
+          <t>Correct species</t>
         </is>
       </c>
       <c r="M669" t="inlineStr">
         <is>
-          <t>Gymnothorax nudivomer</t>
+          <t>Torquigener pleurogramma</t>
         </is>
       </c>
       <c r="P669" t="inlineStr">
@@ -74038,16 +73298,6 @@
           <t>Scomber australasicus</t>
         </is>
       </c>
-      <c r="L671" t="inlineStr">
-        <is>
-          <t>Incorrect species</t>
-        </is>
-      </c>
-      <c r="M671" t="inlineStr">
-        <is>
-          <t>Gymnothorax nudivomer</t>
-        </is>
-      </c>
       <c r="N671" t="inlineStr">
         <is>
           <t>Incorrect species</t>
@@ -74125,16 +73375,6 @@
           <t>Lagocephalus wheeleri</t>
         </is>
       </c>
-      <c r="L672" t="inlineStr">
-        <is>
-          <t>Incorrect species</t>
-        </is>
-      </c>
-      <c r="M672" t="inlineStr">
-        <is>
-          <t>Gymnothorax nudivomer</t>
-        </is>
-      </c>
       <c r="N672" t="inlineStr">
         <is>
           <t>Incorrect species</t>
@@ -74456,11 +73696,6 @@
           <t>Halichoeres nigrescens</t>
         </is>
       </c>
-      <c r="M675" t="inlineStr">
-        <is>
-          <t>Gymnothorax nudivomer</t>
-        </is>
-      </c>
       <c r="AC675" t="inlineStr">
         <is>
           <t>Halichoeres nigrescens</t>
@@ -74629,12 +73864,12 @@
       </c>
       <c r="L678" t="inlineStr">
         <is>
-          <t>Incorrect species</t>
+          <t>Correct species</t>
         </is>
       </c>
       <c r="M678" t="inlineStr">
         <is>
-          <t>Gymnothorax nudivomer</t>
+          <t>Scarus schlegeli</t>
         </is>
       </c>
       <c r="N678" t="inlineStr">
@@ -74942,7 +74177,7 @@
       </c>
       <c r="M682" t="inlineStr">
         <is>
-          <t>Gymnothorax nudivomer</t>
+          <t>Anoplocapros inermis</t>
         </is>
       </c>
       <c r="N682" t="inlineStr">
@@ -75082,16 +74317,6 @@
           <t>Epinephelus rivulatus</t>
         </is>
       </c>
-      <c r="L683" t="inlineStr">
-        <is>
-          <t>Incorrect species</t>
-        </is>
-      </c>
-      <c r="M683" t="inlineStr">
-        <is>
-          <t>Gymnothorax nudivomer</t>
-        </is>
-      </c>
       <c r="AB683" t="inlineStr">
         <is>
           <t>Incorrect species</t>
@@ -75308,12 +74533,12 @@
       </c>
       <c r="L685" t="inlineStr">
         <is>
-          <t>Incorrect species</t>
+          <t>Correct species</t>
         </is>
       </c>
       <c r="M685" t="inlineStr">
         <is>
-          <t>Gymnothorax nudivomer</t>
+          <t>Macroramphosus scolopax</t>
         </is>
       </c>
       <c r="N685" t="inlineStr">
@@ -75602,12 +74827,12 @@
       </c>
       <c r="L687" t="inlineStr">
         <is>
-          <t>Incorrect species</t>
+          <t>Correct species</t>
         </is>
       </c>
       <c r="M687" t="inlineStr">
         <is>
-          <t>Gymnothorax nudivomer</t>
+          <t>Zanclus cornutus</t>
         </is>
       </c>
       <c r="N687" t="inlineStr">
@@ -75769,12 +74994,12 @@
       </c>
       <c r="L688" t="inlineStr">
         <is>
-          <t>Incorrect species</t>
+          <t>Correct species</t>
         </is>
       </c>
       <c r="M688" t="inlineStr">
         <is>
-          <t>Gymnothorax nudivomer</t>
+          <t>Spratelloides delicatulus</t>
         </is>
       </c>
       <c r="N688" t="inlineStr">
@@ -75904,16 +75129,6 @@
           <t>Siganus fuscescens</t>
         </is>
       </c>
-      <c r="L689" t="inlineStr">
-        <is>
-          <t>Incorrect species</t>
-        </is>
-      </c>
-      <c r="M689" t="inlineStr">
-        <is>
-          <t>Gymnothorax nudivomer</t>
-        </is>
-      </c>
       <c r="AB689" t="inlineStr">
         <is>
           <t>Correct species</t>
@@ -75998,16 +75213,6 @@
           <t>Chlorurus spilurus</t>
         </is>
       </c>
-      <c r="L691" t="inlineStr">
-        <is>
-          <t>Incorrect species</t>
-        </is>
-      </c>
-      <c r="M691" t="inlineStr">
-        <is>
-          <t>Gymnothorax nudivomer</t>
-        </is>
-      </c>
       <c r="AB691" t="inlineStr">
         <is>
           <t>Correct species</t>
@@ -76331,12 +75536,12 @@
       </c>
       <c r="L694" t="inlineStr">
         <is>
-          <t>Incorrect species</t>
+          <t>Correct species</t>
         </is>
       </c>
       <c r="M694" t="inlineStr">
         <is>
-          <t>Gymnothorax nudivomer</t>
+          <t>Acanthurus thompsoni</t>
         </is>
       </c>
       <c r="N694" t="inlineStr">
@@ -76493,7 +75698,7 @@
       </c>
       <c r="M695" t="inlineStr">
         <is>
-          <t>Gymnothorax nudivomer</t>
+          <t>Epinephelus awoara</t>
         </is>
       </c>
       <c r="P695" t="inlineStr">
@@ -76725,11 +75930,6 @@
           <t>Carcharhinidae</t>
         </is>
       </c>
-      <c r="M697" t="inlineStr">
-        <is>
-          <t>Gymnothorax nudivomer</t>
-        </is>
-      </c>
       <c r="AC697" t="inlineStr">
         <is>
           <t>Carcharhinus brevipinna</t>
@@ -77149,12 +76349,12 @@
       </c>
       <c r="L703" t="inlineStr">
         <is>
-          <t>Incorrect species</t>
+          <t>Correct species</t>
         </is>
       </c>
       <c r="M703" t="inlineStr">
         <is>
-          <t>Gymnothorax nudivomer</t>
+          <t>Plectropomus areolatus</t>
         </is>
       </c>
       <c r="P703" t="inlineStr">
@@ -77329,16 +76529,6 @@
       <c r="E705" t="inlineStr">
         <is>
           <t>Thunnus maccoyii</t>
-        </is>
-      </c>
-      <c r="L705" t="inlineStr">
-        <is>
-          <t>Incorrect species</t>
-        </is>
-      </c>
-      <c r="M705" t="inlineStr">
-        <is>
-          <t>Gymnothorax nudivomer</t>
         </is>
       </c>
       <c r="N705" t="inlineStr">

--- a/results/tables/Big_species_table.xlsx
+++ b/results/tables/Big_species_table.xlsx
@@ -4565,16 +4565,6 @@
           <t>Alepocephalus umbriceps</t>
         </is>
       </c>
-      <c r="V37" t="inlineStr">
-        <is>
-          <t>Correct species</t>
-        </is>
-      </c>
-      <c r="W37" t="inlineStr">
-        <is>
-          <t>Alepocephalus umbriceps</t>
-        </is>
-      </c>
       <c r="X37" t="inlineStr">
         <is>
           <t>Correct species</t>
@@ -4799,16 +4789,6 @@
           <t>Pervagor janthinosoma</t>
         </is>
       </c>
-      <c r="V39" t="inlineStr">
-        <is>
-          <t>Incorrect species</t>
-        </is>
-      </c>
-      <c r="W39" t="inlineStr">
-        <is>
-          <t>Thamnaconus hypargyreus</t>
-        </is>
-      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -7798,16 +7778,6 @@
           <t>Siganus spinus</t>
         </is>
       </c>
-      <c r="V66" t="inlineStr">
-        <is>
-          <t>Incorrect species</t>
-        </is>
-      </c>
-      <c r="W66" t="inlineStr">
-        <is>
-          <t>Siganus fuscescens</t>
-        </is>
-      </c>
       <c r="Z66" t="inlineStr">
         <is>
           <t>Incorrect species</t>
@@ -9276,16 +9246,6 @@
           <t>Arothron stellatus</t>
         </is>
       </c>
-      <c r="V80" t="inlineStr">
-        <is>
-          <t>Incorrect species</t>
-        </is>
-      </c>
-      <c r="W80" t="inlineStr">
-        <is>
-          <t>Arothron stellatus</t>
-        </is>
-      </c>
       <c r="X80" t="inlineStr">
         <is>
           <t>Incorrect species</t>
@@ -12292,16 +12252,6 @@
           <t>Gillichthys mirabilis</t>
         </is>
       </c>
-      <c r="V108" t="inlineStr">
-        <is>
-          <t>Incorrect species</t>
-        </is>
-      </c>
-      <c r="W108" t="inlineStr">
-        <is>
-          <t>Exyrias puntang</t>
-        </is>
-      </c>
       <c r="AB108" t="inlineStr">
         <is>
           <t>Incorrect species</t>
@@ -12984,16 +12934,6 @@
           <t>Cottus asper</t>
         </is>
       </c>
-      <c r="V114" t="inlineStr">
-        <is>
-          <t>Correct species</t>
-        </is>
-      </c>
-      <c r="W114" t="inlineStr">
-        <is>
-          <t>Cottus asper</t>
-        </is>
-      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -14633,7 +14573,7 @@
       </c>
       <c r="W130" t="inlineStr">
         <is>
-          <t>Scartelaos gigas</t>
+          <t>Mugilogobius myxodermus</t>
         </is>
       </c>
     </row>
@@ -15442,7 +15382,7 @@
       </c>
       <c r="W137" t="inlineStr">
         <is>
-          <t>Crocodylus rhombifer</t>
+          <t>Crocodylus intermedius</t>
         </is>
       </c>
       <c r="Z137" t="inlineStr">
@@ -17318,16 +17258,6 @@
           <t>Bostrychus sinensis</t>
         </is>
       </c>
-      <c r="V156" t="inlineStr">
-        <is>
-          <t>Incorrect species</t>
-        </is>
-      </c>
-      <c r="W156" t="inlineStr">
-        <is>
-          <t>Guavina micropus</t>
-        </is>
-      </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -18226,12 +18156,12 @@
       </c>
       <c r="V164" t="inlineStr">
         <is>
-          <t>Incorrect species</t>
+          <t>Correct species</t>
         </is>
       </c>
       <c r="W164" t="inlineStr">
         <is>
-          <t>Inimicus sinensis</t>
+          <t>Inimicus japonicus</t>
         </is>
       </c>
       <c r="Z164" t="inlineStr">
@@ -19214,16 +19144,6 @@
           <t>Lepidochelys kempii</t>
         </is>
       </c>
-      <c r="V174" t="inlineStr">
-        <is>
-          <t>Correct species</t>
-        </is>
-      </c>
-      <c r="W174" t="inlineStr">
-        <is>
-          <t>Lepidochelys kempii</t>
-        </is>
-      </c>
       <c r="X174" t="inlineStr">
         <is>
           <t>Correct species</t>
@@ -20698,7 +20618,7 @@
       </c>
       <c r="W185" t="inlineStr">
         <is>
-          <t>Lepidotrigla spinosa</t>
+          <t>Lepidotrigla papilio</t>
         </is>
       </c>
     </row>
@@ -21684,16 +21604,6 @@
           <t>Globicephala macrorhynchus</t>
         </is>
       </c>
-      <c r="V194" t="inlineStr">
-        <is>
-          <t>Correct species</t>
-        </is>
-      </c>
-      <c r="W194" t="inlineStr">
-        <is>
-          <t>Globicephala macrorhynchus</t>
-        </is>
-      </c>
       <c r="X194" t="inlineStr">
         <is>
           <t>Correct species</t>
@@ -22456,6 +22366,16 @@
           <t>Phycodurus eques</t>
         </is>
       </c>
+      <c r="V200" t="inlineStr">
+        <is>
+          <t>Correct species</t>
+        </is>
+      </c>
+      <c r="W200" t="inlineStr">
+        <is>
+          <t>Phycodurus eques</t>
+        </is>
+      </c>
       <c r="X200" t="inlineStr">
         <is>
           <t>Correct species</t>
@@ -22670,6 +22590,16 @@
           <t>Haliaeetus albicilla</t>
         </is>
       </c>
+      <c r="V202" t="inlineStr">
+        <is>
+          <t>Correct species</t>
+        </is>
+      </c>
+      <c r="W202" t="inlineStr">
+        <is>
+          <t>Haliaeetus albicilla</t>
+        </is>
+      </c>
       <c r="Z202" t="inlineStr">
         <is>
           <t>Correct species</t>
@@ -22839,6 +22769,11 @@
           <t>Arhynchobatidae</t>
         </is>
       </c>
+      <c r="W204" t="inlineStr">
+        <is>
+          <t>Bathyraja richardsoni</t>
+        </is>
+      </c>
       <c r="Y204" t="inlineStr">
         <is>
           <t>Bathyraja richardsoni</t>
@@ -22983,6 +22918,16 @@
           <t>Cheilopogon agoo</t>
         </is>
       </c>
+      <c r="V206" t="inlineStr">
+        <is>
+          <t>Correct species</t>
+        </is>
+      </c>
+      <c r="W206" t="inlineStr">
+        <is>
+          <t>Cheilopogon agoo</t>
+        </is>
+      </c>
       <c r="X206" t="inlineStr">
         <is>
           <t>Correct species</t>
@@ -23055,11 +23000,6 @@
           <t>Bathyclupea megaceps</t>
         </is>
       </c>
-      <c r="W207" t="inlineStr">
-        <is>
-          <t>Ablennes hians</t>
-        </is>
-      </c>
       <c r="AC207" t="inlineStr">
         <is>
           <t>Ablennes hians</t>
@@ -23333,12 +23273,12 @@
       </c>
       <c r="V210" t="inlineStr">
         <is>
-          <t>Incorrect species</t>
+          <t>Correct species</t>
         </is>
       </c>
       <c r="W210" t="inlineStr">
         <is>
-          <t>Genicanthus melanospilos</t>
+          <t>Centropyge interrupta</t>
         </is>
       </c>
       <c r="X210" t="inlineStr">
@@ -23595,6 +23535,16 @@
           <t>Himantura microphthalma</t>
         </is>
       </c>
+      <c r="V212" t="inlineStr">
+        <is>
+          <t>Correct species</t>
+        </is>
+      </c>
+      <c r="W212" t="inlineStr">
+        <is>
+          <t>Himantura microphthalma</t>
+        </is>
+      </c>
       <c r="Z212" t="inlineStr">
         <is>
           <t>Correct species</t>
@@ -23796,6 +23746,16 @@
           <t>Cirrhitichthys aprinus</t>
         </is>
       </c>
+      <c r="V215" t="inlineStr">
+        <is>
+          <t>Correct species</t>
+        </is>
+      </c>
+      <c r="W215" t="inlineStr">
+        <is>
+          <t>Cirrhitichthys aprinus</t>
+        </is>
+      </c>
       <c r="X215" t="inlineStr">
         <is>
           <t>Correct species</t>
@@ -23863,6 +23823,11 @@
           <t>Amphiprion sebae</t>
         </is>
       </c>
+      <c r="W216" t="inlineStr">
+        <is>
+          <t>Amphiprion frenatus</t>
+        </is>
+      </c>
       <c r="AC216" t="inlineStr">
         <is>
           <t>Amphiprion melanopus</t>
@@ -24134,6 +24099,11 @@
           <t>Thamnaconus hypargyreus</t>
         </is>
       </c>
+      <c r="W219" t="inlineStr">
+        <is>
+          <t>Thamnaconus tessellatus</t>
+        </is>
+      </c>
       <c r="Y219" t="inlineStr">
         <is>
           <t>Thamnaconus tessellatus</t>
@@ -24211,6 +24181,16 @@
           <t>Ichthyaetus relictus</t>
         </is>
       </c>
+      <c r="V220" t="inlineStr">
+        <is>
+          <t>Correct species</t>
+        </is>
+      </c>
+      <c r="W220" t="inlineStr">
+        <is>
+          <t>Ichthyaetus relictus</t>
+        </is>
+      </c>
       <c r="X220" t="inlineStr">
         <is>
           <t>Correct species</t>
@@ -24616,6 +24596,16 @@
           <t>Nesiarchus nasutus</t>
         </is>
       </c>
+      <c r="V225" t="inlineStr">
+        <is>
+          <t>Correct species</t>
+        </is>
+      </c>
+      <c r="W225" t="inlineStr">
+        <is>
+          <t>Nesiarchus nasutus</t>
+        </is>
+      </c>
       <c r="X225" t="inlineStr">
         <is>
           <t>Correct species</t>
@@ -24745,6 +24735,16 @@
           <t>Ehirava fluviatilis</t>
         </is>
       </c>
+      <c r="V227" t="inlineStr">
+        <is>
+          <t>Correct species</t>
+        </is>
+      </c>
+      <c r="W227" t="inlineStr">
+        <is>
+          <t>Ehirava fluviatilis</t>
+        </is>
+      </c>
       <c r="X227" t="inlineStr">
         <is>
           <t>Correct species</t>
@@ -25116,6 +25116,16 @@
           <t>Lagocephalus laevigatus</t>
         </is>
       </c>
+      <c r="V230" t="inlineStr">
+        <is>
+          <t>Correct species</t>
+        </is>
+      </c>
+      <c r="W230" t="inlineStr">
+        <is>
+          <t>Lagocephalus laevigatus</t>
+        </is>
+      </c>
       <c r="Z230" t="inlineStr">
         <is>
           <t>Correct species</t>
@@ -25733,6 +25743,16 @@
           <t>Alepocephalus productus</t>
         </is>
       </c>
+      <c r="V236" t="inlineStr">
+        <is>
+          <t>Correct species</t>
+        </is>
+      </c>
+      <c r="W236" t="inlineStr">
+        <is>
+          <t>Alepocephalus productus</t>
+        </is>
+      </c>
       <c r="X236" t="inlineStr">
         <is>
           <t>Correct species</t>
@@ -25919,12 +25939,12 @@
       </c>
       <c r="V238" t="inlineStr">
         <is>
-          <t>Incorrect species</t>
+          <t>Correct species</t>
         </is>
       </c>
       <c r="W238" t="inlineStr">
         <is>
-          <t>Melichthys niger</t>
+          <t>Odonus niger</t>
         </is>
       </c>
       <c r="X238" t="inlineStr">
@@ -26108,11 +26128,6 @@
           <t>Ostraciidae</t>
         </is>
       </c>
-      <c r="W241" t="inlineStr">
-        <is>
-          <t>Ostracion immaculatus</t>
-        </is>
-      </c>
       <c r="AC241" t="inlineStr">
         <is>
           <t>Ostracion cubicum</t>
@@ -26272,11 +26287,6 @@
           <t>Alosa pseudoharengus</t>
         </is>
       </c>
-      <c r="W243" t="inlineStr">
-        <is>
-          <t>Alosa aestivalis</t>
-        </is>
-      </c>
       <c r="Y243" t="inlineStr">
         <is>
           <t>Alosa pseudoharengus</t>
@@ -26329,11 +26339,6 @@
           <t>Syngnathus auliscus</t>
         </is>
       </c>
-      <c r="W244" t="inlineStr">
-        <is>
-          <t>Syngnathus leptorhynchus</t>
-        </is>
-      </c>
       <c r="AC244" t="inlineStr">
         <is>
           <t>Syngnathus californiensis</t>
@@ -26431,6 +26436,16 @@
           <t>Lobodon carcinophaga</t>
         </is>
       </c>
+      <c r="V245" t="inlineStr">
+        <is>
+          <t>Correct species</t>
+        </is>
+      </c>
+      <c r="W245" t="inlineStr">
+        <is>
+          <t>Lobodon carcinophaga</t>
+        </is>
+      </c>
       <c r="X245" t="inlineStr">
         <is>
           <t>Correct species</t>
@@ -26705,6 +26720,16 @@
           <t>Nansenia ardesiaca</t>
         </is>
       </c>
+      <c r="V247" t="inlineStr">
+        <is>
+          <t>Correct species</t>
+        </is>
+      </c>
+      <c r="W247" t="inlineStr">
+        <is>
+          <t>Nansenia ardesiaca</t>
+        </is>
+      </c>
       <c r="Z247" t="inlineStr">
         <is>
           <t>Correct species</t>
@@ -27371,6 +27396,16 @@
           <t>Bostrychus sinensis</t>
         </is>
       </c>
+      <c r="V255" t="inlineStr">
+        <is>
+          <t>Correct species</t>
+        </is>
+      </c>
+      <c r="W255" t="inlineStr">
+        <is>
+          <t>Bostrychus sinensis</t>
+        </is>
+      </c>
       <c r="X255" t="inlineStr">
         <is>
           <t>Correct species</t>
@@ -27550,11 +27585,6 @@
           <t>Cottidae</t>
         </is>
       </c>
-      <c r="W257" t="inlineStr">
-        <is>
-          <t>Cottus gulosus</t>
-        </is>
-      </c>
       <c r="Y257" t="inlineStr">
         <is>
           <t>Cottus asper</t>
@@ -27763,11 +27793,6 @@
           <t>Trichiurus japonicus</t>
         </is>
       </c>
-      <c r="W261" t="inlineStr">
-        <is>
-          <t>Trichiurus japonicus</t>
-        </is>
-      </c>
       <c r="AC261" t="inlineStr">
         <is>
           <t>Trichiurus japonicus</t>
@@ -27952,6 +27977,11 @@
           <t>Zalophus wollebaeki</t>
         </is>
       </c>
+      <c r="W263" t="inlineStr">
+        <is>
+          <t>Zalophus wollebaeki</t>
+        </is>
+      </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
@@ -28342,6 +28372,11 @@
           <t>Lepidotrigla multispinosa</t>
         </is>
       </c>
+      <c r="W268" t="inlineStr">
+        <is>
+          <t>Lepidotrigla alata</t>
+        </is>
+      </c>
       <c r="AC268" t="inlineStr">
         <is>
           <t>Lepidotrigla alata</t>
@@ -28553,6 +28588,16 @@
           <t>Balaena mysticetus</t>
         </is>
       </c>
+      <c r="V271" t="inlineStr">
+        <is>
+          <t>Correct species</t>
+        </is>
+      </c>
+      <c r="W271" t="inlineStr">
+        <is>
+          <t>Balaena mysticetus</t>
+        </is>
+      </c>
       <c r="X271" t="inlineStr">
         <is>
           <t>Correct species</t>
@@ -28670,6 +28715,16 @@
           <t>Lepidochelys kempii</t>
         </is>
       </c>
+      <c r="V272" t="inlineStr">
+        <is>
+          <t>Correct species</t>
+        </is>
+      </c>
+      <c r="W272" t="inlineStr">
+        <is>
+          <t>Lepidochelys kempii</t>
+        </is>
+      </c>
       <c r="Z272" t="inlineStr">
         <is>
           <t>Correct species</t>
@@ -28767,6 +28822,16 @@
           <t>Pempheris ibo</t>
         </is>
       </c>
+      <c r="V273" t="inlineStr">
+        <is>
+          <t>Correct species</t>
+        </is>
+      </c>
+      <c r="W273" t="inlineStr">
+        <is>
+          <t>Lutjanus ophuysenii</t>
+        </is>
+      </c>
       <c r="X273" t="inlineStr">
         <is>
           <t>Correct species</t>
@@ -29038,6 +29103,16 @@
           <t>Plestiodon egregius</t>
         </is>
       </c>
+      <c r="V276" t="inlineStr">
+        <is>
+          <t>Correct species</t>
+        </is>
+      </c>
+      <c r="W276" t="inlineStr">
+        <is>
+          <t>Plestiodon egregius</t>
+        </is>
+      </c>
       <c r="Z276" t="inlineStr">
         <is>
           <t>Correct species</t>
@@ -29212,6 +29287,16 @@
           <t>Chaenogobius dolichognathus</t>
         </is>
       </c>
+      <c r="V278" t="inlineStr">
+        <is>
+          <t>Incorrect species</t>
+        </is>
+      </c>
+      <c r="W278" t="inlineStr">
+        <is>
+          <t>Chaenogobius dolichognathus</t>
+        </is>
+      </c>
       <c r="X278" t="inlineStr">
         <is>
           <t>Incorrect species</t>
@@ -29383,6 +29468,16 @@
           <t>Diplodus puntazzo</t>
         </is>
       </c>
+      <c r="V281" t="inlineStr">
+        <is>
+          <t>Correct species</t>
+        </is>
+      </c>
+      <c r="W281" t="inlineStr">
+        <is>
+          <t>Diplodus puntazzo</t>
+        </is>
+      </c>
       <c r="X281" t="inlineStr">
         <is>
           <t>Correct species</t>
@@ -29649,12 +29744,12 @@
       </c>
       <c r="V283" t="inlineStr">
         <is>
-          <t>Incorrect species</t>
+          <t>Correct species</t>
         </is>
       </c>
       <c r="W283" t="inlineStr">
         <is>
-          <t>Cynoglossus semilaevis</t>
+          <t>Cynoglossus roulei</t>
         </is>
       </c>
       <c r="X283" t="inlineStr">
@@ -29734,6 +29829,16 @@
           <t>Lycenchelys kolthoffi</t>
         </is>
       </c>
+      <c r="V284" t="inlineStr">
+        <is>
+          <t>Correct species</t>
+        </is>
+      </c>
+      <c r="W284" t="inlineStr">
+        <is>
+          <t>Lycenchelys kolthoffi</t>
+        </is>
+      </c>
       <c r="AB284" t="inlineStr">
         <is>
           <t>Correct species</t>
@@ -30037,6 +30142,11 @@
           <t>Arothron stellatus</t>
         </is>
       </c>
+      <c r="W288" t="inlineStr">
+        <is>
+          <t>Arothron stellatus</t>
+        </is>
+      </c>
       <c r="AA288" t="inlineStr">
         <is>
           <t>Arothron stellatus</t>
@@ -30397,7 +30507,7 @@
       </c>
       <c r="W292" t="inlineStr">
         <is>
-          <t>Globicephala melas</t>
+          <t>Globicephala macrorhynchus</t>
         </is>
       </c>
       <c r="AC292" t="inlineStr">
@@ -30472,6 +30582,16 @@
           <t>Numenius tenuirostris</t>
         </is>
       </c>
+      <c r="V293" t="inlineStr">
+        <is>
+          <t>Correct species</t>
+        </is>
+      </c>
+      <c r="W293" t="inlineStr">
+        <is>
+          <t>Numenius tenuirostris</t>
+        </is>
+      </c>
       <c r="X293" t="inlineStr">
         <is>
           <t>Correct species</t>
@@ -31225,16 +31345,6 @@
           <t>Lutjanus guttatus</t>
         </is>
       </c>
-      <c r="V302" t="inlineStr">
-        <is>
-          <t>Correct species</t>
-        </is>
-      </c>
-      <c r="W302" t="inlineStr">
-        <is>
-          <t>Lutjanus peru</t>
-        </is>
-      </c>
       <c r="AB302" t="inlineStr">
         <is>
           <t>Incorrect species</t>
@@ -32193,16 +32303,6 @@
           <t>Pterocaesio marri</t>
         </is>
       </c>
-      <c r="V311" t="inlineStr">
-        <is>
-          <t>Incorrect species</t>
-        </is>
-      </c>
-      <c r="W311" t="inlineStr">
-        <is>
-          <t>Pterocaesio marri</t>
-        </is>
-      </c>
       <c r="AB311" t="inlineStr">
         <is>
           <t>Incorrect species</t>
@@ -33957,7 +34057,7 @@
       </c>
       <c r="W327" t="inlineStr">
         <is>
-          <t>Ocyurus chrysurus</t>
+          <t>Lutjanus griseus</t>
         </is>
       </c>
     </row>
@@ -36373,6 +36473,16 @@
           <t>Pristipomoides argyrogrammicus</t>
         </is>
       </c>
+      <c r="V351" t="inlineStr">
+        <is>
+          <t>Correct species</t>
+        </is>
+      </c>
+      <c r="W351" t="inlineStr">
+        <is>
+          <t>Pristipomoides argyrogrammicus</t>
+        </is>
+      </c>
       <c r="X351" t="inlineStr">
         <is>
           <t>Correct species</t>
@@ -36791,6 +36901,16 @@
           <t>Lutjanus peru</t>
         </is>
       </c>
+      <c r="V355" t="inlineStr">
+        <is>
+          <t>Correct species</t>
+        </is>
+      </c>
+      <c r="W355" t="inlineStr">
+        <is>
+          <t>Lutjanus peru</t>
+        </is>
+      </c>
       <c r="X355" t="inlineStr">
         <is>
           <t>Correct species</t>
@@ -36908,6 +37028,16 @@
           <t>Lutjanus johnii</t>
         </is>
       </c>
+      <c r="V356" t="inlineStr">
+        <is>
+          <t>Correct species</t>
+        </is>
+      </c>
+      <c r="W356" t="inlineStr">
+        <is>
+          <t>Lutjanus johnii</t>
+        </is>
+      </c>
       <c r="Z356" t="inlineStr">
         <is>
           <t>Correct species</t>
@@ -37279,6 +37409,16 @@
           <t>Lutjanus sebae</t>
         </is>
       </c>
+      <c r="V359" t="inlineStr">
+        <is>
+          <t>Correct species</t>
+        </is>
+      </c>
+      <c r="W359" t="inlineStr">
+        <is>
+          <t>Lutjanus sebae</t>
+        </is>
+      </c>
       <c r="Z359" t="inlineStr">
         <is>
           <t>Correct species</t>
@@ -37386,6 +37526,16 @@
           <t>Lutjanus malabaricus</t>
         </is>
       </c>
+      <c r="V360" t="inlineStr">
+        <is>
+          <t>Correct species</t>
+        </is>
+      </c>
+      <c r="W360" t="inlineStr">
+        <is>
+          <t>Lutjanus malabaricus</t>
+        </is>
+      </c>
       <c r="Z360" t="inlineStr">
         <is>
           <t>Correct species</t>
@@ -37814,16 +37964,6 @@
           <t>Lutjanus russellii</t>
         </is>
       </c>
-      <c r="V364" t="inlineStr">
-        <is>
-          <t>Correct species</t>
-        </is>
-      </c>
-      <c r="W364" t="inlineStr">
-        <is>
-          <t>Lutjanus russellii</t>
-        </is>
-      </c>
       <c r="AB364" t="inlineStr">
         <is>
           <t>Correct species</t>
@@ -37913,12 +38053,12 @@
       </c>
       <c r="V365" t="inlineStr">
         <is>
-          <t>Incorrect species</t>
+          <t>Correct species</t>
         </is>
       </c>
       <c r="W365" t="inlineStr">
         <is>
-          <t>Pterocaesio capricornis</t>
+          <t>Pterocaesio tile</t>
         </is>
       </c>
       <c r="Z365" t="inlineStr">
@@ -37998,6 +38138,11 @@
           <t>Pristipomoides argyrogrammicus</t>
         </is>
       </c>
+      <c r="W366" t="inlineStr">
+        <is>
+          <t>Pristipomoides argyrogrammicus</t>
+        </is>
+      </c>
       <c r="Y366" t="inlineStr">
         <is>
           <t>Pristipomoides argyrogrammicus</t>
@@ -38528,6 +38673,16 @@
           <t>Pempheris ibo</t>
         </is>
       </c>
+      <c r="V371" t="inlineStr">
+        <is>
+          <t>Correct species</t>
+        </is>
+      </c>
+      <c r="W371" t="inlineStr">
+        <is>
+          <t>Lutjanus ophuysenii</t>
+        </is>
+      </c>
       <c r="X371" t="inlineStr">
         <is>
           <t>Correct species</t>
@@ -38645,6 +38800,16 @@
           <t>Lutjanus carponotatus</t>
         </is>
       </c>
+      <c r="V372" t="inlineStr">
+        <is>
+          <t>Correct species</t>
+        </is>
+      </c>
+      <c r="W372" t="inlineStr">
+        <is>
+          <t>Lutjanus carponotatus</t>
+        </is>
+      </c>
       <c r="X372" t="inlineStr">
         <is>
           <t>Correct species</t>
@@ -39357,6 +39522,16 @@
           <t>Gymnothorax pseudothyrsoideus</t>
         </is>
       </c>
+      <c r="V378" t="inlineStr">
+        <is>
+          <t>Correct species</t>
+        </is>
+      </c>
+      <c r="W378" t="inlineStr">
+        <is>
+          <t>Gymnothorax pseudothyrsoideus</t>
+        </is>
+      </c>
       <c r="X378" t="inlineStr">
         <is>
           <t>Correct species</t>
@@ -39501,6 +39676,16 @@
           <t>Metavelifer multiradiatus</t>
         </is>
       </c>
+      <c r="V380" t="inlineStr">
+        <is>
+          <t>Correct species</t>
+        </is>
+      </c>
+      <c r="W380" t="inlineStr">
+        <is>
+          <t>Metavelifer multiradiatus</t>
+        </is>
+      </c>
       <c r="Z380" t="inlineStr">
         <is>
           <t>Correct species</t>
@@ -39872,6 +40057,16 @@
           <t>Gymnothorax javanicus</t>
         </is>
       </c>
+      <c r="V383" t="inlineStr">
+        <is>
+          <t>Correct species</t>
+        </is>
+      </c>
+      <c r="W383" t="inlineStr">
+        <is>
+          <t>Gymnothorax javanicus</t>
+        </is>
+      </c>
       <c r="X383" t="inlineStr">
         <is>
           <t>Correct species</t>
@@ -40046,6 +40241,16 @@
           <t>Limnichthys fasciatus</t>
         </is>
       </c>
+      <c r="V385" t="inlineStr">
+        <is>
+          <t>Incorrect species</t>
+        </is>
+      </c>
+      <c r="W385" t="inlineStr">
+        <is>
+          <t>Cociella crocodilus</t>
+        </is>
+      </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
@@ -40872,6 +41077,16 @@
           <t>Parupeneus chrysopleuron</t>
         </is>
       </c>
+      <c r="V393" t="inlineStr">
+        <is>
+          <t>Correct species</t>
+        </is>
+      </c>
+      <c r="W393" t="inlineStr">
+        <is>
+          <t>Parupeneus chrysopleuron</t>
+        </is>
+      </c>
       <c r="Z393" t="inlineStr">
         <is>
           <t>Correct species</t>
@@ -41076,6 +41291,16 @@
           <t>Tetrapturus pfluegeri</t>
         </is>
       </c>
+      <c r="V395" t="inlineStr">
+        <is>
+          <t>Correct species</t>
+        </is>
+      </c>
+      <c r="W395" t="inlineStr">
+        <is>
+          <t>Tetrapturus angustirostris</t>
+        </is>
+      </c>
       <c r="X395" t="inlineStr">
         <is>
           <t>Correct species</t>
@@ -41203,6 +41428,16 @@
           <t>Isurus oxyrinchus</t>
         </is>
       </c>
+      <c r="V396" t="inlineStr">
+        <is>
+          <t>Correct species</t>
+        </is>
+      </c>
+      <c r="W396" t="inlineStr">
+        <is>
+          <t>Isurus oxyrinchus</t>
+        </is>
+      </c>
       <c r="Z396" t="inlineStr">
         <is>
           <t>Correct species</t>
@@ -42156,6 +42391,16 @@
           <t>Upeneus tragula</t>
         </is>
       </c>
+      <c r="V405" t="inlineStr">
+        <is>
+          <t>Correct species</t>
+        </is>
+      </c>
+      <c r="W405" t="inlineStr">
+        <is>
+          <t>Upeneus tragula</t>
+        </is>
+      </c>
       <c r="AB405" t="inlineStr">
         <is>
           <t>Correct species</t>
@@ -42340,6 +42585,16 @@
           <t>Pseudocaranx dentex</t>
         </is>
       </c>
+      <c r="V407" t="inlineStr">
+        <is>
+          <t>Correct species</t>
+        </is>
+      </c>
+      <c r="W407" t="inlineStr">
+        <is>
+          <t>Pseudocaranx dentex</t>
+        </is>
+      </c>
       <c r="X407" t="inlineStr">
         <is>
           <t>Correct species</t>
@@ -42855,16 +43110,6 @@
           <t>Abudefduf bengalensis</t>
         </is>
       </c>
-      <c r="V412" t="inlineStr">
-        <is>
-          <t>Correct species</t>
-        </is>
-      </c>
-      <c r="W412" t="inlineStr">
-        <is>
-          <t>Abudefduf bengalensis</t>
-        </is>
-      </c>
       <c r="AB412" t="inlineStr">
         <is>
           <t>Correct species</t>
@@ -42962,6 +43207,16 @@
           <t>Tilodon sexfasciatus</t>
         </is>
       </c>
+      <c r="V413" t="inlineStr">
+        <is>
+          <t>Correct species</t>
+        </is>
+      </c>
+      <c r="W413" t="inlineStr">
+        <is>
+          <t>Tilodon sexfasciatus</t>
+        </is>
+      </c>
       <c r="X413" t="inlineStr">
         <is>
           <t>Correct species</t>
@@ -43460,6 +43715,16 @@
           <t>Phycodurus eques</t>
         </is>
       </c>
+      <c r="V417" t="inlineStr">
+        <is>
+          <t>Correct species</t>
+        </is>
+      </c>
+      <c r="W417" t="inlineStr">
+        <is>
+          <t>Phycodurus eques</t>
+        </is>
+      </c>
       <c r="X417" t="inlineStr">
         <is>
           <t>Correct species</t>
@@ -43644,16 +43909,6 @@
           <t>Dermogenys pusilla</t>
         </is>
       </c>
-      <c r="V419" t="inlineStr">
-        <is>
-          <t>Correct species</t>
-        </is>
-      </c>
-      <c r="W419" t="inlineStr">
-        <is>
-          <t>Ablennes hians</t>
-        </is>
-      </c>
       <c r="AB419" t="inlineStr">
         <is>
           <t>Correct species</t>
@@ -45115,6 +45370,16 @@
           <t>Parupeneus chrysopleuron</t>
         </is>
       </c>
+      <c r="V432" t="inlineStr">
+        <is>
+          <t>Correct species</t>
+        </is>
+      </c>
+      <c r="W432" t="inlineStr">
+        <is>
+          <t>Parupeneus chrysopleuron</t>
+        </is>
+      </c>
       <c r="Z432" t="inlineStr">
         <is>
           <t>Correct species</t>
@@ -45299,6 +45564,16 @@
           <t>Isurus oxyrinchus</t>
         </is>
       </c>
+      <c r="V434" t="inlineStr">
+        <is>
+          <t>Correct species</t>
+        </is>
+      </c>
+      <c r="W434" t="inlineStr">
+        <is>
+          <t>Isurus oxyrinchus</t>
+        </is>
+      </c>
       <c r="X434" t="inlineStr">
         <is>
           <t>Correct species</t>
@@ -45553,6 +45828,16 @@
           <t>Psammoperca waigiensis</t>
         </is>
       </c>
+      <c r="V436" t="inlineStr">
+        <is>
+          <t>Correct species</t>
+        </is>
+      </c>
+      <c r="W436" t="inlineStr">
+        <is>
+          <t>Psammoperca waigiensis</t>
+        </is>
+      </c>
       <c r="X436" t="inlineStr">
         <is>
           <t>Correct species</t>
@@ -45727,6 +46012,16 @@
           <t>Lophonectes gallus</t>
         </is>
       </c>
+      <c r="V438" t="inlineStr">
+        <is>
+          <t>Correct species</t>
+        </is>
+      </c>
+      <c r="W438" t="inlineStr">
+        <is>
+          <t>Lophonectes gallus</t>
+        </is>
+      </c>
       <c r="X438" t="inlineStr">
         <is>
           <t>Correct species</t>
@@ -45824,16 +46119,6 @@
           <t>Seriola lalandi</t>
         </is>
       </c>
-      <c r="V439" t="inlineStr">
-        <is>
-          <t>Incorrect species</t>
-        </is>
-      </c>
-      <c r="W439" t="inlineStr">
-        <is>
-          <t>Seriola zonata</t>
-        </is>
-      </c>
       <c r="X439" t="inlineStr">
         <is>
           <t>Correct species</t>
@@ -45971,6 +46256,16 @@
           <t>Lethrinus laticaudis</t>
         </is>
       </c>
+      <c r="V440" t="inlineStr">
+        <is>
+          <t>Correct species</t>
+        </is>
+      </c>
+      <c r="W440" t="inlineStr">
+        <is>
+          <t>Lethrinus laticaudis</t>
+        </is>
+      </c>
       <c r="Z440" t="inlineStr">
         <is>
           <t>Correct species</t>
@@ -46723,6 +47018,16 @@
           <t>Pempheris schwenkii</t>
         </is>
       </c>
+      <c r="V446" t="inlineStr">
+        <is>
+          <t>Correct species</t>
+        </is>
+      </c>
+      <c r="W446" t="inlineStr">
+        <is>
+          <t>Pempheris schwenkii</t>
+        </is>
+      </c>
       <c r="X446" t="inlineStr">
         <is>
           <t>Correct species</t>
@@ -46832,12 +47137,12 @@
       </c>
       <c r="V447" t="inlineStr">
         <is>
-          <t>Incorrect species</t>
+          <t>Correct species</t>
         </is>
       </c>
       <c r="W447" t="inlineStr">
         <is>
-          <t>Rhabdosargus haffara</t>
+          <t>Rhabdosargus sarba</t>
         </is>
       </c>
       <c r="X447" t="inlineStr">
@@ -48301,6 +48606,16 @@
           <t>Hyperlophus vittatus</t>
         </is>
       </c>
+      <c r="V460" t="inlineStr">
+        <is>
+          <t>Correct species</t>
+        </is>
+      </c>
+      <c r="W460" t="inlineStr">
+        <is>
+          <t>Hyperlophus vittatus</t>
+        </is>
+      </c>
       <c r="X460" t="inlineStr">
         <is>
           <t>Correct species</t>
@@ -48829,6 +49144,16 @@
           <t>Polyspina piosae</t>
         </is>
       </c>
+      <c r="V464" t="inlineStr">
+        <is>
+          <t>Correct species</t>
+        </is>
+      </c>
+      <c r="W464" t="inlineStr">
+        <is>
+          <t>Polyspina piosae</t>
+        </is>
+      </c>
       <c r="X464" t="inlineStr">
         <is>
           <t>Correct species</t>
@@ -49297,6 +49622,16 @@
           <t>Enoplosus armatus</t>
         </is>
       </c>
+      <c r="V468" t="inlineStr">
+        <is>
+          <t>Correct species</t>
+        </is>
+      </c>
+      <c r="W468" t="inlineStr">
+        <is>
+          <t>Enoplosus armatus</t>
+        </is>
+      </c>
       <c r="X468" t="inlineStr">
         <is>
           <t>Correct species</t>
@@ -49708,6 +50043,16 @@
           <t>Eubalichthys mosaicus</t>
         </is>
       </c>
+      <c r="V471" t="inlineStr">
+        <is>
+          <t>Correct species</t>
+        </is>
+      </c>
+      <c r="W471" t="inlineStr">
+        <is>
+          <t>Eubalichthys mosaicus</t>
+        </is>
+      </c>
       <c r="X471" t="inlineStr">
         <is>
           <t>Correct species</t>
@@ -49982,6 +50327,16 @@
           <t>Acanthaluteres brownii</t>
         </is>
       </c>
+      <c r="V473" t="inlineStr">
+        <is>
+          <t>Correct species</t>
+        </is>
+      </c>
+      <c r="W473" t="inlineStr">
+        <is>
+          <t>Acanthaluteres brownii</t>
+        </is>
+      </c>
       <c r="Z473" t="inlineStr">
         <is>
           <t>Correct species</t>
@@ -50071,12 +50426,12 @@
       </c>
       <c r="V474" t="inlineStr">
         <is>
-          <t>Incorrect species</t>
+          <t>Correct species</t>
         </is>
       </c>
       <c r="W474" t="inlineStr">
         <is>
-          <t>Scarus fuscopurpureus</t>
+          <t>Scarus schlegeli</t>
         </is>
       </c>
       <c r="X474" t="inlineStr">
@@ -50206,6 +50561,16 @@
           <t>Scobinichthys granulatus</t>
         </is>
       </c>
+      <c r="V475" t="inlineStr">
+        <is>
+          <t>Correct species</t>
+        </is>
+      </c>
+      <c r="W475" t="inlineStr">
+        <is>
+          <t>Scobinichthys granulatus</t>
+        </is>
+      </c>
       <c r="X475" t="inlineStr">
         <is>
           <t>Correct species</t>
@@ -50597,6 +50962,16 @@
           <t>Scarus ghobban</t>
         </is>
       </c>
+      <c r="V478" t="inlineStr">
+        <is>
+          <t>Correct species</t>
+        </is>
+      </c>
+      <c r="W478" t="inlineStr">
+        <is>
+          <t>Scarus ghobban</t>
+        </is>
+      </c>
       <c r="X478" t="inlineStr">
         <is>
           <t>Correct species</t>
@@ -51107,6 +51482,11 @@
           <t>Halichoeres nigrescens</t>
         </is>
       </c>
+      <c r="W483" t="inlineStr">
+        <is>
+          <t>Thalassoma lunare</t>
+        </is>
+      </c>
       <c r="AC483" t="inlineStr">
         <is>
           <t>Halichoeres nigrescens</t>
@@ -51164,6 +51544,16 @@
           <t>Macroramphosus scolopax</t>
         </is>
       </c>
+      <c r="V484" t="inlineStr">
+        <is>
+          <t>Correct species</t>
+        </is>
+      </c>
+      <c r="W484" t="inlineStr">
+        <is>
+          <t>Macroramphosus scolopax</t>
+        </is>
+      </c>
       <c r="AB484" t="inlineStr">
         <is>
           <t>Incorrect species</t>
@@ -51418,6 +51808,16 @@
           <t>Spratelloides delicatulus</t>
         </is>
       </c>
+      <c r="V486" t="inlineStr">
+        <is>
+          <t>Correct species</t>
+        </is>
+      </c>
+      <c r="W486" t="inlineStr">
+        <is>
+          <t>Spratelloides delicatulus</t>
+        </is>
+      </c>
       <c r="X486" t="inlineStr">
         <is>
           <t>Correct species</t>
@@ -51505,6 +51905,16 @@
           <t>Siganus fuscescens</t>
         </is>
       </c>
+      <c r="V487" t="inlineStr">
+        <is>
+          <t>Incorrect species</t>
+        </is>
+      </c>
+      <c r="W487" t="inlineStr">
+        <is>
+          <t>Siganus canaliculatus</t>
+        </is>
+      </c>
       <c r="X487" t="inlineStr">
         <is>
           <t>Correct species</t>
@@ -51602,16 +52012,6 @@
           <t>Synodus variegatus</t>
         </is>
       </c>
-      <c r="V488" t="inlineStr">
-        <is>
-          <t>Incorrect species</t>
-        </is>
-      </c>
-      <c r="W488" t="inlineStr">
-        <is>
-          <t>Synodus dermatogenys</t>
-        </is>
-      </c>
       <c r="X488" t="inlineStr">
         <is>
           <t>Correct species</t>
@@ -51738,12 +52138,12 @@
       </c>
       <c r="V490" t="inlineStr">
         <is>
-          <t>Incorrect species</t>
+          <t>Correct species</t>
         </is>
       </c>
       <c r="W490" t="inlineStr">
         <is>
-          <t>Petroscirtes variabilis</t>
+          <t>Petroscirtes breviceps</t>
         </is>
       </c>
       <c r="X490" t="inlineStr">
@@ -59556,7 +59956,7 @@
       </c>
       <c r="W559" t="inlineStr">
         <is>
-          <t>Torquigener albomaculosus</t>
+          <t>Takifugu rubripes</t>
         </is>
       </c>
       <c r="Z559" t="inlineStr">
@@ -60248,16 +60648,6 @@
           <t>Pervagor janthinosoma</t>
         </is>
       </c>
-      <c r="V566" t="inlineStr">
-        <is>
-          <t>Incorrect species</t>
-        </is>
-      </c>
-      <c r="W566" t="inlineStr">
-        <is>
-          <t>Thamnaconus hypargyreus</t>
-        </is>
-      </c>
     </row>
     <row r="567">
       <c r="A567" t="inlineStr">
@@ -60967,7 +61357,7 @@
       </c>
       <c r="W572" t="inlineStr">
         <is>
-          <t>Aracana aurita</t>
+          <t>Anoplocapros inermis</t>
         </is>
       </c>
       <c r="AB572" t="inlineStr">
@@ -64263,7 +64653,7 @@
       </c>
       <c r="W600" t="inlineStr">
         <is>
-          <t>Seriola quinqueradiata</t>
+          <t>Seriola lalandi</t>
         </is>
       </c>
       <c r="AB600" t="inlineStr">
@@ -68014,6 +68404,16 @@
           <t>Carcharias taurus</t>
         </is>
       </c>
+      <c r="V629" t="inlineStr">
+        <is>
+          <t>Correct species</t>
+        </is>
+      </c>
+      <c r="W629" t="inlineStr">
+        <is>
+          <t>Carcharias taurus</t>
+        </is>
+      </c>
       <c r="Z629" t="inlineStr">
         <is>
           <t>Correct species</t>
@@ -69508,7 +69908,7 @@
       </c>
       <c r="W640" t="inlineStr">
         <is>
-          <t>Seriola quinqueradiata</t>
+          <t>Seriola lalandi</t>
         </is>
       </c>
       <c r="AA640" t="inlineStr">
@@ -74103,16 +74503,6 @@
           <t>Scarus tricolor</t>
         </is>
       </c>
-      <c r="V681" t="inlineStr">
-        <is>
-          <t>Incorrect species</t>
-        </is>
-      </c>
-      <c r="W681" t="inlineStr">
-        <is>
-          <t>Scarus tricolor</t>
-        </is>
-      </c>
     </row>
     <row r="682">
       <c r="A682" t="inlineStr">
@@ -76663,16 +77053,6 @@
       <c r="O707" t="inlineStr">
         <is>
           <t>Orectolobus halei</t>
-        </is>
-      </c>
-      <c r="V707" t="inlineStr">
-        <is>
-          <t>Incorrect species</t>
-        </is>
-      </c>
-      <c r="W707" t="inlineStr">
-        <is>
-          <t>Thamnaconus degeni</t>
         </is>
       </c>
       <c r="AB707" t="inlineStr">

--- a/results/tables/Big_species_table.xlsx
+++ b/results/tables/Big_species_table.xlsx
@@ -22336,6 +22336,16 @@
           <t>Phycodurus eques</t>
         </is>
       </c>
+      <c r="N200" t="inlineStr">
+        <is>
+          <t>Incorrect species</t>
+        </is>
+      </c>
+      <c r="O200" t="inlineStr">
+        <is>
+          <t>Vanacampus phillipi</t>
+        </is>
+      </c>
       <c r="X200" t="inlineStr">
         <is>
           <t>Correct species</t>
@@ -22413,6 +22423,11 @@
           <t>Catharacta skua</t>
         </is>
       </c>
+      <c r="O201" t="inlineStr">
+        <is>
+          <t>Anas gracilis</t>
+        </is>
+      </c>
       <c r="AG201" t="inlineStr">
         <is>
           <t>Stercorarius skua</t>
@@ -22569,6 +22584,16 @@
           <t>Myoxocephalus quadricornis</t>
         </is>
       </c>
+      <c r="N204" t="inlineStr">
+        <is>
+          <t>Correct species</t>
+        </is>
+      </c>
+      <c r="O204" t="inlineStr">
+        <is>
+          <t>Myoxocephalus quadricornis</t>
+        </is>
+      </c>
       <c r="V204" t="inlineStr">
         <is>
           <t>Correct species</t>
@@ -22810,6 +22835,16 @@
           <t>Sardinella jussieu</t>
         </is>
       </c>
+      <c r="N207" t="inlineStr">
+        <is>
+          <t>Incorrect species</t>
+        </is>
+      </c>
+      <c r="O207" t="inlineStr">
+        <is>
+          <t>Sardinella gibbosa</t>
+        </is>
+      </c>
       <c r="AB207" t="inlineStr">
         <is>
           <t>Incorrect species</t>
@@ -23285,6 +23320,16 @@
           <t>Phyllopteryx taeniolatus</t>
         </is>
       </c>
+      <c r="N212" t="inlineStr">
+        <is>
+          <t>Incorrect species</t>
+        </is>
+      </c>
+      <c r="O212" t="inlineStr">
+        <is>
+          <t>Vanacampus poecilolaemus</t>
+        </is>
+      </c>
       <c r="V212" t="inlineStr">
         <is>
           <t>Correct species</t>
@@ -23571,6 +23616,16 @@
           <t>Bolbometopon muricatum</t>
         </is>
       </c>
+      <c r="N215" t="inlineStr">
+        <is>
+          <t>Correct species</t>
+        </is>
+      </c>
+      <c r="O215" t="inlineStr">
+        <is>
+          <t>Bolbometopon muricatum</t>
+        </is>
+      </c>
       <c r="V215" t="inlineStr">
         <is>
           <t>Correct species</t>
@@ -23658,6 +23713,11 @@
           <t>Sphyraena barracuda</t>
         </is>
       </c>
+      <c r="O216" t="inlineStr">
+        <is>
+          <t>Neoepinnula americana</t>
+        </is>
+      </c>
       <c r="AC216" t="inlineStr">
         <is>
           <t>Sphyraena barracuda</t>
@@ -23777,6 +23837,16 @@
           <t>Plectorhinchus vittatus</t>
         </is>
       </c>
+      <c r="N218" t="inlineStr">
+        <is>
+          <t>Incorrect species</t>
+        </is>
+      </c>
+      <c r="O218" t="inlineStr">
+        <is>
+          <t>Calidris fuscicollis</t>
+        </is>
+      </c>
       <c r="X218" t="inlineStr">
         <is>
           <t>Correct species</t>
@@ -23894,6 +23964,16 @@
           <t>Centropyge interrupta</t>
         </is>
       </c>
+      <c r="N219" t="inlineStr">
+        <is>
+          <t>Incorrect species</t>
+        </is>
+      </c>
+      <c r="O219" t="inlineStr">
+        <is>
+          <t>Gunnellichthys viridescens</t>
+        </is>
+      </c>
       <c r="X219" t="inlineStr">
         <is>
           <t>Correct species</t>
@@ -23941,6 +24021,11 @@
           <t>Argyrosomus japonicus</t>
         </is>
       </c>
+      <c r="O220" t="inlineStr">
+        <is>
+          <t>Atherina breviceps</t>
+        </is>
+      </c>
       <c r="AC220" t="inlineStr">
         <is>
           <t>Argyrosomus japonicus</t>
@@ -23993,6 +24078,16 @@
           <t>Ardea purpurea</t>
         </is>
       </c>
+      <c r="N221" t="inlineStr">
+        <is>
+          <t>Incorrect species</t>
+        </is>
+      </c>
+      <c r="O221" t="inlineStr">
+        <is>
+          <t>Austroglossus microlepis</t>
+        </is>
+      </c>
       <c r="AB221" t="inlineStr">
         <is>
           <t>Correct species</t>
@@ -24361,6 +24456,16 @@
           <t>Carcharhinus amblyrhynchoides</t>
         </is>
       </c>
+      <c r="N225" t="inlineStr">
+        <is>
+          <t>Incorrect species</t>
+        </is>
+      </c>
+      <c r="O225" t="inlineStr">
+        <is>
+          <t>Carcharhinus perezii</t>
+        </is>
+      </c>
       <c r="AB225" t="inlineStr">
         <is>
           <t>Incorrect species</t>
@@ -24545,6 +24650,16 @@
           <t>Alopias pelagicus</t>
         </is>
       </c>
+      <c r="N227" t="inlineStr">
+        <is>
+          <t>Incorrect species</t>
+        </is>
+      </c>
+      <c r="O227" t="inlineStr">
+        <is>
+          <t>Apristurus australis</t>
+        </is>
+      </c>
       <c r="V227" t="inlineStr">
         <is>
           <t>Correct species</t>
@@ -24672,6 +24787,16 @@
           <t>Paracirrhites arcatus</t>
         </is>
       </c>
+      <c r="N228" t="inlineStr">
+        <is>
+          <t>Incorrect species</t>
+        </is>
+      </c>
+      <c r="O228" t="inlineStr">
+        <is>
+          <t>Canthigaster criobe</t>
+        </is>
+      </c>
       <c r="V228" t="inlineStr">
         <is>
           <t>Correct species</t>
@@ -25020,6 +25145,16 @@
           <t>Potamothrissa acutirostris</t>
         </is>
       </c>
+      <c r="N232" t="inlineStr">
+        <is>
+          <t>Incorrect species</t>
+        </is>
+      </c>
+      <c r="O232" t="inlineStr">
+        <is>
+          <t>Tenualosa thibaudeaui</t>
+        </is>
+      </c>
       <c r="X232" t="inlineStr">
         <is>
           <t>Correct species</t>
@@ -25219,6 +25354,11 @@
           <t>Syngnathidae</t>
         </is>
       </c>
+      <c r="O234" t="inlineStr">
+        <is>
+          <t>Syngnathus exilis</t>
+        </is>
+      </c>
       <c r="AC234" t="inlineStr">
         <is>
           <t>Syngnathus californiensis</t>
@@ -25291,6 +25431,16 @@
           <t>Sphoeroides parvus</t>
         </is>
       </c>
+      <c r="N235" t="inlineStr">
+        <is>
+          <t>Incorrect species</t>
+        </is>
+      </c>
+      <c r="O235" t="inlineStr">
+        <is>
+          <t>Tetraodon pustulatus</t>
+        </is>
+      </c>
       <c r="X235" t="inlineStr">
         <is>
           <t>Correct species</t>
@@ -25525,6 +25675,16 @@
           <t>Chimaera fulva</t>
         </is>
       </c>
+      <c r="N237" t="inlineStr">
+        <is>
+          <t>Incorrect species</t>
+        </is>
+      </c>
+      <c r="O237" t="inlineStr">
+        <is>
+          <t>Pempheris multiradiata</t>
+        </is>
+      </c>
       <c r="X237" t="inlineStr">
         <is>
           <t>Correct species</t>
@@ -25642,6 +25802,16 @@
           <t>Diceratias pileatus</t>
         </is>
       </c>
+      <c r="N238" t="inlineStr">
+        <is>
+          <t>Incorrect species</t>
+        </is>
+      </c>
+      <c r="O238" t="inlineStr">
+        <is>
+          <t>Iso hawaiiensis</t>
+        </is>
+      </c>
       <c r="X238" t="inlineStr">
         <is>
           <t>Correct species</t>
@@ -26102,6 +26272,16 @@
           <t>Alosa pseudoharengus</t>
         </is>
       </c>
+      <c r="N243" t="inlineStr">
+        <is>
+          <t>Incorrect species</t>
+        </is>
+      </c>
+      <c r="O243" t="inlineStr">
+        <is>
+          <t>Ammodytes dubius</t>
+        </is>
+      </c>
       <c r="X243" t="inlineStr">
         <is>
           <t>Correct species</t>
@@ -26480,6 +26660,16 @@
           <t>Anguilla mossambica</t>
         </is>
       </c>
+      <c r="N247" t="inlineStr">
+        <is>
+          <t>Correct species</t>
+        </is>
+      </c>
+      <c r="O247" t="inlineStr">
+        <is>
+          <t>Anguilla mossambica</t>
+        </is>
+      </c>
       <c r="X247" t="inlineStr">
         <is>
           <t>Correct species</t>
@@ -26557,6 +26747,16 @@
           <t>Thunnus thynnus</t>
         </is>
       </c>
+      <c r="N248" t="inlineStr">
+        <is>
+          <t>Correct species</t>
+        </is>
+      </c>
+      <c r="O248" t="inlineStr">
+        <is>
+          <t>Thunnus thynnus</t>
+        </is>
+      </c>
       <c r="AB248" t="inlineStr">
         <is>
           <t>Correct species</t>
@@ -26604,6 +26804,16 @@
           <t>Trachurus japonicus</t>
         </is>
       </c>
+      <c r="N249" t="inlineStr">
+        <is>
+          <t>Incorrect species</t>
+        </is>
+      </c>
+      <c r="O249" t="inlineStr">
+        <is>
+          <t>Ecsenius pulcher</t>
+        </is>
+      </c>
       <c r="AB249" t="inlineStr">
         <is>
           <t>Incorrect species</t>
@@ -26651,6 +26861,11 @@
           <t>Istiophorus platypterus</t>
         </is>
       </c>
+      <c r="O250" t="inlineStr">
+        <is>
+          <t>Lycenchelys camchatica</t>
+        </is>
+      </c>
       <c r="AC250" t="inlineStr">
         <is>
           <t>Istiophorus platypterus</t>
@@ -26733,6 +26948,16 @@
           <t>Gymnothorax emmae</t>
         </is>
       </c>
+      <c r="N251" t="inlineStr">
+        <is>
+          <t>Correct species</t>
+        </is>
+      </c>
+      <c r="O251" t="inlineStr">
+        <is>
+          <t>Gymnothorax emmae</t>
+        </is>
+      </c>
       <c r="V251" t="inlineStr">
         <is>
           <t>Correct species</t>
@@ -26860,6 +27085,16 @@
           <t>Taenioides cirratus</t>
         </is>
       </c>
+      <c r="N252" t="inlineStr">
+        <is>
+          <t>Correct species</t>
+        </is>
+      </c>
+      <c r="O252" t="inlineStr">
+        <is>
+          <t>Taenioides cirratus</t>
+        </is>
+      </c>
       <c r="X252" t="inlineStr">
         <is>
           <t>Correct species</t>
@@ -26947,6 +27182,16 @@
           <t>Acanthurus nigricans</t>
         </is>
       </c>
+      <c r="N253" t="inlineStr">
+        <is>
+          <t>Incorrect species</t>
+        </is>
+      </c>
+      <c r="O253" t="inlineStr">
+        <is>
+          <t>Amblyeleotris sungami</t>
+        </is>
+      </c>
       <c r="AB253" t="inlineStr">
         <is>
           <t>Correct species</t>
@@ -27171,6 +27416,16 @@
           <t>Balaena mysticetus</t>
         </is>
       </c>
+      <c r="N255" t="inlineStr">
+        <is>
+          <t>Incorrect species</t>
+        </is>
+      </c>
+      <c r="O255" t="inlineStr">
+        <is>
+          <t>Phocoenoides dalli</t>
+        </is>
+      </c>
       <c r="V255" t="inlineStr">
         <is>
           <t>Correct species</t>
@@ -27288,6 +27543,16 @@
           <t>Zalophus wollebaeki</t>
         </is>
       </c>
+      <c r="N256" t="inlineStr">
+        <is>
+          <t>Incorrect species</t>
+        </is>
+      </c>
+      <c r="O256" t="inlineStr">
+        <is>
+          <t>Rhinogobius shennongensis</t>
+        </is>
+      </c>
       <c r="X256" t="inlineStr">
         <is>
           <t>Correct species</t>
@@ -27631,6 +27896,16 @@
           <t>Neogobius melanostomus</t>
         </is>
       </c>
+      <c r="N260" t="inlineStr">
+        <is>
+          <t>Incorrect species</t>
+        </is>
+      </c>
+      <c r="O260" t="inlineStr">
+        <is>
+          <t>Ponticola platyrostris</t>
+        </is>
+      </c>
       <c r="X260" t="inlineStr">
         <is>
           <t>Correct species</t>
@@ -27748,6 +28023,16 @@
           <t>Chaetodon auriga</t>
         </is>
       </c>
+      <c r="N261" t="inlineStr">
+        <is>
+          <t>Incorrect species</t>
+        </is>
+      </c>
+      <c r="O261" t="inlineStr">
+        <is>
+          <t>Parapercis multiplicata</t>
+        </is>
+      </c>
       <c r="V261" t="inlineStr">
         <is>
           <t>Correct species</t>
@@ -27845,6 +28130,16 @@
           <t>Trichiurus japonicus</t>
         </is>
       </c>
+      <c r="N262" t="inlineStr">
+        <is>
+          <t>Correct species</t>
+        </is>
+      </c>
+      <c r="O262" t="inlineStr">
+        <is>
+          <t>Trichiurus japonicus</t>
+        </is>
+      </c>
       <c r="AB262" t="inlineStr">
         <is>
           <t>Correct species</t>
@@ -27932,6 +28227,16 @@
           <t>Scleropages formosus</t>
         </is>
       </c>
+      <c r="N263" t="inlineStr">
+        <is>
+          <t>Incorrect species</t>
+        </is>
+      </c>
+      <c r="O263" t="inlineStr">
+        <is>
+          <t>Apogon aurolineatus</t>
+        </is>
+      </c>
       <c r="V263" t="inlineStr">
         <is>
           <t>Correct species</t>
@@ -28029,6 +28334,16 @@
           <t>Auxis rochei</t>
         </is>
       </c>
+      <c r="N264" t="inlineStr">
+        <is>
+          <t>Incorrect species</t>
+        </is>
+      </c>
+      <c r="O264" t="inlineStr">
+        <is>
+          <t>Cyclothone pacifica</t>
+        </is>
+      </c>
       <c r="AB264" t="inlineStr">
         <is>
           <t>Correct species</t>
@@ -28379,6 +28694,11 @@
           <t>Anatidae</t>
         </is>
       </c>
+      <c r="O269" t="inlineStr">
+        <is>
+          <t>Parascombrops nakayamai</t>
+        </is>
+      </c>
       <c r="AC269" t="inlineStr">
         <is>
           <t>Anas platyrhynchos</t>
@@ -28416,6 +28736,11 @@
           <t>Lentipes armatus</t>
         </is>
       </c>
+      <c r="O270" t="inlineStr">
+        <is>
+          <t>Lentipes whittenorum</t>
+        </is>
+      </c>
       <c r="AC270" t="inlineStr">
         <is>
           <t>Lentipes ikeae</t>
@@ -28821,6 +29146,11 @@
           <t>Arothron stellatus</t>
         </is>
       </c>
+      <c r="O275" t="inlineStr">
+        <is>
+          <t>Arothron stellatus</t>
+        </is>
+      </c>
       <c r="W275" t="inlineStr">
         <is>
           <t>Arothron stellatus</t>
@@ -29072,6 +29402,16 @@
           <t>Tridentiger brevispinis</t>
         </is>
       </c>
+      <c r="N278" t="inlineStr">
+        <is>
+          <t>Incorrect species</t>
+        </is>
+      </c>
+      <c r="O278" t="inlineStr">
+        <is>
+          <t>Chrysoblephus puniceus</t>
+        </is>
+      </c>
       <c r="AB278" t="inlineStr">
         <is>
           <t>Correct species</t>
@@ -29343,6 +29683,16 @@
           <t>Bathytoshia brevicaudata</t>
         </is>
       </c>
+      <c r="N281" t="inlineStr">
+        <is>
+          <t>Incorrect species</t>
+        </is>
+      </c>
+      <c r="O281" t="inlineStr">
+        <is>
+          <t>Cynoscion striatus</t>
+        </is>
+      </c>
       <c r="V281" t="inlineStr">
         <is>
           <t>Correct species</t>
@@ -29751,6 +30101,16 @@
           <t>Calidris tenuirostris</t>
         </is>
       </c>
+      <c r="N285" t="inlineStr">
+        <is>
+          <t>Incorrect species</t>
+        </is>
+      </c>
+      <c r="O285" t="inlineStr">
+        <is>
+          <t>Clangula hyemalis</t>
+        </is>
+      </c>
       <c r="V285" t="inlineStr">
         <is>
           <t>Correct species</t>
@@ -29858,6 +30218,16 @@
           <t>Lycenchelys kolthoffi</t>
         </is>
       </c>
+      <c r="N286" t="inlineStr">
+        <is>
+          <t>Incorrect species</t>
+        </is>
+      </c>
+      <c r="O286" t="inlineStr">
+        <is>
+          <t>Macrourus berglax</t>
+        </is>
+      </c>
       <c r="Z286" t="inlineStr">
         <is>
           <t>Incorrect species</t>
@@ -30427,6 +30797,16 @@
           <t>Cheilinus undulatus</t>
         </is>
       </c>
+      <c r="N293" t="inlineStr">
+        <is>
+          <t>Incorrect species</t>
+        </is>
+      </c>
+      <c r="O293" t="inlineStr">
+        <is>
+          <t>Chrysoblephus anglicus</t>
+        </is>
+      </c>
       <c r="V293" t="inlineStr">
         <is>
           <t>Correct species</t>
@@ -30554,6 +30934,16 @@
           <t>Eleotris fusca</t>
         </is>
       </c>
+      <c r="N294" t="inlineStr">
+        <is>
+          <t>Correct species</t>
+        </is>
+      </c>
+      <c r="O294" t="inlineStr">
+        <is>
+          <t>Eleotris fusca</t>
+        </is>
+      </c>
       <c r="V294" t="inlineStr">
         <is>
           <t>Correct species</t>
@@ -30681,6 +31071,16 @@
           <t>Globicephala macrorhynchus</t>
         </is>
       </c>
+      <c r="N295" t="inlineStr">
+        <is>
+          <t>Correct species</t>
+        </is>
+      </c>
+      <c r="O295" t="inlineStr">
+        <is>
+          <t>Globicephala macrorhynchus</t>
+        </is>
+      </c>
       <c r="V295" t="inlineStr">
         <is>
           <t>Correct species</t>
@@ -30825,6 +31225,16 @@
           <t>Thryssa kammalensis</t>
         </is>
       </c>
+      <c r="N297" t="inlineStr">
+        <is>
+          <t>Incorrect species</t>
+        </is>
+      </c>
+      <c r="O297" t="inlineStr">
+        <is>
+          <t>Jaydia queketti</t>
+        </is>
+      </c>
       <c r="X297" t="inlineStr">
         <is>
           <t>Correct species</t>
@@ -30922,6 +31332,16 @@
           <t>Anser cygnoides</t>
         </is>
       </c>
+      <c r="N298" t="inlineStr">
+        <is>
+          <t>Incorrect species</t>
+        </is>
+      </c>
+      <c r="O298" t="inlineStr">
+        <is>
+          <t>Haliaeetus pelagicus</t>
+        </is>
+      </c>
       <c r="X298" t="inlineStr">
         <is>
           <t>Correct species</t>
@@ -31015,6 +31435,16 @@
         </is>
       </c>
       <c r="M299" t="inlineStr">
+        <is>
+          <t>Krefftichthys anderssoni</t>
+        </is>
+      </c>
+      <c r="N299" t="inlineStr">
+        <is>
+          <t>Correct species</t>
+        </is>
+      </c>
+      <c r="O299" t="inlineStr">
         <is>
           <t>Krefftichthys anderssoni</t>
         </is>

--- a/results/tables/Big_species_table.xlsx
+++ b/results/tables/Big_species_table.xlsx
@@ -22346,6 +22346,36 @@
           <t>Vanacampus phillipi</t>
         </is>
       </c>
+      <c r="P200" t="inlineStr">
+        <is>
+          <t>Correct species</t>
+        </is>
+      </c>
+      <c r="Q200" t="inlineStr">
+        <is>
+          <t>Phycodurus eques</t>
+        </is>
+      </c>
+      <c r="R200" t="inlineStr">
+        <is>
+          <t>Correct species</t>
+        </is>
+      </c>
+      <c r="S200" t="inlineStr">
+        <is>
+          <t>Phycodurus eques</t>
+        </is>
+      </c>
+      <c r="T200" t="inlineStr">
+        <is>
+          <t>Correct species</t>
+        </is>
+      </c>
+      <c r="U200" t="inlineStr">
+        <is>
+          <t>Phycodurus eques</t>
+        </is>
+      </c>
       <c r="X200" t="inlineStr">
         <is>
           <t>Correct species</t>
@@ -22460,6 +22490,16 @@
           <t>Diaphus gigas</t>
         </is>
       </c>
+      <c r="P202" t="inlineStr">
+        <is>
+          <t>Incorrect species</t>
+        </is>
+      </c>
+      <c r="Q202" t="inlineStr">
+        <is>
+          <t>Diaphus effulgens</t>
+        </is>
+      </c>
       <c r="V202" t="inlineStr">
         <is>
           <t>Incorrect species</t>
@@ -22594,6 +22634,26 @@
           <t>Myoxocephalus quadricornis</t>
         </is>
       </c>
+      <c r="P204" t="inlineStr">
+        <is>
+          <t>Correct species</t>
+        </is>
+      </c>
+      <c r="Q204" t="inlineStr">
+        <is>
+          <t>Myoxocephalus quadricornis</t>
+        </is>
+      </c>
+      <c r="R204" t="inlineStr">
+        <is>
+          <t>Correct species</t>
+        </is>
+      </c>
+      <c r="S204" t="inlineStr">
+        <is>
+          <t>Myoxocephalus quadricornis</t>
+        </is>
+      </c>
       <c r="V204" t="inlineStr">
         <is>
           <t>Correct species</t>
@@ -22711,6 +22771,36 @@
           <t>Minous monodactylus</t>
         </is>
       </c>
+      <c r="P205" t="inlineStr">
+        <is>
+          <t>Correct species</t>
+        </is>
+      </c>
+      <c r="Q205" t="inlineStr">
+        <is>
+          <t>Minous monodactylus</t>
+        </is>
+      </c>
+      <c r="R205" t="inlineStr">
+        <is>
+          <t>Correct species</t>
+        </is>
+      </c>
+      <c r="S205" t="inlineStr">
+        <is>
+          <t>Minous monodactylus</t>
+        </is>
+      </c>
+      <c r="T205" t="inlineStr">
+        <is>
+          <t>Correct species</t>
+        </is>
+      </c>
+      <c r="U205" t="inlineStr">
+        <is>
+          <t>Minous monodactylus</t>
+        </is>
+      </c>
       <c r="X205" t="inlineStr">
         <is>
           <t>Correct species</t>
@@ -22932,6 +23022,16 @@
           <t>Sicyopterus lengguru</t>
         </is>
       </c>
+      <c r="P208" t="inlineStr">
+        <is>
+          <t>Correct species</t>
+        </is>
+      </c>
+      <c r="Q208" t="inlineStr">
+        <is>
+          <t>Sicyopterus lengguru</t>
+        </is>
+      </c>
       <c r="X208" t="inlineStr">
         <is>
           <t>Correct species</t>
@@ -23203,6 +23303,16 @@
           <t>Cheilopogon agoo</t>
         </is>
       </c>
+      <c r="P211" t="inlineStr">
+        <is>
+          <t>Correct species</t>
+        </is>
+      </c>
+      <c r="Q211" t="inlineStr">
+        <is>
+          <t>Cheilopogon agoo</t>
+        </is>
+      </c>
       <c r="X211" t="inlineStr">
         <is>
           <t>Correct species</t>
@@ -23330,6 +23440,36 @@
           <t>Vanacampus poecilolaemus</t>
         </is>
       </c>
+      <c r="P212" t="inlineStr">
+        <is>
+          <t>Correct species</t>
+        </is>
+      </c>
+      <c r="Q212" t="inlineStr">
+        <is>
+          <t>Phyllopteryx taeniolatus</t>
+        </is>
+      </c>
+      <c r="R212" t="inlineStr">
+        <is>
+          <t>Correct species</t>
+        </is>
+      </c>
+      <c r="S212" t="inlineStr">
+        <is>
+          <t>Phyllopteryx taeniolatus</t>
+        </is>
+      </c>
+      <c r="T212" t="inlineStr">
+        <is>
+          <t>Correct species</t>
+        </is>
+      </c>
+      <c r="U212" t="inlineStr">
+        <is>
+          <t>Phyllopteryx taeniolatus</t>
+        </is>
+      </c>
       <c r="V212" t="inlineStr">
         <is>
           <t>Correct species</t>
@@ -23489,6 +23629,36 @@
           <t>Squatina squatina</t>
         </is>
       </c>
+      <c r="P214" t="inlineStr">
+        <is>
+          <t>Correct species</t>
+        </is>
+      </c>
+      <c r="Q214" t="inlineStr">
+        <is>
+          <t>Squatina squatina</t>
+        </is>
+      </c>
+      <c r="R214" t="inlineStr">
+        <is>
+          <t>Correct species</t>
+        </is>
+      </c>
+      <c r="S214" t="inlineStr">
+        <is>
+          <t>Squatina squatina</t>
+        </is>
+      </c>
+      <c r="T214" t="inlineStr">
+        <is>
+          <t>Correct species</t>
+        </is>
+      </c>
+      <c r="U214" t="inlineStr">
+        <is>
+          <t>Squatina squatina</t>
+        </is>
+      </c>
       <c r="V214" t="inlineStr">
         <is>
           <t>Correct species</t>
@@ -23626,6 +23796,36 @@
           <t>Bolbometopon muricatum</t>
         </is>
       </c>
+      <c r="P215" t="inlineStr">
+        <is>
+          <t>Correct species</t>
+        </is>
+      </c>
+      <c r="Q215" t="inlineStr">
+        <is>
+          <t>Bolbometopon muricatum</t>
+        </is>
+      </c>
+      <c r="R215" t="inlineStr">
+        <is>
+          <t>Correct species</t>
+        </is>
+      </c>
+      <c r="S215" t="inlineStr">
+        <is>
+          <t>Bolbometopon muricatum</t>
+        </is>
+      </c>
+      <c r="T215" t="inlineStr">
+        <is>
+          <t>Correct species</t>
+        </is>
+      </c>
+      <c r="U215" t="inlineStr">
+        <is>
+          <t>Bolbometopon muricatum</t>
+        </is>
+      </c>
       <c r="V215" t="inlineStr">
         <is>
           <t>Correct species</t>
@@ -23974,6 +24174,26 @@
           <t>Gunnellichthys viridescens</t>
         </is>
       </c>
+      <c r="P219" t="inlineStr">
+        <is>
+          <t>Correct species</t>
+        </is>
+      </c>
+      <c r="Q219" t="inlineStr">
+        <is>
+          <t>Centropyge interrupta</t>
+        </is>
+      </c>
+      <c r="R219" t="inlineStr">
+        <is>
+          <t>Correct species</t>
+        </is>
+      </c>
+      <c r="S219" t="inlineStr">
+        <is>
+          <t>Centropyge interrupta</t>
+        </is>
+      </c>
       <c r="X219" t="inlineStr">
         <is>
           <t>Correct species</t>
@@ -24262,6 +24482,36 @@
           <t>Glyphis garricki</t>
         </is>
       </c>
+      <c r="P223" t="inlineStr">
+        <is>
+          <t>Correct species</t>
+        </is>
+      </c>
+      <c r="Q223" t="inlineStr">
+        <is>
+          <t>Glyphis garricki</t>
+        </is>
+      </c>
+      <c r="R223" t="inlineStr">
+        <is>
+          <t>Correct species</t>
+        </is>
+      </c>
+      <c r="S223" t="inlineStr">
+        <is>
+          <t>Glyphis garricki</t>
+        </is>
+      </c>
+      <c r="T223" t="inlineStr">
+        <is>
+          <t>Correct species</t>
+        </is>
+      </c>
+      <c r="U223" t="inlineStr">
+        <is>
+          <t>Glyphis garricki</t>
+        </is>
+      </c>
       <c r="X223" t="inlineStr">
         <is>
           <t>Correct species</t>
@@ -24379,6 +24629,36 @@
           <t>Rhinobatos schlegelii</t>
         </is>
       </c>
+      <c r="P224" t="inlineStr">
+        <is>
+          <t>Correct species</t>
+        </is>
+      </c>
+      <c r="Q224" t="inlineStr">
+        <is>
+          <t>Rhinobatos schlegelii</t>
+        </is>
+      </c>
+      <c r="R224" t="inlineStr">
+        <is>
+          <t>Correct species</t>
+        </is>
+      </c>
+      <c r="S224" t="inlineStr">
+        <is>
+          <t>Rhinobatos schlegelii</t>
+        </is>
+      </c>
+      <c r="T224" t="inlineStr">
+        <is>
+          <t>Correct species</t>
+        </is>
+      </c>
+      <c r="U224" t="inlineStr">
+        <is>
+          <t>Rhinobatos schlegelii</t>
+        </is>
+      </c>
       <c r="X224" t="inlineStr">
         <is>
           <t>Correct species</t>
@@ -24660,6 +24940,36 @@
           <t>Apristurus australis</t>
         </is>
       </c>
+      <c r="P227" t="inlineStr">
+        <is>
+          <t>Correct species</t>
+        </is>
+      </c>
+      <c r="Q227" t="inlineStr">
+        <is>
+          <t>Alopias pelagicus</t>
+        </is>
+      </c>
+      <c r="R227" t="inlineStr">
+        <is>
+          <t>Correct species</t>
+        </is>
+      </c>
+      <c r="S227" t="inlineStr">
+        <is>
+          <t>Alopias pelagicus</t>
+        </is>
+      </c>
+      <c r="T227" t="inlineStr">
+        <is>
+          <t>Correct species</t>
+        </is>
+      </c>
+      <c r="U227" t="inlineStr">
+        <is>
+          <t>Alopias pelagicus</t>
+        </is>
+      </c>
       <c r="V227" t="inlineStr">
         <is>
           <t>Correct species</t>
@@ -24797,6 +25107,26 @@
           <t>Canthigaster criobe</t>
         </is>
       </c>
+      <c r="P228" t="inlineStr">
+        <is>
+          <t>Correct species</t>
+        </is>
+      </c>
+      <c r="Q228" t="inlineStr">
+        <is>
+          <t>Paracirrhites arcatus</t>
+        </is>
+      </c>
+      <c r="R228" t="inlineStr">
+        <is>
+          <t>Correct species</t>
+        </is>
+      </c>
+      <c r="S228" t="inlineStr">
+        <is>
+          <t>Paracirrhites arcatus</t>
+        </is>
+      </c>
       <c r="V228" t="inlineStr">
         <is>
           <t>Correct species</t>
@@ -24914,6 +25244,26 @@
           <t>Nesiarchus nasutus</t>
         </is>
       </c>
+      <c r="P229" t="inlineStr">
+        <is>
+          <t>Correct species</t>
+        </is>
+      </c>
+      <c r="Q229" t="inlineStr">
+        <is>
+          <t>Nesiarchus nasutus</t>
+        </is>
+      </c>
+      <c r="R229" t="inlineStr">
+        <is>
+          <t>Correct species</t>
+        </is>
+      </c>
+      <c r="S229" t="inlineStr">
+        <is>
+          <t>Nesiarchus nasutus</t>
+        </is>
+      </c>
       <c r="X229" t="inlineStr">
         <is>
           <t>Correct species</t>
@@ -25155,6 +25505,36 @@
           <t>Tenualosa thibaudeaui</t>
         </is>
       </c>
+      <c r="P232" t="inlineStr">
+        <is>
+          <t>Correct species</t>
+        </is>
+      </c>
+      <c r="Q232" t="inlineStr">
+        <is>
+          <t>Potamothrissa acutirostris</t>
+        </is>
+      </c>
+      <c r="R232" t="inlineStr">
+        <is>
+          <t>Correct species</t>
+        </is>
+      </c>
+      <c r="S232" t="inlineStr">
+        <is>
+          <t>Potamothrissa acutirostris</t>
+        </is>
+      </c>
+      <c r="T232" t="inlineStr">
+        <is>
+          <t>Correct species</t>
+        </is>
+      </c>
+      <c r="U232" t="inlineStr">
+        <is>
+          <t>Potamothrissa acutirostris</t>
+        </is>
+      </c>
       <c r="X232" t="inlineStr">
         <is>
           <t>Correct species</t>
@@ -25272,6 +25652,36 @@
           <t>Lutjanus argentimaculatus</t>
         </is>
       </c>
+      <c r="P233" t="inlineStr">
+        <is>
+          <t>Correct species</t>
+        </is>
+      </c>
+      <c r="Q233" t="inlineStr">
+        <is>
+          <t>Lutjanus argentimaculatus</t>
+        </is>
+      </c>
+      <c r="R233" t="inlineStr">
+        <is>
+          <t>Correct species</t>
+        </is>
+      </c>
+      <c r="S233" t="inlineStr">
+        <is>
+          <t>Lutjanus argentimaculatus</t>
+        </is>
+      </c>
+      <c r="T233" t="inlineStr">
+        <is>
+          <t>Correct species</t>
+        </is>
+      </c>
+      <c r="U233" t="inlineStr">
+        <is>
+          <t>Lutjanus argentimaculatus</t>
+        </is>
+      </c>
       <c r="V233" t="inlineStr">
         <is>
           <t>Correct species</t>
@@ -25359,6 +25769,11 @@
           <t>Syngnathus exilis</t>
         </is>
       </c>
+      <c r="Q234" t="inlineStr">
+        <is>
+          <t>Syngnathus auliscus</t>
+        </is>
+      </c>
       <c r="AC234" t="inlineStr">
         <is>
           <t>Syngnathus californiensis</t>
@@ -25558,6 +25973,36 @@
           <t>Crocodylus moreletii</t>
         </is>
       </c>
+      <c r="P236" t="inlineStr">
+        <is>
+          <t>Correct species</t>
+        </is>
+      </c>
+      <c r="Q236" t="inlineStr">
+        <is>
+          <t>Crocodylus moreletii</t>
+        </is>
+      </c>
+      <c r="R236" t="inlineStr">
+        <is>
+          <t>Correct species</t>
+        </is>
+      </c>
+      <c r="S236" t="inlineStr">
+        <is>
+          <t>Crocodylus moreletii</t>
+        </is>
+      </c>
+      <c r="T236" t="inlineStr">
+        <is>
+          <t>Correct species</t>
+        </is>
+      </c>
+      <c r="U236" t="inlineStr">
+        <is>
+          <t>Crocodylus moreletii</t>
+        </is>
+      </c>
       <c r="X236" t="inlineStr">
         <is>
           <t>Correct species</t>
@@ -25685,6 +26130,36 @@
           <t>Pempheris multiradiata</t>
         </is>
       </c>
+      <c r="P237" t="inlineStr">
+        <is>
+          <t>Correct species</t>
+        </is>
+      </c>
+      <c r="Q237" t="inlineStr">
+        <is>
+          <t>Chimaera fulva</t>
+        </is>
+      </c>
+      <c r="R237" t="inlineStr">
+        <is>
+          <t>Correct species</t>
+        </is>
+      </c>
+      <c r="S237" t="inlineStr">
+        <is>
+          <t>Chimaera fulva</t>
+        </is>
+      </c>
+      <c r="T237" t="inlineStr">
+        <is>
+          <t>Correct species</t>
+        </is>
+      </c>
+      <c r="U237" t="inlineStr">
+        <is>
+          <t>Chimaera fulva</t>
+        </is>
+      </c>
       <c r="X237" t="inlineStr">
         <is>
           <t>Correct species</t>
@@ -25812,6 +26287,36 @@
           <t>Iso hawaiiensis</t>
         </is>
       </c>
+      <c r="P238" t="inlineStr">
+        <is>
+          <t>Correct species</t>
+        </is>
+      </c>
+      <c r="Q238" t="inlineStr">
+        <is>
+          <t>Diceratias pileatus</t>
+        </is>
+      </c>
+      <c r="R238" t="inlineStr">
+        <is>
+          <t>Correct species</t>
+        </is>
+      </c>
+      <c r="S238" t="inlineStr">
+        <is>
+          <t>Diceratias pileatus</t>
+        </is>
+      </c>
+      <c r="T238" t="inlineStr">
+        <is>
+          <t>Correct species</t>
+        </is>
+      </c>
+      <c r="U238" t="inlineStr">
+        <is>
+          <t>Diceratias pileatus</t>
+        </is>
+      </c>
       <c r="X238" t="inlineStr">
         <is>
           <t>Correct species</t>
@@ -25919,6 +26424,16 @@
           <t>Alepocephalus productus</t>
         </is>
       </c>
+      <c r="P239" t="inlineStr">
+        <is>
+          <t>Correct species</t>
+        </is>
+      </c>
+      <c r="Q239" t="inlineStr">
+        <is>
+          <t>Alepocephalus productus</t>
+        </is>
+      </c>
       <c r="X239" t="inlineStr">
         <is>
           <t>Correct species</t>
@@ -26123,6 +26638,16 @@
           <t>Takifugu pardalis</t>
         </is>
       </c>
+      <c r="P241" t="inlineStr">
+        <is>
+          <t>Correct species</t>
+        </is>
+      </c>
+      <c r="Q241" t="inlineStr">
+        <is>
+          <t>Takifugu pardalis</t>
+        </is>
+      </c>
       <c r="V241" t="inlineStr">
         <is>
           <t>Correct species</t>
@@ -26389,6 +26914,36 @@
           <t>Clupea harengus</t>
         </is>
       </c>
+      <c r="P244" t="inlineStr">
+        <is>
+          <t>Correct species</t>
+        </is>
+      </c>
+      <c r="Q244" t="inlineStr">
+        <is>
+          <t>Clupea harengus</t>
+        </is>
+      </c>
+      <c r="R244" t="inlineStr">
+        <is>
+          <t>Correct species</t>
+        </is>
+      </c>
+      <c r="S244" t="inlineStr">
+        <is>
+          <t>Clupea harengus</t>
+        </is>
+      </c>
+      <c r="T244" t="inlineStr">
+        <is>
+          <t>Correct species</t>
+        </is>
+      </c>
+      <c r="U244" t="inlineStr">
+        <is>
+          <t>Clupea harengus</t>
+        </is>
+      </c>
       <c r="V244" t="inlineStr">
         <is>
           <t>Correct species</t>
@@ -26476,6 +27031,16 @@
           <t>Parupeneus heptacantha</t>
         </is>
       </c>
+      <c r="P245" t="inlineStr">
+        <is>
+          <t>Incorrect species</t>
+        </is>
+      </c>
+      <c r="Q245" t="inlineStr">
+        <is>
+          <t>Parupeneus barberinus</t>
+        </is>
+      </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
@@ -26543,6 +27108,36 @@
           <t>Lobodon carcinophaga</t>
         </is>
       </c>
+      <c r="P246" t="inlineStr">
+        <is>
+          <t>Correct species</t>
+        </is>
+      </c>
+      <c r="Q246" t="inlineStr">
+        <is>
+          <t>Lobodon carcinophaga</t>
+        </is>
+      </c>
+      <c r="R246" t="inlineStr">
+        <is>
+          <t>Correct species</t>
+        </is>
+      </c>
+      <c r="S246" t="inlineStr">
+        <is>
+          <t>Lobodon carcinophaga</t>
+        </is>
+      </c>
+      <c r="T246" t="inlineStr">
+        <is>
+          <t>Correct species</t>
+        </is>
+      </c>
+      <c r="U246" t="inlineStr">
+        <is>
+          <t>Lobodon carcinophaga</t>
+        </is>
+      </c>
       <c r="X246" t="inlineStr">
         <is>
           <t>Correct species</t>
@@ -26670,6 +27265,26 @@
           <t>Anguilla mossambica</t>
         </is>
       </c>
+      <c r="P247" t="inlineStr">
+        <is>
+          <t>Correct species</t>
+        </is>
+      </c>
+      <c r="Q247" t="inlineStr">
+        <is>
+          <t>Anguilla mossambica</t>
+        </is>
+      </c>
+      <c r="R247" t="inlineStr">
+        <is>
+          <t>Correct species</t>
+        </is>
+      </c>
+      <c r="S247" t="inlineStr">
+        <is>
+          <t>Anguilla mossambica</t>
+        </is>
+      </c>
       <c r="X247" t="inlineStr">
         <is>
           <t>Correct species</t>
@@ -26958,6 +27573,36 @@
           <t>Gymnothorax emmae</t>
         </is>
       </c>
+      <c r="P251" t="inlineStr">
+        <is>
+          <t>Correct species</t>
+        </is>
+      </c>
+      <c r="Q251" t="inlineStr">
+        <is>
+          <t>Gymnothorax emmae</t>
+        </is>
+      </c>
+      <c r="R251" t="inlineStr">
+        <is>
+          <t>Correct species</t>
+        </is>
+      </c>
+      <c r="S251" t="inlineStr">
+        <is>
+          <t>Gymnothorax emmae</t>
+        </is>
+      </c>
+      <c r="T251" t="inlineStr">
+        <is>
+          <t>Correct species</t>
+        </is>
+      </c>
+      <c r="U251" t="inlineStr">
+        <is>
+          <t>Gymnothorax emmae</t>
+        </is>
+      </c>
       <c r="V251" t="inlineStr">
         <is>
           <t>Correct species</t>
@@ -27095,6 +27740,36 @@
           <t>Taenioides cirratus</t>
         </is>
       </c>
+      <c r="P252" t="inlineStr">
+        <is>
+          <t>Correct species</t>
+        </is>
+      </c>
+      <c r="Q252" t="inlineStr">
+        <is>
+          <t>Taenioides cirratus</t>
+        </is>
+      </c>
+      <c r="R252" t="inlineStr">
+        <is>
+          <t>Correct species</t>
+        </is>
+      </c>
+      <c r="S252" t="inlineStr">
+        <is>
+          <t>Taenioides cirratus</t>
+        </is>
+      </c>
+      <c r="T252" t="inlineStr">
+        <is>
+          <t>Correct species</t>
+        </is>
+      </c>
+      <c r="U252" t="inlineStr">
+        <is>
+          <t>Taenioides cirratus</t>
+        </is>
+      </c>
       <c r="X252" t="inlineStr">
         <is>
           <t>Correct species</t>
@@ -27192,6 +27867,26 @@
           <t>Amblyeleotris sungami</t>
         </is>
       </c>
+      <c r="P253" t="inlineStr">
+        <is>
+          <t>Correct species</t>
+        </is>
+      </c>
+      <c r="Q253" t="inlineStr">
+        <is>
+          <t>Acanthurus nigricans</t>
+        </is>
+      </c>
+      <c r="R253" t="inlineStr">
+        <is>
+          <t>Correct species</t>
+        </is>
+      </c>
+      <c r="S253" t="inlineStr">
+        <is>
+          <t>Acanthurus nigricans</t>
+        </is>
+      </c>
       <c r="AB253" t="inlineStr">
         <is>
           <t>Correct species</t>
@@ -27289,6 +27984,36 @@
           <t>Pristipomoides sieboldii</t>
         </is>
       </c>
+      <c r="P254" t="inlineStr">
+        <is>
+          <t>Correct species</t>
+        </is>
+      </c>
+      <c r="Q254" t="inlineStr">
+        <is>
+          <t>Pristipomoides sieboldii</t>
+        </is>
+      </c>
+      <c r="R254" t="inlineStr">
+        <is>
+          <t>Correct species</t>
+        </is>
+      </c>
+      <c r="S254" t="inlineStr">
+        <is>
+          <t>Pristipomoides sieboldii</t>
+        </is>
+      </c>
+      <c r="T254" t="inlineStr">
+        <is>
+          <t>Correct species</t>
+        </is>
+      </c>
+      <c r="U254" t="inlineStr">
+        <is>
+          <t>Pristipomoides sieboldii</t>
+        </is>
+      </c>
       <c r="V254" t="inlineStr">
         <is>
           <t>Correct species</t>
@@ -27426,6 +28151,36 @@
           <t>Phocoenoides dalli</t>
         </is>
       </c>
+      <c r="P255" t="inlineStr">
+        <is>
+          <t>Correct species</t>
+        </is>
+      </c>
+      <c r="Q255" t="inlineStr">
+        <is>
+          <t>Balaena mysticetus</t>
+        </is>
+      </c>
+      <c r="R255" t="inlineStr">
+        <is>
+          <t>Correct species</t>
+        </is>
+      </c>
+      <c r="S255" t="inlineStr">
+        <is>
+          <t>Balaena mysticetus</t>
+        </is>
+      </c>
+      <c r="T255" t="inlineStr">
+        <is>
+          <t>Correct species</t>
+        </is>
+      </c>
+      <c r="U255" t="inlineStr">
+        <is>
+          <t>Balaena mysticetus</t>
+        </is>
+      </c>
       <c r="V255" t="inlineStr">
         <is>
           <t>Correct species</t>
@@ -27630,6 +28385,36 @@
           <t>Phocoena phocoena</t>
         </is>
       </c>
+      <c r="P257" t="inlineStr">
+        <is>
+          <t>Correct species</t>
+        </is>
+      </c>
+      <c r="Q257" t="inlineStr">
+        <is>
+          <t>Phocoena phocoena</t>
+        </is>
+      </c>
+      <c r="R257" t="inlineStr">
+        <is>
+          <t>Correct species</t>
+        </is>
+      </c>
+      <c r="S257" t="inlineStr">
+        <is>
+          <t>Phocoena phocoena</t>
+        </is>
+      </c>
+      <c r="T257" t="inlineStr">
+        <is>
+          <t>Correct species</t>
+        </is>
+      </c>
+      <c r="U257" t="inlineStr">
+        <is>
+          <t>Phocoena phocoena</t>
+        </is>
+      </c>
       <c r="V257" t="inlineStr">
         <is>
           <t>Correct species</t>
@@ -27747,6 +28532,16 @@
           <t>Parophrys vetulus</t>
         </is>
       </c>
+      <c r="P258" t="inlineStr">
+        <is>
+          <t>Correct species</t>
+        </is>
+      </c>
+      <c r="Q258" t="inlineStr">
+        <is>
+          <t>Parophrys vetulus</t>
+        </is>
+      </c>
       <c r="X258" t="inlineStr">
         <is>
           <t>Correct species</t>
@@ -27906,6 +28701,36 @@
           <t>Ponticola platyrostris</t>
         </is>
       </c>
+      <c r="P260" t="inlineStr">
+        <is>
+          <t>Correct species</t>
+        </is>
+      </c>
+      <c r="Q260" t="inlineStr">
+        <is>
+          <t>Neogobius melanostomus</t>
+        </is>
+      </c>
+      <c r="R260" t="inlineStr">
+        <is>
+          <t>Correct species</t>
+        </is>
+      </c>
+      <c r="S260" t="inlineStr">
+        <is>
+          <t>Neogobius melanostomus</t>
+        </is>
+      </c>
+      <c r="T260" t="inlineStr">
+        <is>
+          <t>Correct species</t>
+        </is>
+      </c>
+      <c r="U260" t="inlineStr">
+        <is>
+          <t>Neogobius melanostomus</t>
+        </is>
+      </c>
       <c r="X260" t="inlineStr">
         <is>
           <t>Correct species</t>
@@ -28033,6 +28858,26 @@
           <t>Parapercis multiplicata</t>
         </is>
       </c>
+      <c r="P261" t="inlineStr">
+        <is>
+          <t>Correct species</t>
+        </is>
+      </c>
+      <c r="Q261" t="inlineStr">
+        <is>
+          <t>Chaetodon auriga</t>
+        </is>
+      </c>
+      <c r="R261" t="inlineStr">
+        <is>
+          <t>Correct species</t>
+        </is>
+      </c>
+      <c r="S261" t="inlineStr">
+        <is>
+          <t>Chaetodon auriga</t>
+        </is>
+      </c>
       <c r="V261" t="inlineStr">
         <is>
           <t>Correct species</t>
@@ -28237,6 +29082,36 @@
           <t>Apogon aurolineatus</t>
         </is>
       </c>
+      <c r="P263" t="inlineStr">
+        <is>
+          <t>Correct species</t>
+        </is>
+      </c>
+      <c r="Q263" t="inlineStr">
+        <is>
+          <t>Scleropages formosus</t>
+        </is>
+      </c>
+      <c r="R263" t="inlineStr">
+        <is>
+          <t>Correct species</t>
+        </is>
+      </c>
+      <c r="S263" t="inlineStr">
+        <is>
+          <t>Scleropages formosus</t>
+        </is>
+      </c>
+      <c r="T263" t="inlineStr">
+        <is>
+          <t>Correct species</t>
+        </is>
+      </c>
+      <c r="U263" t="inlineStr">
+        <is>
+          <t>Scleropages formosus</t>
+        </is>
+      </c>
       <c r="V263" t="inlineStr">
         <is>
           <t>Correct species</t>
@@ -28411,6 +29286,16 @@
           <t>Rhinogobius flumineus</t>
         </is>
       </c>
+      <c r="P265" t="inlineStr">
+        <is>
+          <t>Correct species</t>
+        </is>
+      </c>
+      <c r="Q265" t="inlineStr">
+        <is>
+          <t>Rhinogobius flumineus</t>
+        </is>
+      </c>
       <c r="V265" t="inlineStr">
         <is>
           <t>Correct species</t>
@@ -28535,6 +29420,26 @@
           <t>Hippocampus algiricus</t>
         </is>
       </c>
+      <c r="P267" t="inlineStr">
+        <is>
+          <t>Correct species</t>
+        </is>
+      </c>
+      <c r="Q267" t="inlineStr">
+        <is>
+          <t>Hippocampus algiricus</t>
+        </is>
+      </c>
+      <c r="R267" t="inlineStr">
+        <is>
+          <t>Correct species</t>
+        </is>
+      </c>
+      <c r="S267" t="inlineStr">
+        <is>
+          <t>Hippocampus algiricus</t>
+        </is>
+      </c>
       <c r="V267" t="inlineStr">
         <is>
           <t>Correct species</t>
@@ -28632,6 +29537,36 @@
           <t>Halosaurus ovenii</t>
         </is>
       </c>
+      <c r="P268" t="inlineStr">
+        <is>
+          <t>Correct species</t>
+        </is>
+      </c>
+      <c r="Q268" t="inlineStr">
+        <is>
+          <t>Halosaurus ovenii</t>
+        </is>
+      </c>
+      <c r="R268" t="inlineStr">
+        <is>
+          <t>Correct species</t>
+        </is>
+      </c>
+      <c r="S268" t="inlineStr">
+        <is>
+          <t>Halosaurus ovenii</t>
+        </is>
+      </c>
+      <c r="T268" t="inlineStr">
+        <is>
+          <t>Correct species</t>
+        </is>
+      </c>
+      <c r="U268" t="inlineStr">
+        <is>
+          <t>Halosaurus ovenii</t>
+        </is>
+      </c>
       <c r="Z268" t="inlineStr">
         <is>
           <t>Correct species</t>
@@ -28823,6 +29758,26 @@
           <t>Lepidochelys kempii</t>
         </is>
       </c>
+      <c r="P271" t="inlineStr">
+        <is>
+          <t>Correct species</t>
+        </is>
+      </c>
+      <c r="Q271" t="inlineStr">
+        <is>
+          <t>Lepidochelys kempii</t>
+        </is>
+      </c>
+      <c r="R271" t="inlineStr">
+        <is>
+          <t>Correct species</t>
+        </is>
+      </c>
+      <c r="S271" t="inlineStr">
+        <is>
+          <t>Lepidochelys kempii</t>
+        </is>
+      </c>
       <c r="X271" t="inlineStr">
         <is>
           <t>Correct species</t>
@@ -29054,6 +30009,26 @@
           <t>Seriola lalandi</t>
         </is>
       </c>
+      <c r="P274" t="inlineStr">
+        <is>
+          <t>Correct species</t>
+        </is>
+      </c>
+      <c r="Q274" t="inlineStr">
+        <is>
+          <t>Seriola lalandi</t>
+        </is>
+      </c>
+      <c r="R274" t="inlineStr">
+        <is>
+          <t>Correct species</t>
+        </is>
+      </c>
+      <c r="S274" t="inlineStr">
+        <is>
+          <t>Seriola lalandi</t>
+        </is>
+      </c>
       <c r="X274" t="inlineStr">
         <is>
           <t>Correct species</t>
@@ -29151,6 +30126,16 @@
           <t>Arothron stellatus</t>
         </is>
       </c>
+      <c r="Q275" t="inlineStr">
+        <is>
+          <t>Arothron stellatus</t>
+        </is>
+      </c>
+      <c r="S275" t="inlineStr">
+        <is>
+          <t>Arothron stellatus</t>
+        </is>
+      </c>
       <c r="W275" t="inlineStr">
         <is>
           <t>Arothron stellatus</t>
@@ -29315,6 +30300,36 @@
           <t>Sinomicrurus macclellandi</t>
         </is>
       </c>
+      <c r="P277" t="inlineStr">
+        <is>
+          <t>Correct species</t>
+        </is>
+      </c>
+      <c r="Q277" t="inlineStr">
+        <is>
+          <t>Sinomicrurus macclellandi</t>
+        </is>
+      </c>
+      <c r="R277" t="inlineStr">
+        <is>
+          <t>Correct species</t>
+        </is>
+      </c>
+      <c r="S277" t="inlineStr">
+        <is>
+          <t>Sinomicrurus macclellandi</t>
+        </is>
+      </c>
+      <c r="T277" t="inlineStr">
+        <is>
+          <t>Correct species</t>
+        </is>
+      </c>
+      <c r="U277" t="inlineStr">
+        <is>
+          <t>Sinomicrurus macclellandi</t>
+        </is>
+      </c>
       <c r="X277" t="inlineStr">
         <is>
           <t>Correct species</t>
@@ -29479,6 +30494,36 @@
           <t>Chaenogobius dolichognathus</t>
         </is>
       </c>
+      <c r="P279" t="inlineStr">
+        <is>
+          <t>Incorrect species</t>
+        </is>
+      </c>
+      <c r="Q279" t="inlineStr">
+        <is>
+          <t>Chaenogobius dolichognathus</t>
+        </is>
+      </c>
+      <c r="R279" t="inlineStr">
+        <is>
+          <t>Incorrect species</t>
+        </is>
+      </c>
+      <c r="S279" t="inlineStr">
+        <is>
+          <t>Chaenogobius dolichognathus</t>
+        </is>
+      </c>
+      <c r="T279" t="inlineStr">
+        <is>
+          <t>Incorrect species</t>
+        </is>
+      </c>
+      <c r="U279" t="inlineStr">
+        <is>
+          <t>Chaenogobius dolichognathus</t>
+        </is>
+      </c>
       <c r="AB279" t="inlineStr">
         <is>
           <t>Incorrect species</t>
@@ -29566,6 +30611,36 @@
           <t>Cynoglossus roulei</t>
         </is>
       </c>
+      <c r="P280" t="inlineStr">
+        <is>
+          <t>Correct species</t>
+        </is>
+      </c>
+      <c r="Q280" t="inlineStr">
+        <is>
+          <t>Cynoglossus roulei</t>
+        </is>
+      </c>
+      <c r="R280" t="inlineStr">
+        <is>
+          <t>Correct species</t>
+        </is>
+      </c>
+      <c r="S280" t="inlineStr">
+        <is>
+          <t>Cynoglossus roulei</t>
+        </is>
+      </c>
+      <c r="T280" t="inlineStr">
+        <is>
+          <t>Correct species</t>
+        </is>
+      </c>
+      <c r="U280" t="inlineStr">
+        <is>
+          <t>Cynoglossus roulei</t>
+        </is>
+      </c>
       <c r="V280" t="inlineStr">
         <is>
           <t>Incorrect species</t>
@@ -29693,6 +30768,36 @@
           <t>Cynoscion striatus</t>
         </is>
       </c>
+      <c r="P281" t="inlineStr">
+        <is>
+          <t>Correct species</t>
+        </is>
+      </c>
+      <c r="Q281" t="inlineStr">
+        <is>
+          <t>Bathytoshia brevicaudata</t>
+        </is>
+      </c>
+      <c r="R281" t="inlineStr">
+        <is>
+          <t>Correct species</t>
+        </is>
+      </c>
+      <c r="S281" t="inlineStr">
+        <is>
+          <t>Bathytoshia brevicaudata</t>
+        </is>
+      </c>
+      <c r="T281" t="inlineStr">
+        <is>
+          <t>Correct species</t>
+        </is>
+      </c>
+      <c r="U281" t="inlineStr">
+        <is>
+          <t>Bathytoshia brevicaudata</t>
+        </is>
+      </c>
       <c r="V281" t="inlineStr">
         <is>
           <t>Correct species</t>
@@ -29820,6 +30925,36 @@
           <t>Scincella modesta</t>
         </is>
       </c>
+      <c r="P282" t="inlineStr">
+        <is>
+          <t>Correct species</t>
+        </is>
+      </c>
+      <c r="Q282" t="inlineStr">
+        <is>
+          <t>Scincella modesta</t>
+        </is>
+      </c>
+      <c r="R282" t="inlineStr">
+        <is>
+          <t>Correct species</t>
+        </is>
+      </c>
+      <c r="S282" t="inlineStr">
+        <is>
+          <t>Scincella modesta</t>
+        </is>
+      </c>
+      <c r="T282" t="inlineStr">
+        <is>
+          <t>Correct species</t>
+        </is>
+      </c>
+      <c r="U282" t="inlineStr">
+        <is>
+          <t>Scincella modesta</t>
+        </is>
+      </c>
       <c r="X282" t="inlineStr">
         <is>
           <t>Correct species</t>
@@ -29927,6 +31062,26 @@
           <t>Gyps coprotheres</t>
         </is>
       </c>
+      <c r="P283" t="inlineStr">
+        <is>
+          <t>Correct species</t>
+        </is>
+      </c>
+      <c r="Q283" t="inlineStr">
+        <is>
+          <t>Gyps coprotheres</t>
+        </is>
+      </c>
+      <c r="R283" t="inlineStr">
+        <is>
+          <t>Correct species</t>
+        </is>
+      </c>
+      <c r="S283" t="inlineStr">
+        <is>
+          <t>Gyps coprotheres</t>
+        </is>
+      </c>
       <c r="X283" t="inlineStr">
         <is>
           <t>Correct species</t>
@@ -30111,6 +31266,36 @@
           <t>Clangula hyemalis</t>
         </is>
       </c>
+      <c r="P285" t="inlineStr">
+        <is>
+          <t>Correct species</t>
+        </is>
+      </c>
+      <c r="Q285" t="inlineStr">
+        <is>
+          <t>Calidris tenuirostris</t>
+        </is>
+      </c>
+      <c r="R285" t="inlineStr">
+        <is>
+          <t>Correct species</t>
+        </is>
+      </c>
+      <c r="S285" t="inlineStr">
+        <is>
+          <t>Calidris tenuirostris</t>
+        </is>
+      </c>
+      <c r="T285" t="inlineStr">
+        <is>
+          <t>Correct species</t>
+        </is>
+      </c>
+      <c r="U285" t="inlineStr">
+        <is>
+          <t>Calidris tenuirostris</t>
+        </is>
+      </c>
       <c r="V285" t="inlineStr">
         <is>
           <t>Correct species</t>
@@ -30228,6 +31413,16 @@
           <t>Macrourus berglax</t>
         </is>
       </c>
+      <c r="P286" t="inlineStr">
+        <is>
+          <t>Correct species</t>
+        </is>
+      </c>
+      <c r="Q286" t="inlineStr">
+        <is>
+          <t>Lycenchelys kolthoffi</t>
+        </is>
+      </c>
       <c r="Z286" t="inlineStr">
         <is>
           <t>Incorrect species</t>
@@ -30305,6 +31500,36 @@
           <t>Pseudanthias squamipinnis</t>
         </is>
       </c>
+      <c r="P287" t="inlineStr">
+        <is>
+          <t>Correct species</t>
+        </is>
+      </c>
+      <c r="Q287" t="inlineStr">
+        <is>
+          <t>Pseudanthias squamipinnis</t>
+        </is>
+      </c>
+      <c r="R287" t="inlineStr">
+        <is>
+          <t>Correct species</t>
+        </is>
+      </c>
+      <c r="S287" t="inlineStr">
+        <is>
+          <t>Pseudanthias squamipinnis</t>
+        </is>
+      </c>
+      <c r="T287" t="inlineStr">
+        <is>
+          <t>Correct species</t>
+        </is>
+      </c>
+      <c r="U287" t="inlineStr">
+        <is>
+          <t>Pseudanthias squamipinnis</t>
+        </is>
+      </c>
       <c r="AB287" t="inlineStr">
         <is>
           <t>Correct species</t>
@@ -30710,6 +31935,16 @@
           <t>Sicyopterus stiphodonoides</t>
         </is>
       </c>
+      <c r="P292" t="inlineStr">
+        <is>
+          <t>Correct species</t>
+        </is>
+      </c>
+      <c r="Q292" t="inlineStr">
+        <is>
+          <t>Sicyopterus stiphodonoides</t>
+        </is>
+      </c>
       <c r="X292" t="inlineStr">
         <is>
           <t>Correct species</t>
@@ -30807,6 +32042,36 @@
           <t>Chrysoblephus anglicus</t>
         </is>
       </c>
+      <c r="P293" t="inlineStr">
+        <is>
+          <t>Correct species</t>
+        </is>
+      </c>
+      <c r="Q293" t="inlineStr">
+        <is>
+          <t>Cheilinus undulatus</t>
+        </is>
+      </c>
+      <c r="R293" t="inlineStr">
+        <is>
+          <t>Correct species</t>
+        </is>
+      </c>
+      <c r="S293" t="inlineStr">
+        <is>
+          <t>Cheilinus undulatus</t>
+        </is>
+      </c>
+      <c r="T293" t="inlineStr">
+        <is>
+          <t>Correct species</t>
+        </is>
+      </c>
+      <c r="U293" t="inlineStr">
+        <is>
+          <t>Cheilinus undulatus</t>
+        </is>
+      </c>
       <c r="V293" t="inlineStr">
         <is>
           <t>Correct species</t>
@@ -30944,6 +32209,36 @@
           <t>Eleotris fusca</t>
         </is>
       </c>
+      <c r="P294" t="inlineStr">
+        <is>
+          <t>Correct species</t>
+        </is>
+      </c>
+      <c r="Q294" t="inlineStr">
+        <is>
+          <t>Eleotris fusca</t>
+        </is>
+      </c>
+      <c r="R294" t="inlineStr">
+        <is>
+          <t>Correct species</t>
+        </is>
+      </c>
+      <c r="S294" t="inlineStr">
+        <is>
+          <t>Eleotris fusca</t>
+        </is>
+      </c>
+      <c r="T294" t="inlineStr">
+        <is>
+          <t>Correct species</t>
+        </is>
+      </c>
+      <c r="U294" t="inlineStr">
+        <is>
+          <t>Eleotris fusca</t>
+        </is>
+      </c>
       <c r="V294" t="inlineStr">
         <is>
           <t>Correct species</t>
@@ -31081,6 +32376,36 @@
           <t>Globicephala macrorhynchus</t>
         </is>
       </c>
+      <c r="P295" t="inlineStr">
+        <is>
+          <t>Correct species</t>
+        </is>
+      </c>
+      <c r="Q295" t="inlineStr">
+        <is>
+          <t>Globicephala macrorhynchus</t>
+        </is>
+      </c>
+      <c r="R295" t="inlineStr">
+        <is>
+          <t>Correct species</t>
+        </is>
+      </c>
+      <c r="S295" t="inlineStr">
+        <is>
+          <t>Globicephala macrorhynchus</t>
+        </is>
+      </c>
+      <c r="T295" t="inlineStr">
+        <is>
+          <t>Correct species</t>
+        </is>
+      </c>
+      <c r="U295" t="inlineStr">
+        <is>
+          <t>Globicephala macrorhynchus</t>
+        </is>
+      </c>
       <c r="V295" t="inlineStr">
         <is>
           <t>Correct species</t>
@@ -31445,6 +32770,36 @@
         </is>
       </c>
       <c r="O299" t="inlineStr">
+        <is>
+          <t>Krefftichthys anderssoni</t>
+        </is>
+      </c>
+      <c r="P299" t="inlineStr">
+        <is>
+          <t>Correct species</t>
+        </is>
+      </c>
+      <c r="Q299" t="inlineStr">
+        <is>
+          <t>Krefftichthys anderssoni</t>
+        </is>
+      </c>
+      <c r="R299" t="inlineStr">
+        <is>
+          <t>Correct species</t>
+        </is>
+      </c>
+      <c r="S299" t="inlineStr">
+        <is>
+          <t>Krefftichthys anderssoni</t>
+        </is>
+      </c>
+      <c r="T299" t="inlineStr">
+        <is>
+          <t>Correct species</t>
+        </is>
+      </c>
+      <c r="U299" t="inlineStr">
         <is>
           <t>Krefftichthys anderssoni</t>
         </is>
